--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>num_datasets</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -472,11 +472,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>xgboost-r2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>num_datasets</t>
         </is>
       </c>
     </row>
@@ -485,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -493,13 +488,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.03758317427869103</v>
+        <v>1.272738525030661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1795420919575348</v>
+        <v>1.001021087635301</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.144467679974249</v>
+        <v>-99.94955297510916</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -509,9 +504,6 @@
       </c>
       <c r="I2" t="n">
         <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -519,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -527,13 +519,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.01706581846386758</v>
+        <v>0.004681242366835372</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1033959277750846</v>
+        <v>0.06599712985192831</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4664511136890597</v>
+        <v>-9.58182421104091</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -543,9 +535,6 @@
       </c>
       <c r="I3" t="n">
         <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -561,13 +550,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5817467145745837</v>
+        <v>0.1479965668163936</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7025820681821177</v>
+        <v>0.3383179479787091</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6463423432972097</v>
+        <v>0.2664054963559134</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -577,9 +566,6 @@
       </c>
       <c r="I4" t="n">
         <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -595,13 +581,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.048802305824097</v>
+        <v>0.0300243437951129</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1773889998291253</v>
+        <v>0.1460974739833959</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.660961277207618</v>
+        <v>-0.5467061950609207</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -611,9 +597,6 @@
       </c>
       <c r="I5" t="n">
         <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -629,13 +612,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6107909466009309</v>
+        <v>0.4119446936554683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6571726184779608</v>
+        <v>0.6088141651301388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4039173693539013</v>
+        <v>0.175995270033151</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -645,9 +628,6 @@
       </c>
       <c r="I6" t="n">
         <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -663,13 +643,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.002665129688750149</v>
+        <v>0.007102389845688404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03786694962677323</v>
+        <v>0.05975895530742376</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8142732227905642</v>
+        <v>-0.05220876232568683</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -679,9 +659,6 @@
       </c>
       <c r="I7" t="n">
         <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -689,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -697,13 +674,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0003443489800273756</v>
+        <v>0.03688144417944873</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01642908717241963</v>
+        <v>0.1827001729182579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.99940917526384</v>
+        <v>0.8165015843196424</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -713,9 +690,6 @@
       </c>
       <c r="I8" t="n">
         <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -723,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -731,13 +705,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.01994882266156803</v>
+        <v>0.03418111233205287</v>
       </c>
       <c r="E9" t="n">
-        <v>0.100135995654316</v>
+        <v>0.1612641338237301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3243799848299733</v>
+        <v>0.3873604781714681</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -747,9 +721,6 @@
       </c>
       <c r="I9" t="n">
         <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -757,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -765,13 +736,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6544387304819778</v>
+        <v>0.2773095619341656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7757684688720605</v>
+        <v>0.4519167710088678</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05817072704714332</v>
+        <v>0.4138175195565893</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -781,9 +752,6 @@
       </c>
       <c r="I10" t="n">
         <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -791,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -799,13 +767,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.002136993244955357</v>
+        <v>0.006772592443601781</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04182241321035128</v>
+        <v>0.06320780968964818</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.453442309799616</v>
+        <v>0.4017142641314676</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -815,9 +783,6 @@
       </c>
       <c r="I11" t="n">
         <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -825,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -833,13 +798,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0613426155061447</v>
+        <v>0.01450296874786915</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2411485789392932</v>
+        <v>0.1137936812231353</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9000651578567975</v>
+        <v>0.9773860114693936</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -849,9 +814,6 @@
       </c>
       <c r="I12" t="n">
         <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -859,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -867,13 +829,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.01253836848176974</v>
+        <v>0.02941400572824437</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09141758121692997</v>
+        <v>0.1438756321681871</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.468059708073082</v>
+        <v>-0.6604576690017467</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -883,9 +845,6 @@
       </c>
       <c r="I13" t="n">
         <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -893,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -901,13 +860,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2000928392138297</v>
+        <v>0.12981972546352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4052858945082942</v>
+        <v>0.3089349389142809</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7866938808863171</v>
+        <v>-0.1109718385714873</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -917,9 +876,6 @@
       </c>
       <c r="I14" t="n">
         <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -927,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -935,13 +891,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.004201017111903326</v>
+        <v>0.002918620621624469</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04855995976928792</v>
+        <v>0.04545875049633528</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4718733198062263</v>
+        <v>0.4285737619776644</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -951,9 +907,6 @@
       </c>
       <c r="I15" t="n">
         <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -961,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -969,13 +922,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.005532700330930272</v>
+        <v>0.00518879360794411</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06590302921142732</v>
+        <v>0.06047981593149613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9728108021001114</v>
+        <v>0.988768198851977</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -985,9 +938,6 @@
       </c>
       <c r="I16" t="n">
         <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1003,13 +953,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01469300085189828</v>
+        <v>0.02220188139115934</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09534179892071021</v>
+        <v>0.1208244515043594</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07864073219085521</v>
+        <v>0.130401081914439</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1019,9 +969,6 @@
       </c>
       <c r="I17" t="n">
         <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1029,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1037,13 +984,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1504085638656521</v>
+        <v>0.5281657182203853</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2949999268651287</v>
+        <v>0.5848875346415494</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6134349161499684</v>
+        <v>0.2026473694444251</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1053,9 +1000,6 @@
       </c>
       <c r="I18" t="n">
         <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1063,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1071,13 +1015,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.005584325214583729</v>
+        <v>0.006515414507673701</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05679811847513878</v>
+        <v>0.06560869567986889</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7844029328004465</v>
+        <v>0.6138337445865136</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1087,9 +1031,6 @@
       </c>
       <c r="I19" t="n">
         <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1097,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1105,13 +1046,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.008797238403837266</v>
+        <v>0.002965034728832181</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0809131926032722</v>
+        <v>0.04727710996062549</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9814496739576609</v>
+        <v>0.9930158691291312</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1121,9 +1062,6 @@
       </c>
       <c r="I20" t="n">
         <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1131,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1139,13 +1077,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.005411161713258417</v>
+        <v>0.0127300496885489</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05772631708849666</v>
+        <v>0.08357832313435669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4189360911802007</v>
+        <v>0.323560742790207</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1155,9 +1093,6 @@
       </c>
       <c r="I21" t="n">
         <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1165,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1173,13 +1108,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1593973868705165</v>
+        <v>0.3055308737072618</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3213967832122049</v>
+        <v>0.4302499734727361</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7233620844207838</v>
+        <v>0.4877872360456642</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1189,9 +1124,6 @@
       </c>
       <c r="I22" t="n">
         <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1199,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1207,13 +1139,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.007156150583924721</v>
+        <v>0.005003254049543266</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07117526952320204</v>
+        <v>0.05336481439588318</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6587654005519804</v>
+        <v>0.7771322023647058</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1223,9 +1155,6 @@
       </c>
       <c r="I23" t="n">
         <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1233,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1241,13 +1170,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.003286668725372846</v>
+        <v>0.002937908051578546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04661002582351814</v>
+        <v>0.04618588500753187</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9941910424186255</v>
+        <v>0.9888672536310429</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1257,9 +1186,6 @@
       </c>
       <c r="I24" t="n">
         <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1267,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1275,13 +1201,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.02827399631847489</v>
+        <v>0.02692706060762063</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1333408457400667</v>
+        <v>0.1211425276495143</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4436559226119344</v>
+        <v>-0.5922152530897533</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1291,9 +1217,6 @@
       </c>
       <c r="I25" t="n">
         <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1301,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1309,13 +1232,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2100124162605685</v>
+        <v>0.3507793512613079</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3897611515962773</v>
+        <v>0.4557659006540961</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6132434138682206</v>
+        <v>0.5230053525479866</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1325,9 +1248,6 @@
       </c>
       <c r="I26" t="n">
         <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1335,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1343,13 +1263,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.002631352018043691</v>
+        <v>0.002483774619414013</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04181657715848919</v>
+        <v>0.03953642951592836</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7599436559798118</v>
+        <v>0.7307866910765939</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1359,9 +1279,6 @@
       </c>
       <c r="I27" t="n">
         <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1369,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1377,13 +1294,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.001192256305772379</v>
+        <v>0.001545406261228</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0270136051834774</v>
+        <v>0.03047544670360625</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9974999238216323</v>
+        <v>0.9961885841296393</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1393,9 +1310,6 @@
       </c>
       <c r="I28" t="n">
         <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1403,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1411,13 +1325,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.0232770942028697</v>
+        <v>0.01305958332568587</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1214892991143292</v>
+        <v>0.09776919746165286</v>
       </c>
       <c r="F29" t="n">
-        <v>0.457477189225984</v>
+        <v>0.4444128269325514</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1427,9 +1341,6 @@
       </c>
       <c r="I29" t="n">
         <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1437,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1445,13 +1356,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.3732445572424091</v>
+        <v>0.7149814397654978</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5222431949419216</v>
+        <v>0.6527180242584451</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5871932944617211</v>
+        <v>-0.03795842599114385</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1461,9 +1372,6 @@
       </c>
       <c r="I30" t="n">
         <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1471,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1479,13 +1387,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.003690062168097362</v>
+        <v>0.002020773571423674</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05145376662319409</v>
+        <v>0.03686864350218162</v>
       </c>
       <c r="F31" t="n">
-        <v>0.492529326642694</v>
+        <v>0.7470455802538407</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1495,9 +1403,6 @@
       </c>
       <c r="I31" t="n">
         <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1505,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1513,13 +1418,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.001145576749835311</v>
+        <v>0.0006212165520109686</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02647597939562074</v>
+        <v>0.02103451229773954</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9979848037060839</v>
+        <v>0.9989543942224978</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1529,9 +1434,6 @@
       </c>
       <c r="I32" t="n">
         <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1539,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1547,13 +1449,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.02123016922952407</v>
+        <v>0.03097975634949345</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1097534956818474</v>
+        <v>0.1327099562315243</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1989202500215923</v>
+        <v>-0.2394496935559249</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1563,9 +1465,6 @@
       </c>
       <c r="I33" t="n">
         <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1573,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1581,13 +1480,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4480344411287607</v>
+        <v>0.9610149136020211</v>
       </c>
       <c r="E34" t="n">
-        <v>0.568447814246871</v>
+        <v>0.7610706765292633</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4948275138268028</v>
+        <v>0.2455866242951121</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1597,9 +1496,6 @@
       </c>
       <c r="I34" t="n">
         <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1607,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1615,13 +1511,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.003195055266169344</v>
+        <v>0.003266737125740131</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04292092482179367</v>
+        <v>0.04611816295950109</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8175047131715392</v>
+        <v>0.8102455383377797</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1631,9 +1527,6 @@
       </c>
       <c r="I35" t="n">
         <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1641,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1649,13 +1542,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0005045210911330968</v>
+        <v>0.000383843834156819</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01784069080694296</v>
+        <v>0.01561489597329374</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9984873574114999</v>
+        <v>0.9991744604090941</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1665,9 +1558,6 @@
       </c>
       <c r="I36" t="n">
         <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1675,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1683,13 +1573,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.03932026266296072</v>
+        <v>0.01489578736157146</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1550571800385309</v>
+        <v>0.08772046660108747</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4548512681621756</v>
+        <v>0.5365869293904399</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1699,9 +1589,6 @@
       </c>
       <c r="I37" t="n">
         <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1709,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1717,13 +1604,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8190963424069589</v>
+        <v>0.6360998757536743</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7238375408787222</v>
+        <v>0.671408877849263</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4056276013644584</v>
+        <v>0.5611313604297692</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1733,9 +1620,6 @@
       </c>
       <c r="I38" t="n">
         <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1751,13 +1635,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.003457496464005741</v>
+        <v>0.002126034093291866</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04570363866122605</v>
+        <v>0.03470775531211121</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7994173490023826</v>
+        <v>0.6560754727590548</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1767,9 +1651,6 @@
       </c>
       <c r="I39" t="n">
         <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1777,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1785,13 +1666,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0004888846859035962</v>
+        <v>0.0003125645248692131</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01818340202006984</v>
+        <v>0.01369428965736787</v>
       </c>
       <c r="F40" t="n">
-        <v>0.998880734541538</v>
+        <v>0.9995452634539188</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1801,9 +1682,6 @@
       </c>
       <c r="I40" t="n">
         <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1811,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1819,13 +1697,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.02077011927734482</v>
+        <v>0.01104147724073007</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09900463692741722</v>
+        <v>0.07676686334984389</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3165538867069805</v>
+        <v>0.5813658932358796</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1835,9 +1713,6 @@
       </c>
       <c r="I41" t="n">
         <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1845,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1853,13 +1728,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6473598595154744</v>
+        <v>0.5707275539500788</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6903610747451843</v>
+        <v>0.5963080765453487</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4389486615120597</v>
+        <v>0.20623444485733</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1869,9 +1744,6 @@
       </c>
       <c r="I42" t="n">
         <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1879,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1887,13 +1759,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.001521489151995794</v>
+        <v>0.001840249632563301</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03249595369430152</v>
+        <v>0.03676928262432123</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8961898447152384</v>
+        <v>0.8781893702421425</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1903,9 +1775,6 @@
       </c>
       <c r="I43" t="n">
         <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1913,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1921,13 +1790,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.000457245149129433</v>
+        <v>0.0002018366131182123</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01604724793467887</v>
+        <v>0.01135675062104692</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9993656713194452</v>
+        <v>0.9996402804034157</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1937,9 +1806,6 @@
       </c>
       <c r="I44" t="n">
         <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1947,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1955,13 +1821,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.03152644385285144</v>
+        <v>0.01611974969238979</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1331813811005625</v>
+        <v>0.09267787085470752</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4113174330992582</v>
+        <v>0.3106412667192852</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1971,9 +1837,6 @@
       </c>
       <c r="I45" t="n">
         <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LR-mse</t>
+          <t>ridge-mse</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LR-mae</t>
+          <t>ridge-mae</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LR-r2</t>
+          <t>ridge-r2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>lasso-mse</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lasso-mae</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lasso-r2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>xgboost-mse</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>xgboost-mae</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>xgboost-r2</t>
         </is>
@@ -488,22 +503,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.272738525030661</v>
+        <v>0.4555217868538914</v>
       </c>
       <c r="E2" t="n">
-        <v>1.001021087635301</v>
+        <v>0.6559421920886156</v>
       </c>
       <c r="F2" t="n">
-        <v>-99.94955297510916</v>
+        <v>0.4089549219551496</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.4895832612129138</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.6329498048539489</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3647597432571255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9941698772103497</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8569269179105919</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.289947509765625</v>
       </c>
     </row>
     <row r="3">
@@ -519,22 +543,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.004681242366835372</v>
+        <v>0.002988124313379409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06599712985192831</v>
+        <v>0.04841758608595412</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.58182421104091</v>
+        <v>-5.725437550555314</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0004651032234788107</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.01966173521066257</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0.04681812268080887</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0002132211573344991</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01115800543319008</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5200984477996826</v>
       </c>
     </row>
     <row r="4">
@@ -550,22 +583,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1479965668163936</v>
+        <v>0.7389480115939605</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3383179479787091</v>
+        <v>0.7090462086306203</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2664054963559134</v>
+        <v>-1.008301059448199</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.054001041272581</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.8333021419539891</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-1.864547132728939</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.270454786461915</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4414485555339542</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2649623155593872</v>
       </c>
     </row>
     <row r="5">
@@ -581,22 +623,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.0300243437951129</v>
+        <v>0.02066471219480738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1460974739833959</v>
+        <v>0.1250926694518139</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5467061950609207</v>
+        <v>-3.539807495611556</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.004580809464952993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06032313217986614</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0.006352904841692819</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02385738694551365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1367146381495341</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-4.241201877593994</v>
       </c>
     </row>
     <row r="6">
@@ -612,22 +663,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4119446936554683</v>
+        <v>0.1802190135412876</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6088141651301388</v>
+        <v>0.317837250480989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.175995270033151</v>
+        <v>0.6583704394415938</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1386172118951059</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.2841927836159081</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.7372322916710037</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.07918632673914</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6152668863188908</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.045743703842163</v>
       </c>
     </row>
     <row r="7">
@@ -643,22 +703,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.007102389845688404</v>
+        <v>0.003913098349716283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05975895530742376</v>
+        <v>0.04928439693972672</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05220876232568683</v>
+        <v>-9.760130853583744</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0006548470085674035</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.01880624568997617</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0.800680399912264</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01509386526502207</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1099542017857684</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-40.50469970703125</v>
       </c>
     </row>
     <row r="8">
@@ -674,22 +743,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.03688144417944873</v>
+        <v>0.02175824278738109</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1827001729182579</v>
+        <v>0.120872224357004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8165015843196424</v>
+        <v>0.919725851458979</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1320598131212355</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.3278540909346548</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.5127828493143907</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.685048653619287</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.614575346711288</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.527396202087402</v>
       </c>
     </row>
     <row r="9">
@@ -705,22 +783,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.03418111233205287</v>
+        <v>0.03528139083177481</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1612641338237301</v>
+        <v>0.1629928061165129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3873604781714681</v>
+        <v>0.1955535449817951</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04882442177626456</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.1789632000866924</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0.1132393618920686</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.06474638960879475</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1706129851657544</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.4762741327285767</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +823,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2773095619341656</v>
+        <v>0.2165676706663755</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4519167710088678</v>
+        <v>0.3850714572422671</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4138175195565893</v>
+        <v>0.6478062969415443</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2169920778858596</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.4002062236725769</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.6471161036648891</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01612003466364265</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1100539504757916</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9737847447395325</v>
       </c>
     </row>
     <row r="11">
@@ -767,22 +863,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.006772592443601781</v>
+        <v>0.002904497425419079</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06320780968964818</v>
+        <v>0.04561174881337166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4017142641314676</v>
+        <v>-0.7131849952988543</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.001980770454537891</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.03633533443243084</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-0.168335076542883</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001224997556019624</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.02975516769273273</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2774490714073181</v>
       </c>
     </row>
     <row r="12">
@@ -798,22 +903,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01450296874786915</v>
+        <v>0.01829065190554527</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1137936812231353</v>
+        <v>0.1295127589827779</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9773860114693936</v>
+        <v>0.9713119060660635</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.1758797151961127</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.4028342615075391</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.7241402976407667</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.559754919707975</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9109831966430725</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.446408033370972</v>
       </c>
     </row>
     <row r="13">
@@ -829,22 +943,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.02941400572824437</v>
+        <v>0.006238006300636372</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1438756321681871</v>
+        <v>0.07542658245285325</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6604576690017467</v>
+        <v>0.697598906782974</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.02101479259695365</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.120973362300728</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.01873835145045488</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01618400814564043</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1117747390547664</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.2154445648193359</v>
       </c>
     </row>
     <row r="14">
@@ -860,22 +983,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.12981972546352</v>
+        <v>0.1281430031346213</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3089349389142809</v>
+        <v>0.3020507033891499</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1109718385714873</v>
+        <v>0.589641172113655</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1093031179273313</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.2328201897832586</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.649973090533382</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1285136656382808</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2434322092452112</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5884541273117065</v>
       </c>
     </row>
     <row r="15">
@@ -891,22 +1023,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.002918620621624469</v>
+        <v>0.005768714101245766</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04545875049633528</v>
+        <v>0.06019330579646735</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4285737619776644</v>
+        <v>0.2888615355659494</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.008806101573942914</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.07226114276315541</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0.08557252812921878</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005505576747574583</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.06214438497687997</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3212997317314148</v>
       </c>
     </row>
     <row r="16">
@@ -922,22 +1063,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.00518879360794411</v>
+        <v>0.005381720170851961</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06047981593149613</v>
+        <v>0.0667412693438502</v>
       </c>
       <c r="F16" t="n">
-        <v>0.988768198851977</v>
+        <v>0.9898084578963992</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.05331054510796161</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.1769343105197016</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.8990440513840965</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.06454078295409384</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2003400080982035</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8777769804000854</v>
       </c>
     </row>
     <row r="17">
@@ -953,22 +1103,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.02220188139115934</v>
+        <v>0.01420746769981548</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1208244515043594</v>
+        <v>0.09014339940749733</v>
       </c>
       <c r="F17" t="n">
-        <v>0.130401081914439</v>
+        <v>0.5046880225955535</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0299519725747963</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1386325015044186</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0.04420936064340197</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01667851580566424</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1065035275297454</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4185404181480408</v>
       </c>
     </row>
     <row r="18">
@@ -984,22 +1143,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5281657182203853</v>
+        <v>0.429715549898142</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5848875346415494</v>
+        <v>0.5351080393155605</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2026473694444251</v>
+        <v>0.5477588934265191</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5402706405748542</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.5762972430694974</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.4314085389726972</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1656705155254224</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2680925709018356</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8256450891494751</v>
       </c>
     </row>
     <row r="19">
@@ -1015,22 +1183,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.006515414507673701</v>
+        <v>0.003192438265960879</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06560869567986889</v>
+        <v>0.04665420423086466</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6138337445865136</v>
+        <v>0.7843873761292298</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.01638856303714907</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.08784196247361803</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-0.1068596425458737</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.003327193912451756</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.04732199711247242</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7752861976623535</v>
       </c>
     </row>
     <row r="20">
@@ -1046,22 +1223,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.002965034728832181</v>
+        <v>0.0009082024813792507</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04727710996062549</v>
+        <v>0.02407132256367746</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9930158691291312</v>
+        <v>0.9984369481081193</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.05153392827035109</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.188901391640382</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.9113080995366933</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1195801711162124</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2250336787862857</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7941978573799133</v>
       </c>
     </row>
     <row r="21">
@@ -1077,22 +1263,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0127300496885489</v>
+        <v>0.01836915555100058</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08357832313435669</v>
+        <v>0.1063966136919262</v>
       </c>
       <c r="F21" t="n">
-        <v>0.323560742790207</v>
+        <v>0.2427956669827205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.02571000984740296</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.113159588073467</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-0.0598054333156337</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01450148985258233</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1002564532156792</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.4022267460823059</v>
       </c>
     </row>
     <row r="22">
@@ -1108,22 +1303,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3055308737072618</v>
+        <v>0.2954145445497295</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4302499734727361</v>
+        <v>0.4277541684096843</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4877872360456642</v>
+        <v>0.3751370817637872</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2703131541825919</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.4187001343823662</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.4282317188626575</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2026646684747554</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3225759123778066</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5713223218917847</v>
       </c>
     </row>
     <row r="23">
@@ -1139,22 +1343,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.005003254049543266</v>
+        <v>0.002089291442636698</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05336481439588318</v>
+        <v>0.03201062185616397</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7771322023647058</v>
+        <v>0.702512701093067</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.007079411729769635</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.05803782232839373</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-0.008014023491810685</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001998942698850641</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0310712653184708</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.715377151966095</v>
       </c>
     </row>
     <row r="24">
@@ -1170,22 +1383,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.002937908051578546</v>
+        <v>0.0007908554371018908</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04618588500753187</v>
+        <v>0.02523672238464457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9888672536310429</v>
+        <v>0.9989407170998003</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.04942457013328184</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.1919306277113631</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.9338000353341934</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.03019950871981471</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.113530555891872</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9595503807067871</v>
       </c>
     </row>
     <row r="25">
@@ -1201,22 +1423,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.02692706060762063</v>
+        <v>0.02619433802044649</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1211425276495143</v>
+        <v>0.1280007366101777</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5922152530897533</v>
+        <v>0.3656375753349544</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.04459541574564238</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.1607998004004359</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-0.07999125762481274</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0243807035184296</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1143278450541323</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.4095593690872192</v>
       </c>
     </row>
     <row r="26">
@@ -1232,22 +1463,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3507793512613079</v>
+        <v>0.5918112836059127</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4557659006540961</v>
+        <v>0.6565435249110751</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5230053525479866</v>
+        <v>0.1893538713534353</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.5730060388032903</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.6323304162728374</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.2151127565247563</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2009062157758014</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.347596522544342</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7248044013977051</v>
       </c>
     </row>
     <row r="27">
@@ -1263,22 +1503,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.002483774619414013</v>
+        <v>0.003389784043762349</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03953642951592836</v>
+        <v>0.04810297724058742</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7307866910765939</v>
+        <v>0.7998404419569527</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0198941962348144</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.104107163553916</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-0.1747100920218019</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001684586643748755</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.03282225607969128</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9005287289619446</v>
       </c>
     </row>
     <row r="28">
@@ -1294,22 +1543,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.001545406261228</v>
+        <v>0.0007378768616483174</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03047544670360625</v>
+        <v>0.02282283350922887</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9961885841296393</v>
+        <v>0.9980035076043899</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.06072601871421245</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.2066465479201345</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.8356920498797482</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01835511858529847</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.09758033056552942</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9503360986709595</v>
       </c>
     </row>
     <row r="29">
@@ -1325,22 +1583,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01305958332568587</v>
+        <v>0.008211769075595713</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09776919746165286</v>
+        <v>0.07057391302081108</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4444128269325514</v>
+        <v>0.4221758628744071</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01427557615828159</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.09460049682468691</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0.004506142305438443</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.002965972668589699</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.04715802334407618</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.7912982702255249</v>
       </c>
     </row>
     <row r="30">
@@ -1356,22 +1623,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.7149814397654978</v>
+        <v>0.4976319942844214</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6527180242584451</v>
+        <v>0.5705188146567043</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03795842599114385</v>
+        <v>0.4206011821853636</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5672802520990349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.5944915056872853</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.3395088916893234</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.3608427712787368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4130952286648139</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5798665285110474</v>
       </c>
     </row>
     <row r="31">
@@ -1387,22 +1663,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.002020773571423674</v>
+        <v>0.002520021092827574</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03686864350218162</v>
+        <v>0.04294386817466987</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7470455802538407</v>
+        <v>0.7914540186794278</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.01282972360056906</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.07336148684526496</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0.06173210453181377</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0011873180670401</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02754906872393228</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9017427563667297</v>
       </c>
     </row>
     <row r="32">
@@ -1418,22 +1703,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0006212165520109686</v>
+        <v>0.0004529305633722731</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02103451229773954</v>
+        <v>0.01579541117688398</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9989543942224978</v>
+        <v>0.9992365225234001</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.05768198761653275</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1843763734208168</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.9027689851114311</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03881342973865676</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1317587647781326</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9345745444297791</v>
       </c>
     </row>
     <row r="33">
@@ -1449,22 +1743,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.03097975634949345</v>
+        <v>0.02690364466051384</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1327099562315243</v>
+        <v>0.1262348938064764</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2394496935559249</v>
+        <v>0.3420724965303507</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.04099381087767926</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.1566502833858486</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-0.002501928225487893</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.002311185659356185</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.03963498097968482</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9434800744056702</v>
       </c>
     </row>
     <row r="34">
@@ -1480,22 +1783,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9610149136020211</v>
+        <v>0.7432741230166445</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7610706765292633</v>
+        <v>0.677410285073865</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2455866242951121</v>
+        <v>-0.1084399780585281</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.6958140768215628</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.647586677766791</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-0.03766311265438294</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4693920920131764</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.4531089294904214</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.2999984622001648</v>
       </c>
     </row>
     <row r="35">
@@ -1511,22 +1823,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.003266737125740131</v>
+        <v>0.0040338970416183</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04611816295950109</v>
+        <v>0.04861330311805478</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8102455383377797</v>
+        <v>0.7938000717156422</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.01961147848968805</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.1081032368923594</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-0.00247612083366322</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.001731022700665793</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.029252196112437</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9115156531333923</v>
       </c>
     </row>
     <row r="36">
@@ -1542,22 +1863,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.000383843834156819</v>
+        <v>0.0004381527215155775</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01561489597329374</v>
+        <v>0.01727574288092266</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9991744604090941</v>
+        <v>0.9991789886652012</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.04092186012248861</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.1691207425407663</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.9233205470334578</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01498235216580923</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.07894558452209127</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9719260334968567</v>
       </c>
     </row>
     <row r="37">
@@ -1573,22 +1903,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.01489578736157146</v>
+        <v>0.02613547158090934</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08772046660108747</v>
+        <v>0.1143382813535579</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5365869293904399</v>
+        <v>0.4242269286562712</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.04828291257090975</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.1596333759790792</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-0.06368851154306165</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.008917237488669851</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.06287509041528928</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.8035502433776855</v>
       </c>
     </row>
     <row r="38">
@@ -1604,22 +1943,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6360998757536743</v>
+        <v>0.6987028627198645</v>
       </c>
       <c r="E38" t="n">
-        <v>0.671408877849263</v>
+        <v>0.689576246984151</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5611313604297692</v>
+        <v>0.5232675613674</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.7149922521956358</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.7021636212667907</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.5121531366484416</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.2369010373415994</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.3659951379019186</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.8383598923683167</v>
       </c>
     </row>
     <row r="39">
@@ -1635,22 +1983,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.002126034093291866</v>
+        <v>0.002149682634554463</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03470775531211121</v>
+        <v>0.03630753474199502</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6560754727590548</v>
+        <v>0.8432058151066411</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.01416858840960472</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.09288755833181378</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-0.03343267283447071</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.001013591582794082</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0241912983721007</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9260703325271606</v>
       </c>
     </row>
     <row r="40">
@@ -1666,22 +2023,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0003125645248692131</v>
+        <v>0.0003866574697316616</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01369428965736787</v>
+        <v>0.01554053245105381</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9995452634539188</v>
+        <v>0.9993528980844308</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.03153958269424816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.1435281012870241</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.947216009063882</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.04104149805828988</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1479359758981671</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9313138127326965</v>
       </c>
     </row>
     <row r="41">
@@ -1697,22 +2063,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.01104147724073007</v>
+        <v>0.02345862545883696</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07676686334984389</v>
+        <v>0.1068870127110012</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5813658932358796</v>
+        <v>0.425593946493137</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.04728331565394796</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.1634508183448903</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-0.1577755392855853</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.005540338678735042</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.05303952676454876</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.8643397092819214</v>
       </c>
     </row>
     <row r="42">
@@ -1728,22 +2103,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5707275539500788</v>
+        <v>0.8829465774625439</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5963080765453487</v>
+        <v>0.7718022041906407</v>
       </c>
       <c r="F42" t="n">
-        <v>0.20623444485733</v>
+        <v>0.1648456019557372</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.7698737354345889</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.7099937863494876</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.2717980311620408</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.4615475742106706</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.4378278312754901</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5634350776672363</v>
       </c>
     </row>
     <row r="43">
@@ -1759,22 +2143,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.001840249632563301</v>
+        <v>0.003257710828626241</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03676928262432123</v>
+        <v>0.04888762447656634</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8781893702421425</v>
+        <v>0.8448899972503131</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.02103183829883955</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.1192327957034324</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-0.001392900713549361</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.001207541261561012</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0229813967426578</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9425051212310791</v>
       </c>
     </row>
     <row r="44">
@@ -1790,22 +2183,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0002018366131182123</v>
+        <v>0.0003714879565056171</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01135675062104692</v>
+        <v>0.01576981514940986</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9996402804034157</v>
+        <v>0.9994360003434568</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.04716679962838002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.1845209071396596</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.9283905216177682</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.02592102022334339</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1193012027367688</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9606462717056274</v>
       </c>
     </row>
     <row r="45">
@@ -1821,22 +2223,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.01611974969238979</v>
+        <v>0.02537644589697369</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09267787085470752</v>
+        <v>0.1227012247935206</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3106412667192852</v>
+        <v>0.3783356222217132</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.04117650642544363</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.1613923439557332</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>-0.008729407970789582</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01113764919293969</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.06641011125885074</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.7271532416343689</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>ridge-rmse</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>ridge-r2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>lasso-mse</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>lasso-mae</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>lasso-rmse</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>lasso-r2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>xgboost-mse</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>xgboost-mae</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost-rmse</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>xgboost-r2</t>
         </is>
@@ -503,31 +518,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4555217868538914</v>
+        <v>1.289573052418313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6559421920886156</v>
+        <v>0.8832646726256478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4089549219551496</v>
+        <v>1.135593700413274</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4895832612129138</v>
+        <v>-2448.844050038991</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6329498048539489</v>
+        <v>1.079706491686972</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3647597432571255</v>
+        <v>0.7874595630620885</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9941698772103497</v>
+        <v>1.039089260692734</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8569269179105919</v>
+        <v>-2050.1536895777</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.289947509765625</v>
+        <v>0.009400629788290508</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.08998701038150021</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.09695684497904472</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-16.85868072509766</v>
       </c>
     </row>
     <row r="3">
@@ -543,31 +567,40 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.002988124313379409</v>
+        <v>0.02975630782075484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04841758608595412</v>
+        <v>0.1527682257750916</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.725437550555314</v>
+        <v>0.1725001675963094</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004651032234788107</v>
+        <v>-2.302037679448254</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01966173521066257</v>
+        <v>0.01884128763378268</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04681812268080887</v>
+        <v>0.09914529270470984</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002132211573344991</v>
+        <v>0.1372635699440412</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01115800543319008</v>
+        <v>-1.090805151998008</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5200984477996826</v>
+        <v>0.07043338619492488</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2076695640238753</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2653928902493902</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-6.815946578979492</v>
       </c>
     </row>
     <row r="4">
@@ -583,31 +616,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7389480115939605</v>
+        <v>0.1453425915773927</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7090462086306203</v>
+        <v>0.3558587342383852</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.008301059448199</v>
+        <v>0.3812382346740588</v>
       </c>
       <c r="G4" t="n">
-        <v>1.054001041272581</v>
+        <v>0.8650903768358645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8333021419539891</v>
+        <v>0.5878298630472346</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.864547132728939</v>
+        <v>0.6540531112478326</v>
       </c>
       <c r="J4" t="n">
-        <v>0.270454786461915</v>
+        <v>0.7667006345681701</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4414485555339542</v>
+        <v>0.45436568560084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2649623155593872</v>
+        <v>1.719952429825748</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9218550453037366</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.311469568776092</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.5964908599853516</v>
       </c>
     </row>
     <row r="5">
@@ -623,31 +665,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.02066471219480738</v>
+        <v>0.008486759786994902</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1250926694518139</v>
+        <v>0.08277396377928019</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.539807495611556</v>
+        <v>0.0921236114521945</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004580809464952993</v>
+        <v>-0.7925915089072357</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06032313217986614</v>
+        <v>0.004892140586834311</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.006352904841692819</v>
+        <v>0.06630968076640387</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02385738694551365</v>
+        <v>0.0699438388053895</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1367146381495341</v>
+        <v>-0.03332837224616458</v>
       </c>
       <c r="L5" t="n">
-        <v>-4.241201877593994</v>
+        <v>0.03408806090084083</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1513821066302426</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1846295233727283</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-6.200153350830078</v>
       </c>
     </row>
     <row r="6">
@@ -663,31 +714,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1802190135412876</v>
+        <v>0.1979529847896347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.317837250480989</v>
+        <v>0.3961494905783883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6583704394415938</v>
+        <v>0.4449190766753374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1386172118951059</v>
+        <v>0.3003825293157965</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2841927836159081</v>
+        <v>0.2154351728242987</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7372322916710037</v>
+        <v>0.2952658906002808</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07918632673914</v>
+        <v>0.4641499464874457</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6152668863188908</v>
+        <v>0.23859591777349</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.045743703842163</v>
+        <v>0.05231312850597547</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1794581883426989</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2287206341937156</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8151117563247681</v>
       </c>
     </row>
     <row r="7">
@@ -703,31 +763,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.003913098349716283</v>
+        <v>0.01351939015167408</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04928439693972672</v>
+        <v>0.1053847138246272</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.760130853583744</v>
+        <v>0.1162729123728914</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006548470085674035</v>
+        <v>0.436890370946565</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01880624568997617</v>
+        <v>0.02722349109458616</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.800680399912264</v>
+        <v>0.1471371073143612</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01509386526502207</v>
+        <v>0.1649954274959951</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1099542017857684</v>
+        <v>-0.133912831853118</v>
       </c>
       <c r="L7" t="n">
-        <v>-40.50469970703125</v>
+        <v>0.03521424567813512</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1870999338650436</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1876545914123476</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.4667438268661499</v>
       </c>
     </row>
     <row r="8">
@@ -743,31 +812,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.02175824278738109</v>
+        <v>0.05329166831895773</v>
       </c>
       <c r="E8" t="n">
-        <v>0.120872224357004</v>
+        <v>0.210749383657137</v>
       </c>
       <c r="F8" t="n">
-        <v>0.919725851458979</v>
+        <v>0.2308498826487848</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1320598131212355</v>
+        <v>-3.489659225437078</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3278540909346548</v>
+        <v>0.0309746969715144</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5127828493143907</v>
+        <v>0.1475988244061358</v>
       </c>
       <c r="J8" t="n">
-        <v>0.685048653619287</v>
+        <v>0.1759962981755991</v>
       </c>
       <c r="K8" t="n">
-        <v>0.614575346711288</v>
+        <v>-1.609522996745946</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.527396202087402</v>
+        <v>0.1627273505607498</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3185363700219948</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4033947825155276</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-12.70927810668945</v>
       </c>
     </row>
     <row r="9">
@@ -783,31 +861,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.03528139083177481</v>
+        <v>0.02771979154246303</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1629928061165129</v>
+        <v>0.1388002655975039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1955535449817951</v>
+        <v>0.1664926170809476</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04882442177626456</v>
+        <v>-0.1497770599424717</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1789632000866924</v>
+        <v>0.03628611749823873</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1132393618920686</v>
+        <v>0.1302948386291742</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06474638960879475</v>
+        <v>0.1904891532298853</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1706129851657544</v>
+        <v>-0.5050959322670616</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.4762741327285767</v>
+        <v>0.0009353024370237114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02879106955827218</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.03058271467714584</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.961205005645752</v>
       </c>
     </row>
     <row r="10">
@@ -823,31 +910,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2165676706663755</v>
+        <v>0.2142135376123519</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3850714572422671</v>
+        <v>0.3868976302315277</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6478062969415443</v>
+        <v>0.4628320836030622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2169920778858596</v>
+        <v>0.3010622290273417</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4002062236725769</v>
+        <v>0.185443586319068</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6471161036648891</v>
+        <v>0.3788157414191571</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01612003466364265</v>
+        <v>0.4306316132369615</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1100539504757916</v>
+        <v>0.3949330732888686</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9737847447395325</v>
+        <v>0.01350309572273585</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.07914336686057188</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1162028214921473</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9559419751167297</v>
       </c>
     </row>
     <row r="11">
@@ -863,31 +959,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.002904497425419079</v>
+        <v>0.008314049843282051</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04561174881337166</v>
+        <v>0.06714284119046308</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7131849952988543</v>
+        <v>0.09118141172016395</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001980770454537891</v>
+        <v>-0.4828174563185819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03633533443243084</v>
+        <v>0.01201903618188028</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.168335076542883</v>
+        <v>0.08007564404718759</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001224997556019624</v>
+        <v>0.1096313649549265</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02975516769273273</v>
+        <v>-1.143604740716985</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2774490714073181</v>
+        <v>0.005816668849666901</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.04733519369242906</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.07626708890253318</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.03740763664245605</v>
       </c>
     </row>
     <row r="12">
@@ -903,31 +1008,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01829065190554527</v>
+        <v>0.01212898148482767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1295127589827779</v>
+        <v>0.09627183763694673</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9713119060660635</v>
+        <v>0.1101316552351215</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1758797151961127</v>
+        <v>0.9863508821880744</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4028342615075391</v>
+        <v>0.2157400875320895</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7241402976407667</v>
+        <v>0.3920121638781718</v>
       </c>
       <c r="J12" t="n">
-        <v>1.559754919707975</v>
+        <v>0.4644782960829165</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9109831966430725</v>
+        <v>0.7572210102584329</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.446408033370972</v>
+        <v>0.03428840007454551</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1758983625735862</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1851712722712287</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9614142179489136</v>
       </c>
     </row>
     <row r="13">
@@ -943,31 +1057,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.006238006300636372</v>
+        <v>0.04970639881255808</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07542658245285325</v>
+        <v>0.192026471679674</v>
       </c>
       <c r="F13" t="n">
-        <v>0.697598906782974</v>
+        <v>0.2229493189327074</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02101479259695365</v>
+        <v>-0.2788536758041562</v>
       </c>
       <c r="H13" t="n">
-        <v>0.120973362300728</v>
+        <v>0.05021275115437832</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01873835145045488</v>
+        <v>0.1825621952415127</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01618400814564043</v>
+        <v>0.2240820188109218</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1117747390547664</v>
+        <v>-0.2918811847176619</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2154445648193359</v>
+        <v>0.02124029070979675</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1068023167603787</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1457404909755582</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.4535267353057861</v>
       </c>
     </row>
     <row r="14">
@@ -983,31 +1106,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1281430031346213</v>
+        <v>0.2222224702060599</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3020507033891499</v>
+        <v>0.3976266102805758</v>
       </c>
       <c r="F14" t="n">
-        <v>0.589641172113655</v>
+        <v>0.4714047838175381</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1093031179273313</v>
+        <v>0.3196970552744745</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2328201897832586</v>
+        <v>0.1357294170933643</v>
       </c>
       <c r="I14" t="n">
-        <v>0.649973090533382</v>
+        <v>0.3089058525072171</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1285136656382808</v>
+        <v>0.3684147351740485</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2434322092452112</v>
+        <v>0.5844834140810625</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5884541273117065</v>
+        <v>0.2325900739192221</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3527092437566879</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.4822759313082316</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.287958025932312</v>
       </c>
     </row>
     <row r="15">
@@ -1023,31 +1155,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.005768714101245766</v>
+        <v>0.003409789614790362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06019330579646735</v>
+        <v>0.05376994089666434</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2888615355659494</v>
+        <v>0.05839340386371018</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008806101573942914</v>
+        <v>0.1178981195356702</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07226114276315541</v>
+        <v>0.007204539136334818</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.08557252812921878</v>
+        <v>0.06868347450260272</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005505576747574583</v>
+        <v>0.08487955664548924</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06214438497687997</v>
+        <v>-0.8637916815963211</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3212997317314148</v>
+        <v>0.004527940469616971</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0561637694818785</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06728997302434421</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.1713640689849854</v>
       </c>
     </row>
     <row r="16">
@@ -1063,31 +1204,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.005381720170851961</v>
+        <v>0.008317005021465198</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0667412693438502</v>
+        <v>0.08339577047234231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9898084578963992</v>
+        <v>0.09119761521808122</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05331054510796161</v>
+        <v>0.9742678976707487</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1769343105197016</v>
+        <v>0.07676164374611968</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8990440513840965</v>
+        <v>0.2486783299352925</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06454078295409384</v>
+        <v>0.277058917463632</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2003400080982035</v>
+        <v>0.7625060383228307</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8777769804000854</v>
+        <v>0.02327456470803252</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1175918719908454</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1525600364054509</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9279904961585999</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1253,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01420746769981548</v>
+        <v>0.01981813121351006</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09014339940749733</v>
+        <v>0.1268817963623417</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5046880225955535</v>
+        <v>0.140776884514149</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0299519725747963</v>
+        <v>-0.1151519822500464</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1386325015044186</v>
+        <v>0.01780969983975698</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04420936064340197</v>
+        <v>0.09758299258772973</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01667851580566424</v>
+        <v>0.1334529873766675</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1065035275297454</v>
+        <v>-0.002138994116880788</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4185404181480408</v>
+        <v>0.005482282250006797</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.05685222159572215</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.07404243546782344</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6915159225463867</v>
       </c>
     </row>
     <row r="18">
@@ -1143,31 +1302,40 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.429715549898142</v>
+        <v>0.5693701535978554</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5351080393155605</v>
+        <v>0.6513945810421274</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5477588934265191</v>
+        <v>0.7545662022631648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5402706405748542</v>
+        <v>0.3990917608414402</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5762972430694974</v>
+        <v>0.5946205547360358</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4314085389726972</v>
+        <v>0.6858070744439476</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1656705155254224</v>
+        <v>0.7711164339683313</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2680925709018356</v>
+        <v>0.3724427101490008</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8256450891494751</v>
+        <v>0.487607329376591</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.547683029857938</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6982888581214732</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.4853835105895996</v>
       </c>
     </row>
     <row r="19">
@@ -1183,31 +1351,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.003192438265960879</v>
+        <v>0.007536864437047693</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04665420423086466</v>
+        <v>0.07922496169524799</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7843873761292298</v>
+        <v>0.0868151164086514</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01638856303714907</v>
+        <v>0.6817763233980689</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08784196247361803</v>
+        <v>0.02570389699728968</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1068596425458737</v>
+        <v>0.1311122818466708</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003327193912451756</v>
+        <v>0.1603243493586975</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04732199711247242</v>
+        <v>-0.08527739536720813</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7752861976623535</v>
+        <v>0.01107161617720727</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.09971114887171707</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1052217476437608</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5325310230255127</v>
       </c>
     </row>
     <row r="20">
@@ -1223,31 +1400,40 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0009082024813792507</v>
+        <v>0.006506272507538688</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02407132256367746</v>
+        <v>0.07095303102980201</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9984369481081193</v>
+        <v>0.08066146854315688</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05153392827035109</v>
+        <v>0.9942703901633926</v>
       </c>
       <c r="H20" t="n">
-        <v>0.188901391640382</v>
+        <v>0.2146139847749761</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9113080995366933</v>
+        <v>0.4109420280961709</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1195801711162124</v>
+        <v>0.4632644868484699</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2250336787862857</v>
+        <v>0.8110047808763866</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7941978573799133</v>
+        <v>0.1334775390844287</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2662187772701253</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3653457801650769</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8824558258056641</v>
       </c>
     </row>
     <row r="21">
@@ -1263,31 +1449,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.01836915555100058</v>
+        <v>0.04759548065910892</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1063966136919262</v>
+        <v>0.1757358752599925</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2427956669827205</v>
+        <v>0.2181638848643582</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02571000984740296</v>
+        <v>0.1672462263866862</v>
       </c>
       <c r="H21" t="n">
-        <v>0.113159588073467</v>
+        <v>0.05933626279222701</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0598054333156337</v>
+        <v>0.1968865914839911</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01450148985258233</v>
+        <v>0.2435903585781404</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1002564532156792</v>
+        <v>-0.03817623160995742</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4022267460823059</v>
+        <v>0.05320572453533295</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1836566396469796</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2306636610637509</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.06908679008483887</v>
       </c>
     </row>
     <row r="22">
@@ -1303,31 +1498,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2954145445497295</v>
+        <v>0.5158141544276574</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4277541684096843</v>
+        <v>0.5723957757134749</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3751370817637872</v>
+        <v>0.7182020289776808</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2703131541825919</v>
+        <v>0.03373471657118332</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4187001343823662</v>
+        <v>0.3904705506409048</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4282317188626575</v>
+        <v>0.5507137997195073</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2026646684747554</v>
+        <v>0.6248764282967512</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3225759123778066</v>
+        <v>0.2685386121203159</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5713223218917847</v>
+        <v>0.0670027308399747</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1573386531911936</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2588488571347664</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8744850158691406</v>
       </c>
     </row>
     <row r="23">
@@ -1343,31 +1547,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.002089291442636698</v>
+        <v>0.007005385612750331</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03201062185616397</v>
+        <v>0.06534682391662366</v>
       </c>
       <c r="F23" t="n">
-        <v>0.702512701093067</v>
+        <v>0.08369818165737133</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007079411729769635</v>
+        <v>0.721467266933832</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05803782232839373</v>
+        <v>0.02638049456298048</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.008014023491810685</v>
+        <v>0.114125481544504</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001998942698850641</v>
+        <v>0.1624207331684612</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0310712653184708</v>
+        <v>-0.04888319593578516</v>
       </c>
       <c r="L23" t="n">
-        <v>0.715377151966095</v>
+        <v>0.002359983753498471</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.03583163518759077</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04857966399120594</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9061675071716309</v>
       </c>
     </row>
     <row r="24">
@@ -1383,31 +1596,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0007908554371018908</v>
+        <v>0.0009920568676072528</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02523672238464457</v>
+        <v>0.02463166561289323</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9989407170998003</v>
+        <v>0.03149693425727737</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04942457013328184</v>
+        <v>0.998073119020729</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1919306277113631</v>
+        <v>0.03527791746955094</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9338000353341934</v>
+        <v>0.1505218128214614</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03019950871981471</v>
+        <v>0.187824166361922</v>
       </c>
       <c r="K24" t="n">
-        <v>0.113530555891872</v>
+        <v>0.9314793835112296</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9595503807067871</v>
+        <v>0.01075387216907803</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.07509991040807437</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1037008783428474</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9791126847267151</v>
       </c>
     </row>
     <row r="25">
@@ -1423,31 +1645,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.02619433802044649</v>
+        <v>0.01816866272932515</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1280007366101777</v>
+        <v>0.1111389201971592</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3656375753349544</v>
+        <v>0.1347911819420141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04459541574564238</v>
+        <v>0.3445715454180736</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1607998004004359</v>
+        <v>0.03230559571454693</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.07999125762481274</v>
+        <v>0.1434386621190478</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0243807035184296</v>
+        <v>0.179737574576233</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1143278450541323</v>
+        <v>-0.1654136019244872</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4095593690872192</v>
+        <v>0.02584868603111097</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1161810870098289</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.1607752656073408</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.06751722097396851</v>
       </c>
     </row>
     <row r="26">
@@ -1463,31 +1694,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.5918112836059127</v>
+        <v>0.3511980332556057</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6565435249110751</v>
+        <v>0.4523520685028617</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1893538713534353</v>
+        <v>0.5926196362386296</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5730060388032903</v>
+        <v>0.6031907242495969</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6323304162728374</v>
+        <v>0.4771680693436095</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2151127565247563</v>
+        <v>0.5377589657155593</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2009062157758014</v>
+        <v>0.6907735297068132</v>
       </c>
       <c r="K26" t="n">
-        <v>0.347596522544342</v>
+        <v>0.4608605456806509</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7248044013977051</v>
+        <v>0.2401514016310371</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3803079543644908</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.4900524478370015</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.7286593914031982</v>
       </c>
     </row>
     <row r="27">
@@ -1503,31 +1743,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.003389784043762349</v>
+        <v>0.002607365405491344</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04810297724058742</v>
+        <v>0.04212332843259465</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7998404419569527</v>
+        <v>0.0510623678014577</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0198941962348144</v>
+        <v>0.7253590687919353</v>
       </c>
       <c r="H27" t="n">
-        <v>0.104107163553916</v>
+        <v>0.01185244265634179</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1747100920218019</v>
+        <v>0.07295575010623338</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001684586643748755</v>
+        <v>0.1088689241994326</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03282225607969128</v>
+        <v>-0.2484502100749773</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9005287289619446</v>
+        <v>0.001497987926041329</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.02888818737132129</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.03870384898225664</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8422127962112427</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1792,40 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0007378768616483174</v>
+        <v>0.000641746164735326</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02282283350922887</v>
+        <v>0.02096375629426364</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9980035076043899</v>
+        <v>0.02533270938402219</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06072601871421245</v>
+        <v>0.9982614418009809</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2066465479201345</v>
+        <v>0.03791676290839288</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8356920498797482</v>
+        <v>0.1733516009212252</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01835511858529847</v>
+        <v>0.1947222712182479</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09758033056552942</v>
+        <v>0.8972794811140944</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9503360986709595</v>
+        <v>0.0430026939473178</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1485691251732139</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2073709091153284</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8835011720657349</v>
       </c>
     </row>
     <row r="29">
@@ -1583,31 +1841,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.008211769075595713</v>
+        <v>0.01476628446001635</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07057391302081108</v>
+        <v>0.09413991145366116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4221758628744071</v>
+        <v>0.1215166015819088</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01427557615828159</v>
+        <v>0.2207150189271694</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09460049682468691</v>
+        <v>0.0195356191152669</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.004506142305438443</v>
+        <v>0.1108176401208857</v>
       </c>
       <c r="J29" t="n">
-        <v>0.002965972668589699</v>
+        <v>0.1397698791416337</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04715802334407618</v>
+        <v>-0.0309847825097318</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7912982702255249</v>
+        <v>0.007689654902037157</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.06460761018391309</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08769067739524629</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.5941814184188843</v>
       </c>
     </row>
     <row r="30">
@@ -1623,31 +1890,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4976319942844214</v>
+        <v>0.5991858281400417</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5705188146567043</v>
+        <v>0.6437787106577632</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4206011821853636</v>
+        <v>0.7740709451594484</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5672802520990349</v>
+        <v>0.3365949703176268</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5944915056872853</v>
+        <v>0.5941965170575867</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3395088916893234</v>
+        <v>0.6509682215982118</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3608427712787368</v>
+        <v>0.7708414344452345</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4130952286648139</v>
+        <v>0.3421190229759234</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5798665285110474</v>
+        <v>0.4407297542145239</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.4907585194761456</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6638748031176691</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.512033998966217</v>
       </c>
     </row>
     <row r="31">
@@ -1663,31 +1939,40 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.002520021092827574</v>
+        <v>0.003077949672978407</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04294386817466987</v>
+        <v>0.04591807284807938</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7914540186794278</v>
+        <v>0.055479272462591</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01282972360056906</v>
+        <v>0.7694470066258043</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07336148684526496</v>
+        <v>0.01350137623085095</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.06173210453181377</v>
+        <v>0.09190513645174835</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0011873180670401</v>
+        <v>0.1161954225899237</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02754906872393228</v>
+        <v>-0.01131695947509992</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9017427563667297</v>
+        <v>0.001317135800641879</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02970402924615536</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0362923655972145</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.9013403058052063</v>
       </c>
     </row>
     <row r="32">
@@ -1703,31 +1988,40 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0004529305633722731</v>
+        <v>0.0009846222330571078</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01579541117688398</v>
+        <v>0.02586287998317142</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9992365225234001</v>
+        <v>0.03137869074797589</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05768198761653275</v>
+        <v>0.9980992240098677</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1843763734208168</v>
+        <v>0.05485273180289973</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9027689851114311</v>
+        <v>0.1855652719676999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03881342973865676</v>
+        <v>0.234206600681748</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1317587647781326</v>
+        <v>0.8941088753598431</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9345745444297791</v>
+        <v>0.01846121007366903</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.09866385496787418</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1358720356573384</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.964361310005188</v>
       </c>
     </row>
     <row r="33">
@@ -1743,31 +2037,40 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.02690364466051384</v>
+        <v>0.03691228222899754</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1262348938064764</v>
+        <v>0.1387940479940238</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3420724965303507</v>
+        <v>0.1921256938282788</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04099381087767926</v>
+        <v>0.228739064690598</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1566502833858486</v>
+        <v>0.05597236580458827</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.002501928225487893</v>
+        <v>0.1610936767531731</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002311185659356185</v>
+        <v>0.2365847962245002</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03963498097968482</v>
+        <v>-0.1695104337930589</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9434800744056702</v>
+        <v>0.01022707596544179</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.06180770759200831</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1011290065482787</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.786311149597168</v>
       </c>
     </row>
     <row r="34">
@@ -1783,31 +2086,40 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7432741230166445</v>
+        <v>0.7690361793832076</v>
       </c>
       <c r="E34" t="n">
-        <v>0.677410285073865</v>
+        <v>0.7230011393865582</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1084399780585281</v>
+        <v>0.8769470790094506</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6958140768215628</v>
+        <v>0.5047651472163356</v>
       </c>
       <c r="H34" t="n">
-        <v>0.647586677766791</v>
+        <v>0.7660905900440663</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.03766311265438294</v>
+        <v>0.711218969997548</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4693920920131764</v>
+        <v>0.8752660110184025</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4531089294904214</v>
+        <v>0.5066620131139852</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2999984622001648</v>
+        <v>0.4764161229889047</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.4945094388082701</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.6902290366167629</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.6932031512260437</v>
       </c>
     </row>
     <row r="35">
@@ -1823,31 +2135,40 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0040338970416183</v>
+        <v>0.003017270904243737</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04861330311805478</v>
+        <v>0.04355860531666141</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7938000717156422</v>
+        <v>0.05492969055295813</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01961147848968805</v>
+        <v>0.6377121083103821</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1081032368923594</v>
+        <v>0.00874215870778368</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.00247612083366322</v>
+        <v>0.07180997409628004</v>
       </c>
       <c r="J35" t="n">
-        <v>0.001731022700665793</v>
+        <v>0.09349951180505532</v>
       </c>
       <c r="K35" t="n">
-        <v>0.029252196112437</v>
+        <v>-0.04968309030667606</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9115156531333923</v>
+        <v>0.001730351778888939</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.03049951357790635</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04159749726713061</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.7922342419624329</v>
       </c>
     </row>
     <row r="36">
@@ -1863,31 +2184,40 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0004381527215155775</v>
+        <v>0.0007238818587710636</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01727574288092266</v>
+        <v>0.02265655080806252</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9991789886652012</v>
+        <v>0.02690505266248449</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04092186012248861</v>
+        <v>0.9985335695707765</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1691207425407663</v>
+        <v>0.04929279297926493</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9233205470334578</v>
+        <v>0.1889768367630965</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01498235216580923</v>
+        <v>0.2220198031241018</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07894558452209127</v>
+        <v>0.9001433028188808</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9719260334968567</v>
+        <v>0.0144703980462095</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.09154778592105178</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1202929675675577</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.9706860780715942</v>
       </c>
     </row>
     <row r="37">
@@ -1903,31 +2233,40 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.02613547158090934</v>
+        <v>0.03523571916218538</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1143382813535579</v>
+        <v>0.1303145234757508</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4242269286562712</v>
+        <v>0.187711798143285</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04828291257090975</v>
+        <v>0.2368520160358346</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1596333759790792</v>
+        <v>0.04809350640165234</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.06368851154306165</v>
+        <v>0.1560998550329769</v>
       </c>
       <c r="J37" t="n">
-        <v>0.008917237488669851</v>
+        <v>0.2193023173649844</v>
       </c>
       <c r="K37" t="n">
-        <v>0.06287509041528928</v>
+        <v>-0.04162660291541265</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8035502433776855</v>
+        <v>0.01311207400502814</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.06847782139739148</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1145079648104364</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7160139083862305</v>
       </c>
     </row>
     <row r="38">
@@ -1943,31 +2282,40 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6987028627198645</v>
+        <v>1.389106715946849</v>
       </c>
       <c r="E38" t="n">
-        <v>0.689576246984151</v>
+        <v>0.9390523751885</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5232675613674</v>
+        <v>1.178603714548215</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7149922521956358</v>
+        <v>0.2688744909739268</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7021636212667907</v>
+        <v>1.351746813211799</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5121531366484416</v>
+        <v>0.9381006871549462</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2369010373415994</v>
+        <v>1.162646469573532</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3659951379019186</v>
+        <v>0.2885380471217422</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8383598923683167</v>
+        <v>0.5807951242671952</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4819918349804203</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.7620991564535387</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6943113803863525</v>
       </c>
     </row>
     <row r="39">
@@ -1983,31 +2331,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.002149682634554463</v>
+        <v>0.003672264123963861</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03630753474199502</v>
+        <v>0.04728121283531126</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8432058151066411</v>
+        <v>0.06059920893843303</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01416858840960472</v>
+        <v>0.7353318730748184</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09288755833181378</v>
+        <v>0.01667286544418322</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.03343267283447071</v>
+        <v>0.1011092313854968</v>
       </c>
       <c r="J39" t="n">
-        <v>0.001013591582794082</v>
+        <v>0.1291234504038024</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0241912983721007</v>
+        <v>-0.2016499681467312</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9260703325271606</v>
+        <v>0.001351448225435352</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.02570604260386682</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.03676204871107366</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.9025981426239014</v>
       </c>
     </row>
     <row r="40">
@@ -2023,31 +2380,40 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0003866574697316616</v>
+        <v>0.0003464756558148494</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01554053245105381</v>
+        <v>0.01486108418278868</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9993528980844308</v>
+        <v>0.01861385655405267</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03153958269424816</v>
+        <v>0.9995653550584466</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1435281012870241</v>
+        <v>0.0721128422777737</v>
       </c>
       <c r="I40" t="n">
-        <v>0.947216009063882</v>
+        <v>0.2234698087868169</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04104149805828988</v>
+        <v>0.2685383441480447</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1479359758981671</v>
+        <v>0.9095362644069234</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9313138127326965</v>
+        <v>0.04657322721254413</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1633899127244383</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2158083112684591</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.9415750503540039</v>
       </c>
     </row>
     <row r="41">
@@ -2063,31 +2429,40 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.02345862545883696</v>
+        <v>0.02637074929179909</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1068870127110012</v>
+        <v>0.1268309536250711</v>
       </c>
       <c r="F41" t="n">
-        <v>0.425593946493137</v>
+        <v>0.1623907303136453</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04728331565394796</v>
+        <v>0.511394598726586</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1634508183448903</v>
+        <v>0.05518693528225076</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1577755392855853</v>
+        <v>0.1902219228420746</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005540338678735042</v>
+        <v>0.2349189972783188</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05303952676454876</v>
+        <v>-0.02252061025128538</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8643397092819214</v>
+        <v>0.01937201562166187</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.07876553067519894</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1391833884544484</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.6410692930221558</v>
       </c>
     </row>
     <row r="42">
@@ -2103,31 +2478,40 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8829465774625439</v>
+        <v>0.5880066936548144</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7718022041906407</v>
+        <v>0.6236445490459978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1648456019557372</v>
+        <v>0.7668159450968756</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7698737354345889</v>
+        <v>0.3651354392993503</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7099937863494876</v>
+        <v>0.5599400841929</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2717980311620408</v>
+        <v>0.6117779020030145</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4615475742106706</v>
+        <v>0.7482914433513856</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4378278312754901</v>
+        <v>0.3954386584270824</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5634350776672363</v>
+        <v>0.2387702303007613</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.2999264495260631</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.4886412081484341</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.7422023415565491</v>
       </c>
     </row>
     <row r="43">
@@ -2143,31 +2527,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.003257710828626241</v>
+        <v>0.001891685802161367</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04888762447656634</v>
+        <v>0.03902838879778023</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8448899972503131</v>
+        <v>0.04349351448390169</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02103183829883955</v>
+        <v>0.8332794711974848</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1192327957034324</v>
+        <v>0.01362812725039112</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.001392900713549361</v>
+        <v>0.08529720685551243</v>
       </c>
       <c r="J43" t="n">
-        <v>0.001207541261561012</v>
+        <v>0.1167395701996162</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0229813967426578</v>
+        <v>-0.2010919462297467</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9425051212310791</v>
+        <v>0.0008598728214010099</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.02168722848931971</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.02932358813994307</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9242165684700012</v>
       </c>
     </row>
     <row r="44">
@@ -2183,31 +2576,40 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0003714879565056171</v>
+        <v>0.0003122932085682412</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01576981514940986</v>
+        <v>0.01484486245279753</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9994360003434568</v>
+        <v>0.01767181961678653</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04716679962838002</v>
+        <v>0.9994150140263038</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1845209071396596</v>
+        <v>0.04477680211801459</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9283905216177682</v>
+        <v>0.1842627414582512</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02592102022334339</v>
+        <v>0.2116052979441077</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1193012027367688</v>
+        <v>0.9161243329430815</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9606462717056274</v>
+        <v>0.01789011091466792</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1056944970488304</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1337539192497473</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.9664883613586426</v>
       </c>
     </row>
     <row r="45">
@@ -2223,31 +2625,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.02537644589697369</v>
+        <v>0.03522638644768493</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1227012247935206</v>
+        <v>0.1554916028850484</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3783356222217132</v>
+        <v>0.1876869373389766</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04117650642544363</v>
+        <v>0.3035799912443823</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1613923439557332</v>
+        <v>0.05066698607960627</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.008729407970789582</v>
+        <v>0.184043913250102</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01113764919293969</v>
+        <v>0.2250932830619481</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06641011125885074</v>
+        <v>-0.001678186367001233</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7271532416343689</v>
+        <v>0.02006977205690529</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.07595571832302082</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1416678229412215</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6032238602638245</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -518,40 +518,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.289573052418313</v>
+        <v>0.5390766201313454</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8832646726256478</v>
+        <v>0.5627329210073801</v>
       </c>
       <c r="F2" t="n">
-        <v>1.135593700413274</v>
+        <v>0.7342183735996706</v>
       </c>
       <c r="G2" t="n">
-        <v>-2448.844050038991</v>
+        <v>-89.81169478014642</v>
       </c>
       <c r="H2" t="n">
-        <v>1.079706491686972</v>
+        <v>0.1453662833119649</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7874595630620885</v>
+        <v>0.3181970480049355</v>
       </c>
       <c r="J2" t="n">
-        <v>1.039089260692734</v>
+        <v>0.3812693054941151</v>
       </c>
       <c r="K2" t="n">
-        <v>-2050.1536895777</v>
+        <v>-23.48809326628569</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009400629788290508</v>
+        <v>0.4309085989837342</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08998701038150021</v>
+        <v>0.4039884081736798</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09695684497904472</v>
+        <v>0.6564362870711324</v>
       </c>
       <c r="O2" t="n">
-        <v>-16.85868072509766</v>
+        <v>-71.58994293212891</v>
       </c>
     </row>
     <row r="3">
@@ -567,40 +567,40 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.02975630782075484</v>
+        <v>0.01692950800284671</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1527682257750916</v>
+        <v>0.1089091186119361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1725001675963094</v>
+        <v>0.1301134428214345</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.302037679448254</v>
+        <v>-0.06464191928211038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01884128763378268</v>
+        <v>0.02228154382583092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09914529270470984</v>
+        <v>0.0921917188698485</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1372635699440412</v>
+        <v>0.14927003659754</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.090805151998008</v>
+        <v>-0.4012141155733668</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07043338619492488</v>
+        <v>0.0188190361166119</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2076695640238753</v>
+        <v>0.1306439438342194</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2653928902493902</v>
+        <v>0.1371824920192511</v>
       </c>
       <c r="O3" t="n">
-        <v>-6.815946578979492</v>
+        <v>-0.183468222618103</v>
       </c>
     </row>
     <row r="4">
@@ -616,40 +616,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1453425915773927</v>
+        <v>0.0856424894395067</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3558587342383852</v>
+        <v>0.255308727211949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3812382346740588</v>
+        <v>0.2926473807152675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8650903768358645</v>
+        <v>0.6782348602089066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5878298630472346</v>
+        <v>0.04457129379945374</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6540531112478326</v>
+        <v>0.1932705453908743</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7667006345681701</v>
+        <v>0.211119145980306</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45436568560084</v>
+        <v>0.8325423668332155</v>
       </c>
       <c r="L4" t="n">
-        <v>1.719952429825748</v>
+        <v>0.264504150089111</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9218550453037366</v>
+        <v>0.3720463558079646</v>
       </c>
       <c r="N4" t="n">
-        <v>1.311469568776092</v>
+        <v>0.5142996695401535</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.5964908599853516</v>
+        <v>0.006238400936126709</v>
       </c>
     </row>
     <row r="5">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.008486759786994902</v>
+        <v>0.04012134798195686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08277396377928019</v>
+        <v>0.1721880697962916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0921236114521945</v>
+        <v>0.2003031402199098</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7925915089072357</v>
+        <v>-0.9114205765899739</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004892140586834311</v>
+        <v>0.05426081864055373</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06630968076640387</v>
+        <v>0.182401998347764</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0699438388053895</v>
+        <v>0.2329395171295625</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.03332837224616458</v>
+        <v>-1.585038899959528</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03408806090084083</v>
+        <v>0.05631900453950057</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1513821066302426</v>
+        <v>0.1941398666917777</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1846295233727283</v>
+        <v>0.2373162542673817</v>
       </c>
       <c r="O5" t="n">
-        <v>-6.200153350830078</v>
+        <v>-1.683092832565308</v>
       </c>
     </row>
     <row r="6">
@@ -714,40 +714,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1979529847896347</v>
+        <v>0.442806147079261</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3961494905783883</v>
+        <v>0.6209517363685169</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4449190766753374</v>
+        <v>0.6654368092307946</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3003825293157965</v>
+        <v>-0.4331526059481305</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2154351728242987</v>
+        <v>0.2797219946937255</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2952658906002808</v>
+        <v>0.4080759003238403</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4641499464874457</v>
+        <v>0.528887506653093</v>
       </c>
       <c r="K6" t="n">
-        <v>0.23859591777349</v>
+        <v>0.09467312438965592</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05231312850597547</v>
+        <v>0.1738693362694031</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1794581883426989</v>
+        <v>0.2358419515650985</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2287206341937156</v>
+        <v>0.4169764217187863</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8151117563247681</v>
+        <v>0.4372677206993103</v>
       </c>
     </row>
     <row r="7">
@@ -763,40 +763,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01351939015167408</v>
+        <v>0.006994244838786683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1053847138246272</v>
+        <v>0.07215547640459691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1162729123728914</v>
+        <v>0.08363160191450768</v>
       </c>
       <c r="G7" t="n">
-        <v>0.436890370946565</v>
+        <v>0.3037433704875316</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02722349109458616</v>
+        <v>0.01239732313337963</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1471371073143612</v>
+        <v>0.06903630126003024</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1649954274959951</v>
+        <v>0.1113432671219038</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.133912831853118</v>
+        <v>-0.2341172805327802</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03521424567813512</v>
+        <v>0.007492742954217495</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1870999338650436</v>
+        <v>0.06718905705819254</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1876545914123476</v>
+        <v>0.08656063166484805</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4667438268661499</v>
+        <v>0.254119336605072</v>
       </c>
     </row>
     <row r="8">
@@ -812,40 +812,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.05329166831895773</v>
+        <v>0.01955419622587144</v>
       </c>
       <c r="E8" t="n">
-        <v>0.210749383657137</v>
+        <v>0.1287536029122283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2308498826487848</v>
+        <v>0.1398363194090557</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.489659225437078</v>
+        <v>0.9616206014936405</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0309746969715144</v>
+        <v>0.08214336479257639</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1475988244061358</v>
+        <v>0.252097364281194</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1759962981755991</v>
+        <v>0.2866066377329325</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.609522996745946</v>
+        <v>0.8387756318075379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1627273505607498</v>
+        <v>0.344302666135506</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3185363700219948</v>
+        <v>0.420428412843784</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4033947825155276</v>
+        <v>0.5867730959540545</v>
       </c>
       <c r="O8" t="n">
-        <v>-12.70927810668945</v>
+        <v>0.3242306709289551</v>
       </c>
     </row>
     <row r="9">
@@ -861,40 +861,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.02771979154246303</v>
+        <v>0.03587299297246111</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1388002655975039</v>
+        <v>0.1441961876779678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1664926170809476</v>
+        <v>0.1894016709864544</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1497770599424717</v>
+        <v>-0.7996531338710282</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03628611749823873</v>
+        <v>0.03865502802582375</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1302948386291742</v>
+        <v>0.1368274324625787</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1904891532298853</v>
+        <v>0.1966088198068025</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.5050959322670616</v>
+        <v>-0.9392204709529006</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009353024370237114</v>
+        <v>0.05111266082279373</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02879106955827218</v>
+        <v>0.174736916422452</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03058271467714584</v>
+        <v>0.2260810934660255</v>
       </c>
       <c r="O9" t="n">
-        <v>0.961205005645752</v>
+        <v>-1.564186811447144</v>
       </c>
     </row>
     <row r="10">
@@ -910,40 +910,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2142135376123519</v>
+        <v>0.1777148776962136</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3868976302315277</v>
+        <v>0.3513198237606263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4628320836030622</v>
+        <v>0.4215624244358285</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3010622290273417</v>
+        <v>-0.09242203934399451</v>
       </c>
       <c r="H10" t="n">
-        <v>0.185443586319068</v>
+        <v>0.1621915705490888</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3788157414191571</v>
+        <v>0.3843506241622677</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4306316132369615</v>
+        <v>0.4027301460644445</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3949330732888686</v>
+        <v>0.003000488419906855</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01350309572273585</v>
+        <v>0.1370484023558207</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07914336686057188</v>
+        <v>0.2698708827528216</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1162028214921473</v>
+        <v>0.370200489405161</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9559419751167297</v>
+        <v>0.1575566530227661</v>
       </c>
     </row>
     <row r="11">
@@ -959,40 +959,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.008314049843282051</v>
+        <v>0.01033934155848202</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06714284119046308</v>
+        <v>0.09078245944381437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09118141172016395</v>
+        <v>0.1016825528715818</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4828174563185819</v>
+        <v>0.1723484334083906</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01201903618188028</v>
+        <v>0.01386572098173429</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08007564404718759</v>
+        <v>0.09599094352230918</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1096313649549265</v>
+        <v>0.1177527960675851</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.143604740716985</v>
+        <v>-0.1099338993245711</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005816668849666901</v>
+        <v>0.02336551176312815</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04733519369242906</v>
+        <v>0.1076963165481189</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07626708890253318</v>
+        <v>0.15285781551209</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.03740763664245605</v>
+        <v>-0.8703804016113281</v>
       </c>
     </row>
     <row r="12">
@@ -1008,40 +1008,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01212898148482767</v>
+        <v>0.01500953948221614</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09627183763694673</v>
+        <v>0.1157828043289055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1101316552351215</v>
+        <v>0.1225134257223107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9863508821880744</v>
+        <v>0.9759439291964839</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2157400875320895</v>
+        <v>0.08066382619337713</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3920121638781718</v>
+        <v>0.2510608638449285</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4644782960829165</v>
+        <v>0.2840137781752448</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7572210102584329</v>
+        <v>0.8707185709135501</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03428840007454551</v>
+        <v>0.01588649344965857</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1758983625735862</v>
+        <v>0.1122074740740384</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1851712722712287</v>
+        <v>0.1260416337947845</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9614142179489136</v>
+        <v>0.9745384454727173</v>
       </c>
     </row>
     <row r="13">
@@ -1057,40 +1057,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.04970639881255808</v>
+        <v>0.02644290463347502</v>
       </c>
       <c r="E13" t="n">
-        <v>0.192026471679674</v>
+        <v>0.128804143627579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2229493189327074</v>
+        <v>0.1626127443759406</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2788536758041562</v>
+        <v>-0.17913115605584</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05021275115437832</v>
+        <v>0.02554076419170978</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1825621952415127</v>
+        <v>0.1259713745485801</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2240820188109218</v>
+        <v>0.1598147808924749</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2918811847176619</v>
+        <v>-0.1389032795510499</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02124029070979675</v>
+        <v>0.02682730878421466</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1068023167603787</v>
+        <v>0.1297257357137402</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1457404909755582</v>
+        <v>0.1637904416753757</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4535267353057861</v>
+        <v>-0.1962724924087524</v>
       </c>
     </row>
     <row r="14">
@@ -1106,40 +1106,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2222224702060599</v>
+        <v>0.1329341931172634</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3976266102805758</v>
+        <v>0.277249812717999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4714047838175381</v>
+        <v>0.3646014167790128</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3196970552744745</v>
+        <v>0.296477186481261</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1357294170933643</v>
+        <v>0.1317015961840066</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3089058525072171</v>
+        <v>0.3049195477022471</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3684147351740485</v>
+        <v>0.3629071454022456</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5844834140810625</v>
+        <v>0.3030004145694208</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2325900739192221</v>
+        <v>0.1009851900618506</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3527092437566879</v>
+        <v>0.2033258186260166</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4822759313082316</v>
+        <v>0.317781670430896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.287958025932312</v>
+        <v>0.465559720993042</v>
       </c>
     </row>
     <row r="15">
@@ -1155,40 +1155,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.003409789614790362</v>
+        <v>0.008909958130586763</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05376994089666434</v>
+        <v>0.08512594685975466</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05839340386371018</v>
+        <v>0.0943925745521689</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1178981195356702</v>
+        <v>0.1641085703376678</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007204539136334818</v>
+        <v>0.0171949210488629</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06868347450260272</v>
+        <v>0.1118058694458669</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08487955664548924</v>
+        <v>0.1311294057367107</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8637916815963211</v>
+        <v>-0.6131486734066625</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004527940469616971</v>
+        <v>0.002978541489780539</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0561637694818785</v>
+        <v>0.04742543648535841</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06728997302434421</v>
+        <v>0.05457601570086019</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.1713640689849854</v>
+        <v>0.7205669283866882</v>
       </c>
     </row>
     <row r="16">
@@ -1204,40 +1204,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.008317005021465198</v>
+        <v>0.00646788346581328</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08339577047234231</v>
+        <v>0.06821640721169681</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09119761521808122</v>
+        <v>0.08042315254833822</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9742678976707487</v>
+        <v>0.9897352827889704</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07676164374611968</v>
+        <v>0.1688856427381501</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2486783299352925</v>
+        <v>0.3697786164457865</v>
       </c>
       <c r="J16" t="n">
-        <v>0.277058917463632</v>
+        <v>0.4109569840483918</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7625060383228307</v>
+        <v>0.731973624312648</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02327456470803252</v>
+        <v>0.02195381700679965</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1175918719908454</v>
+        <v>0.1153785561686921</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1525600364054509</v>
+        <v>0.1481682051143215</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9279904961585999</v>
+        <v>0.9651586413383484</v>
       </c>
     </row>
     <row r="17">
@@ -1253,40 +1253,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01981813121351006</v>
+        <v>0.01278025694428597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1268817963623417</v>
+        <v>0.08893470698442561</v>
       </c>
       <c r="F17" t="n">
-        <v>0.140776884514149</v>
+        <v>0.1130497985150171</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1151519822500464</v>
+        <v>0.01878710367525271</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01780969983975698</v>
+        <v>0.01915945457810543</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09758299258772973</v>
+        <v>0.1095573902294613</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1334529873766675</v>
+        <v>0.1384176815948939</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.002138994116880788</v>
+        <v>-0.4709801219599492</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005482282250006797</v>
+        <v>0.009427846633701784</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05685222159572215</v>
+        <v>0.08078617589052915</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07404243546782344</v>
+        <v>0.09709709899735308</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6915159225463867</v>
+        <v>0.2761707305908203</v>
       </c>
     </row>
     <row r="18">
@@ -1302,40 +1302,40 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5693701535978554</v>
+        <v>0.4576005338706968</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6513945810421274</v>
+        <v>0.5756630429563488</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7545662022631648</v>
+        <v>0.6764617756168465</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3990917608414402</v>
+        <v>0.2748440114658938</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5946205547360358</v>
+        <v>0.4949369015323862</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6858070744439476</v>
+        <v>0.5885749159933544</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7711164339683313</v>
+        <v>0.7035175204160776</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3724427101490008</v>
+        <v>0.215677361525674</v>
       </c>
       <c r="L18" t="n">
-        <v>0.487607329376591</v>
+        <v>0.1758963243158653</v>
       </c>
       <c r="M18" t="n">
-        <v>0.547683029857938</v>
+        <v>0.3102348705639573</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6982888581214732</v>
+        <v>0.419399957458111</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4853835105895996</v>
+        <v>0.7212585210800171</v>
       </c>
     </row>
     <row r="19">
@@ -1351,40 +1351,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.007536864437047693</v>
+        <v>0.006121918293521253</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07922496169524799</v>
+        <v>0.06722741930563264</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0868151164086514</v>
+        <v>0.07824268843490267</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6817763233980689</v>
+        <v>0.7211365534142693</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02570389699728968</v>
+        <v>0.02195588727419031</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1311122818466708</v>
+        <v>0.1109432284636076</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1603243493586975</v>
+        <v>0.1481751911562469</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.08527739536720813</v>
+        <v>-0.0001267747411890507</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01107161617720727</v>
+        <v>0.00120871540243692</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09971114887171707</v>
+        <v>0.02689101803611601</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1052217476437608</v>
+        <v>0.03476658456674915</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5325310230255127</v>
+        <v>0.9449410438537598</v>
       </c>
     </row>
     <row r="20">
@@ -1400,40 +1400,40 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.006506272507538688</v>
+        <v>0.002307175227593509</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07095303102980201</v>
+        <v>0.04244147875158211</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08066146854315688</v>
+        <v>0.0480330638997088</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9942703901633926</v>
+        <v>0.9960228772632866</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2146139847749761</v>
+        <v>0.0617594359260626</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4109420280961709</v>
+        <v>0.2030806802081526</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4632644868484699</v>
+        <v>0.2485144581831459</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8110047808763866</v>
+        <v>0.8935387074676892</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1334775390844287</v>
+        <v>0.3575139714635955</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2662187772701253</v>
+        <v>0.4659796868115945</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3653457801650769</v>
+        <v>0.597924720565721</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8824558258056641</v>
+        <v>0.3837153315544128</v>
       </c>
     </row>
     <row r="21">
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.04759548065910892</v>
+        <v>0.02222531530908046</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1757358752599925</v>
+        <v>0.1142686394369852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2181638848643582</v>
+        <v>0.1490815726677193</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1672462263866862</v>
+        <v>-0.5263287262433973</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05933626279222701</v>
+        <v>0.01637107856419588</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1968865914839911</v>
+        <v>0.08595158262847093</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2435903585781404</v>
+        <v>0.1279495156856636</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.03817623160995742</v>
+        <v>-0.124287648774577</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05320572453533295</v>
+        <v>0.01626829169598383</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1836566396469796</v>
+        <v>0.09760695877703844</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2306636610637509</v>
+        <v>0.1275472135955303</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06908679008483887</v>
+        <v>-0.1172287464141846</v>
       </c>
     </row>
     <row r="22">
@@ -1498,40 +1498,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5158141544276574</v>
+        <v>0.28868010776122</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5723957757134749</v>
+        <v>0.4257229831569475</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7182020289776808</v>
+        <v>0.5372895939446622</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03373471657118332</v>
+        <v>0.5536741321535996</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3904705506409048</v>
+        <v>0.3444878031917933</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5507137997195073</v>
+        <v>0.4734836257665158</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6248764282967512</v>
+        <v>0.5869308333967413</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2685386121203159</v>
+        <v>0.4673903272571394</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0670027308399747</v>
+        <v>0.1122811807337057</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1573386531911936</v>
+        <v>0.2225058123047949</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2588488571347664</v>
+        <v>0.3350838413497519</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8744850158691406</v>
+        <v>0.826403021812439</v>
       </c>
     </row>
     <row r="23">
@@ -1547,40 +1547,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.007005385612750331</v>
+        <v>0.006157544226225757</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06534682391662366</v>
+        <v>0.0547769395345885</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08369818165737133</v>
+        <v>0.07847002119424817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.721467266933832</v>
+        <v>0.8068696280585406</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02638049456298048</v>
+        <v>0.03313675061157757</v>
       </c>
       <c r="I23" t="n">
-        <v>0.114125481544504</v>
+        <v>0.1176993180382743</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1624207331684612</v>
+        <v>0.182035025782341</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.04888319593578516</v>
+        <v>-0.03932878683813223</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002359983753498471</v>
+        <v>0.004056631100656342</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03583163518759077</v>
+        <v>0.04886367464390916</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04857966399120594</v>
+        <v>0.06369168784587469</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9061675071716309</v>
+        <v>0.8727644085884094</v>
       </c>
     </row>
     <row r="24">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0009920568676072528</v>
+        <v>0.002227201570674747</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02463166561289323</v>
+        <v>0.03794522166839247</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03149693425727737</v>
+        <v>0.04719323649289956</v>
       </c>
       <c r="G24" t="n">
-        <v>0.998073119020729</v>
+        <v>0.9950383812474169</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03527791746955094</v>
+        <v>0.07918529711537638</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1505218128214614</v>
+        <v>0.2152842849926214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.187824166361922</v>
+        <v>0.2813988221641597</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9314793835112296</v>
+        <v>0.8235960048387148</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01075387216907803</v>
+        <v>0.03905130435883457</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07509991040807437</v>
+        <v>0.1251379946254846</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1037008783428474</v>
+        <v>0.1976140287500727</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9791126847267151</v>
+        <v>0.9130039811134338</v>
       </c>
     </row>
     <row r="25">
@@ -1645,40 +1645,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.01816866272932515</v>
+        <v>0.01125225019401262</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1111389201971592</v>
+        <v>0.09609359530909585</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1347911819420141</v>
+        <v>0.1060766241639157</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3445715454180736</v>
+        <v>-0.4888732867944594</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03230559571454693</v>
+        <v>0.007680171912339569</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1434386621190478</v>
+        <v>0.07383474674748018</v>
       </c>
       <c r="J25" t="n">
-        <v>0.179737574576233</v>
+        <v>0.08763659003144503</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1654136019244872</v>
+        <v>-0.01622365314593011</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02584868603111097</v>
+        <v>0.02219643986730833</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1161810870098289</v>
+        <v>0.1061093548332066</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1607752656073408</v>
+        <v>0.148984696755433</v>
       </c>
       <c r="O25" t="n">
-        <v>0.06751722097396851</v>
+        <v>-1.936984539031982</v>
       </c>
     </row>
     <row r="26">
@@ -1694,40 +1694,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3511980332556057</v>
+        <v>0.4180477625009769</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4523520685028617</v>
+        <v>0.5105275294869082</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5926196362386296</v>
+        <v>0.6465661315758635</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6031907242495969</v>
+        <v>0.2061392411140458</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4771680693436095</v>
+        <v>0.3862408167407065</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5377589657155593</v>
+        <v>0.4641219322057037</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6907735297068132</v>
+        <v>0.6214827565916101</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4608605456806509</v>
+        <v>0.2665397225040966</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2401514016310371</v>
+        <v>0.2734063967715432</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3803079543644908</v>
+        <v>0.3769418288227946</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4900524478370015</v>
+        <v>0.5228827753632196</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7286593914031982</v>
+        <v>0.4808090329170227</v>
       </c>
     </row>
     <row r="27">
@@ -1743,40 +1743,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.002607365405491344</v>
+        <v>0.002410073163792178</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04212332843259465</v>
+        <v>0.04089888371173004</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0510623678014577</v>
+        <v>0.04909249600287378</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7253590687919353</v>
+        <v>0.7868242970219982</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01185244265634179</v>
+        <v>0.01138551743267703</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07295575010623338</v>
+        <v>0.07368213969445264</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1088689241994326</v>
+        <v>0.106702940131362</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.2484502100749773</v>
+        <v>-0.007071369841829878</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001497987926041329</v>
+        <v>0.001354767770656481</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02888818737132129</v>
+        <v>0.02843865307402067</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03870384898225664</v>
+        <v>0.03680717009845338</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8422127962112427</v>
+        <v>0.8801681399345398</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.000641746164735326</v>
+        <v>0.001423037751767066</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02096375629426364</v>
+        <v>0.03086147348742019</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02533270938402219</v>
+        <v>0.03772317261004257</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9982614418009809</v>
+        <v>0.9971913262328275</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03791676290839288</v>
+        <v>0.07447146439381623</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1733516009212252</v>
+        <v>0.2381202991993893</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1947222712182479</v>
+        <v>0.2728946030866427</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8972794811140944</v>
+        <v>0.8530144065495783</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0430026939473178</v>
+        <v>0.150546658640536</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1485691251732139</v>
+        <v>0.2024779812885981</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2073709091153284</v>
+        <v>0.3880034260680388</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8835011720657349</v>
+        <v>0.7028635144233704</v>
       </c>
     </row>
     <row r="29">
@@ -1841,40 +1841,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01476628446001635</v>
+        <v>0.01494613468044649</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09413991145366116</v>
+        <v>0.09639492237533488</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1215166015819088</v>
+        <v>0.1222543851174529</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2207150189271694</v>
+        <v>0.03569274764814567</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0195356191152669</v>
+        <v>0.01648652199772628</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1108176401208857</v>
+        <v>0.09518614539951425</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1397698791416337</v>
+        <v>0.1283998520159828</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0309847825097318</v>
+        <v>-0.06369125318164959</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007689654902037157</v>
+        <v>0.009753213037352132</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06460761018391309</v>
+        <v>0.07598514486706226</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08769067739524629</v>
+        <v>0.0987583567975497</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5941814184188843</v>
+        <v>0.3707340359687805</v>
       </c>
     </row>
     <row r="30">
@@ -1890,40 +1890,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5991858281400417</v>
+        <v>0.7741341979558612</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6437787106577632</v>
+        <v>0.7039374686267027</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7740709451594484</v>
+        <v>0.8798489631498473</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3365949703176268</v>
+        <v>0.4339563315521363</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5941965170575867</v>
+        <v>0.7951702770847738</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6509682215982118</v>
+        <v>0.7074748727339256</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7708414344452345</v>
+        <v>0.8917232065415668</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3421190229759234</v>
+        <v>0.418574839000417</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4407297542145239</v>
+        <v>0.5094313640121689</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4907585194761456</v>
+        <v>0.5190579514676296</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6638748031176691</v>
+        <v>0.7137446069934041</v>
       </c>
       <c r="O30" t="n">
-        <v>0.512033998966217</v>
+        <v>0.6275059580802917</v>
       </c>
     </row>
     <row r="31">
@@ -1939,40 +1939,40 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.003077949672978407</v>
+        <v>0.002828369814390992</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04591807284807938</v>
+        <v>0.04055258328764647</v>
       </c>
       <c r="F31" t="n">
-        <v>0.055479272462591</v>
+        <v>0.05318242016297295</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7694470066258043</v>
+        <v>0.8440974341797987</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01350137623085095</v>
+        <v>0.01820183184607502</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09190513645174835</v>
+        <v>0.09583817011721524</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1161954225899237</v>
+        <v>0.1349141647347491</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.01131695947509992</v>
+        <v>-0.003303129948714512</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001317135800641879</v>
+        <v>0.0008435453965241727</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02970402924615536</v>
+        <v>0.02206092196052876</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0362923655972145</v>
+        <v>0.02904385299033468</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9013403058052063</v>
+        <v>0.9535029530525208</v>
       </c>
     </row>
     <row r="32">
@@ -1988,40 +1988,40 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0009846222330571078</v>
+        <v>0.0003612467902328527</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02586287998317142</v>
+        <v>0.01461555428614849</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03137869074797589</v>
+        <v>0.01900649337023673</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9980992240098677</v>
+        <v>0.9993858443631047</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05485273180289973</v>
+        <v>0.03364107380868914</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1855652719676999</v>
+        <v>0.1435638948100554</v>
       </c>
       <c r="J32" t="n">
-        <v>0.234206600681748</v>
+        <v>0.1834150315778103</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8941088753598431</v>
+        <v>0.9428068133214408</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01846121007366903</v>
+        <v>0.06216734806269249</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09866385496787418</v>
+        <v>0.1940832093954982</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1358720356573384</v>
+        <v>0.2493338085031641</v>
       </c>
       <c r="O32" t="n">
-        <v>0.964361310005188</v>
+        <v>0.8943092823028564</v>
       </c>
     </row>
     <row r="33">
@@ -2037,40 +2037,40 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.03691228222899754</v>
+        <v>0.02404857458974003</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1387940479940238</v>
+        <v>0.1096531238169915</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1921256938282788</v>
+        <v>0.1550760284174831</v>
       </c>
       <c r="G33" t="n">
-        <v>0.228739064690598</v>
+        <v>0.5201480738445159</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05597236580458827</v>
+        <v>0.05014939399286988</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1610936767531731</v>
+        <v>0.1779490393031518</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2365847962245002</v>
+        <v>0.2239406037164093</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.1695104337930589</v>
+        <v>-0.0006532076656033947</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01022707596544179</v>
+        <v>0.004688569634379183</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06180770759200831</v>
+        <v>0.04459255425037852</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1011290065482787</v>
+        <v>0.06847313074760919</v>
       </c>
       <c r="O33" t="n">
-        <v>0.786311149597168</v>
+        <v>0.9064468741416931</v>
       </c>
     </row>
     <row r="34">
@@ -2086,40 +2086,40 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7690361793832076</v>
+        <v>0.5765493705021756</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7230011393865582</v>
+        <v>0.6213323282915176</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8769470790094506</v>
+        <v>0.7593084817794251</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5047651472163356</v>
+        <v>0.29804906031892</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7660905900440663</v>
+        <v>0.5565848686707969</v>
       </c>
       <c r="I34" t="n">
-        <v>0.711218969997548</v>
+        <v>0.6036019308742091</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8752660110184025</v>
+        <v>0.7460461571985991</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5066620131139852</v>
+        <v>0.3223559133618686</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4764161229889047</v>
+        <v>0.2206748864875721</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4945094388082701</v>
+        <v>0.3521488048203781</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6902290366167629</v>
+        <v>0.4697604564962573</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6932031512260437</v>
+        <v>0.7313275337219238</v>
       </c>
     </row>
     <row r="35">
@@ -2135,40 +2135,40 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.003017270904243737</v>
+        <v>0.002080794197018399</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04355860531666141</v>
+        <v>0.03591187235131922</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05492969055295813</v>
+        <v>0.04561572313378798</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6377121083103821</v>
+        <v>0.864905622235144</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00874215870778368</v>
+        <v>0.01549712321848356</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07180997409628004</v>
+        <v>0.0960738105385775</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09349951180505532</v>
+        <v>0.1244874420111666</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.04968309030667606</v>
+        <v>-0.006141895890642735</v>
       </c>
       <c r="L35" t="n">
-        <v>0.001730351778888939</v>
+        <v>0.000742223116329537</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03049951357790635</v>
+        <v>0.01764418915467505</v>
       </c>
       <c r="N35" t="n">
-        <v>0.04159749726713061</v>
+        <v>0.02724377206499748</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7922342419624329</v>
+        <v>0.9518116116523743</v>
       </c>
     </row>
     <row r="36">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0007238818587710636</v>
+        <v>0.0005330986794991529</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02265655080806252</v>
+        <v>0.01759414209001064</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02690505266248449</v>
+        <v>0.02308892980411073</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9985335695707765</v>
+        <v>0.999222356548648</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04929279297926493</v>
+        <v>0.05581236282453737</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1889768367630965</v>
+        <v>0.199611401988245</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2220198031241018</v>
+        <v>0.2362464027758674</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9001433028188808</v>
+        <v>0.9185852073470475</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0144703980462095</v>
+        <v>0.03311935103593073</v>
       </c>
       <c r="M36" t="n">
-        <v>0.09154778592105178</v>
+        <v>0.1348155786691358</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1202929675675577</v>
+        <v>0.181987227672523</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9706860780715942</v>
+        <v>0.9516880512237549</v>
       </c>
     </row>
     <row r="37">
@@ -2233,40 +2233,40 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.03523571916218538</v>
+        <v>0.01918534025782024</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1303145234757508</v>
+        <v>0.1042439857460426</v>
       </c>
       <c r="F37" t="n">
-        <v>0.187711798143285</v>
+        <v>0.138511155716138</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2368520160358346</v>
+        <v>0.04208390848566201</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04809350640165234</v>
+        <v>0.02105742752877671</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1560998550329769</v>
+        <v>0.103989174545155</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2193023173649844</v>
+        <v>0.1451117759824361</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.04162660291541265</v>
+        <v>-0.05138863343797651</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01311207400502814</v>
+        <v>0.008332980720195386</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06847782139739148</v>
+        <v>0.05995616181430115</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1145079648104364</v>
+        <v>0.09128516155539949</v>
       </c>
       <c r="O37" t="n">
-        <v>0.7160139083862305</v>
+        <v>0.5839376449584961</v>
       </c>
     </row>
     <row r="38">
@@ -2282,40 +2282,40 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.389106715946849</v>
+        <v>0.5334544364000651</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9390523751885</v>
+        <v>0.6285970349943926</v>
       </c>
       <c r="F38" t="n">
-        <v>1.178603714548215</v>
+        <v>0.7303796522357842</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2688744909739268</v>
+        <v>0.5415448390500102</v>
       </c>
       <c r="H38" t="n">
-        <v>1.351746813211799</v>
+        <v>0.5589110648082227</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9381006871549462</v>
+        <v>0.6454264227504248</v>
       </c>
       <c r="J38" t="n">
-        <v>1.162646469573532</v>
+        <v>0.7476035478836511</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2885380471217422</v>
+        <v>0.5196672017528792</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5807951242671952</v>
+        <v>0.537651601180743</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4819918349804203</v>
+        <v>0.5210365282452953</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7620991564535387</v>
+        <v>0.7332472987885758</v>
       </c>
       <c r="O38" t="n">
-        <v>0.6943113803863525</v>
+        <v>0.5379377007484436</v>
       </c>
     </row>
     <row r="39">
@@ -2331,40 +2331,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.003672264123963861</v>
+        <v>0.00254966015184498</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04728121283531126</v>
+        <v>0.03984960669331651</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06059920893843303</v>
+        <v>0.05049415958152962</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7353318730748184</v>
+        <v>0.8292125176892901</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01667286544418322</v>
+        <v>0.01567191539800113</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1011092313854968</v>
+        <v>0.09502559778641452</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1291234504038024</v>
+        <v>0.1251875209355993</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.2016499681467312</v>
+        <v>-0.04977401473457088</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001351448225435352</v>
+        <v>0.001032561291722979</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02570604260386682</v>
+        <v>0.0232327310982412</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03676204871107366</v>
+        <v>0.03213349174495326</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9025981426239014</v>
+        <v>0.9308344721794128</v>
       </c>
     </row>
     <row r="40">
@@ -2380,40 +2380,40 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0003464756558148494</v>
+        <v>0.0003704954008106382</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01486108418278868</v>
+        <v>0.0145604100671235</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01861385655405267</v>
+        <v>0.01924825708501001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9995653550584466</v>
+        <v>0.9994848164255219</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0721128422777737</v>
+        <v>0.05039895972554537</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2234698087868169</v>
+        <v>0.1884269903982573</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2685383441480447</v>
+        <v>0.2244971263191255</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9095362644069234</v>
+        <v>0.9299189243251789</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04657322721254413</v>
+        <v>0.02573326833588771</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1633899127244383</v>
+        <v>0.1190821765313798</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2158083112684591</v>
+        <v>0.1604159229499607</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9415750503540039</v>
+        <v>0.9642172455787659</v>
       </c>
     </row>
     <row r="41">
@@ -2429,40 +2429,40 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.02637074929179909</v>
+        <v>0.01279186937832312</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1268309536250711</v>
+        <v>0.07583688131401536</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1623907303136453</v>
+        <v>0.1131011466711241</v>
       </c>
       <c r="G41" t="n">
-        <v>0.511394598726586</v>
+        <v>0.4680551666473061</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05518693528225076</v>
+        <v>0.02717802307003472</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1902219228420746</v>
+        <v>0.1232980801509752</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2349189972783188</v>
+        <v>0.1648575842053823</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.02252061025128538</v>
+        <v>-0.1301873498915043</v>
       </c>
       <c r="L41" t="n">
-        <v>0.01937201562166187</v>
+        <v>0.007890114951333018</v>
       </c>
       <c r="M41" t="n">
-        <v>0.07876553067519894</v>
+        <v>0.05833690055783174</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1391833884544484</v>
+        <v>0.08882631902388513</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6410692930221558</v>
+        <v>0.6718927621841431</v>
       </c>
     </row>
     <row r="42">
@@ -2478,40 +2478,40 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5880066936548144</v>
+        <v>0.7492056133574855</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6236445490459978</v>
+        <v>0.6800217230881387</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7668159450968756</v>
+        <v>0.8655666429325275</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3651354392993503</v>
+        <v>0.414903553515813</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5599400841929</v>
+        <v>0.739806928441043</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6117779020030145</v>
+        <v>0.6792641453122165</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7482914433513856</v>
+        <v>0.8601202988193238</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3954386584270824</v>
+        <v>0.4222435107294159</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2387702303007613</v>
+        <v>0.2305277003130568</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2999264495260631</v>
+        <v>0.3196181526628223</v>
       </c>
       <c r="N42" t="n">
-        <v>0.4886412081484341</v>
+        <v>0.4801330027326353</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7422023415565491</v>
+        <v>0.8199681043624878</v>
       </c>
     </row>
     <row r="43">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.001891685802161367</v>
+        <v>0.001611052349932914</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03902838879778023</v>
+        <v>0.03163412633547816</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04349351448390169</v>
+        <v>0.04013791661176392</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8332794711974848</v>
+        <v>0.878988404034039</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01362812725039112</v>
+        <v>0.01433823728781999</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08529720685551243</v>
+        <v>0.08985138931019518</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1167395701996162</v>
+        <v>0.1197423788298027</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.2010919462297467</v>
+        <v>-0.07699354251896362</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0008598728214010099</v>
+        <v>0.001348423352294874</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02168722848931971</v>
+        <v>0.02664867405594286</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02932358813994307</v>
+        <v>0.03672088441602236</v>
       </c>
       <c r="O43" t="n">
-        <v>0.9242165684700012</v>
+        <v>0.8987153768539429</v>
       </c>
     </row>
     <row r="44">
@@ -2576,40 +2576,40 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0003122932085682412</v>
+        <v>0.0002041733282754341</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01484486245279753</v>
+        <v>0.01149596730787241</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01767181961678653</v>
+        <v>0.01428892327208156</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9994150140263038</v>
+        <v>0.9997469988519321</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04477680211801459</v>
+        <v>0.04370579623016899</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1842627414582512</v>
+        <v>0.1771734428841135</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2116052979441077</v>
+        <v>0.2090593127085445</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9161243329430815</v>
+        <v>0.9458420121920176</v>
       </c>
       <c r="L44" t="n">
-        <v>0.01789011091466792</v>
+        <v>0.01837831086391813</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1056944970488304</v>
+        <v>0.1025171756049713</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1337539192497473</v>
+        <v>0.135566628872736</v>
       </c>
       <c r="O44" t="n">
-        <v>0.9664883613586426</v>
+        <v>0.9772265553474426</v>
       </c>
     </row>
     <row r="45">
@@ -2625,40 +2625,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.03522638644768493</v>
+        <v>0.01633560852481554</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1554916028850484</v>
+        <v>0.08793374820992991</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1876869373389766</v>
+        <v>0.1278108310152764</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3035799912443823</v>
+        <v>0.4930002018297694</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05066698607960627</v>
+        <v>0.03310042869431902</v>
       </c>
       <c r="I45" t="n">
-        <v>0.184043913250102</v>
+        <v>0.1268132349269948</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2250932830619481</v>
+        <v>0.1819352321413283</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.001678186367001233</v>
+        <v>-0.02732081525303043</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02006977205690529</v>
+        <v>0.005868475834363705</v>
       </c>
       <c r="M45" t="n">
-        <v>0.07595571832302082</v>
+        <v>0.05067283661818212</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1416678229412215</v>
+        <v>0.07660597779784359</v>
       </c>
       <c r="O45" t="n">
-        <v>0.6032238602638245</v>
+        <v>0.8178631663322449</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -518,40 +518,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5390766201313454</v>
+        <v>0.2263379807445175</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5627329210073801</v>
+        <v>0.4297721659435028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7342183735996706</v>
+        <v>0.4757499140772571</v>
       </c>
       <c r="G2" t="n">
-        <v>-89.81169478014642</v>
+        <v>0.07666500307126323</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1453662833119649</v>
+        <v>0.2146219971820614</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3181970480049355</v>
+        <v>0.3250545145628014</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3812693054941151</v>
+        <v>0.4632731345351913</v>
       </c>
       <c r="K2" t="n">
-        <v>-23.48809326628569</v>
+        <v>0.1244597992034612</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4309085989837342</v>
+        <v>1.091486733114164</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4039884081736798</v>
+        <v>0.8969955919961592</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6564362870711324</v>
+        <v>1.044742424291348</v>
       </c>
       <c r="O2" t="n">
-        <v>-71.58994293212891</v>
+        <v>-3.452668190002441</v>
       </c>
     </row>
     <row r="3">
@@ -567,40 +567,40 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.01692950800284671</v>
+        <v>0.00222526108021707</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1089091186119361</v>
+        <v>0.04619232969598077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1301134428214345</v>
+        <v>0.04717267302387124</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06464191928211038</v>
+        <v>-5011.512847523376</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02228154382583092</v>
+        <v>9.78179281318312e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0921917188698485</v>
+        <v>0.00986782584511667</v>
       </c>
       <c r="J3" t="n">
-        <v>0.14927003659754</v>
+        <v>0.009890294643327427</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4012141155733668</v>
+        <v>-219.3398180275966</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0188190361166119</v>
+        <v>0.02802138895586473</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1306439438342194</v>
+        <v>0.1633544237783567</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1371824920192511</v>
+        <v>0.1673959048360047</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.183468222618103</v>
+        <v>-63118.578125</v>
       </c>
     </row>
     <row r="4">
@@ -616,40 +616,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0856424894395067</v>
+        <v>0.4042149144620192</v>
       </c>
       <c r="E4" t="n">
-        <v>0.255308727211949</v>
+        <v>0.5649344095571378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2926473807152675</v>
+        <v>0.6357789824003458</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6782348602089066</v>
+        <v>-0.353739667104819</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04457129379945374</v>
+        <v>0.2413465381265149</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1932705453908743</v>
+        <v>0.3464774754644435</v>
       </c>
       <c r="J4" t="n">
-        <v>0.211119145980306</v>
+        <v>0.491270331005766</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8325423668332155</v>
+        <v>0.1917161626380611</v>
       </c>
       <c r="L4" t="n">
-        <v>0.264504150089111</v>
+        <v>0.7306362988491043</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3720463558079646</v>
+        <v>0.5061836316845754</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5142996695401535</v>
+        <v>0.8547726591609632</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006238400936126709</v>
+        <v>-1.446943998336792</v>
       </c>
     </row>
     <row r="5">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04012134798195686</v>
+        <v>0.08896962813676164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1721880697962916</v>
+        <v>0.2593947420122301</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2003031402199098</v>
+        <v>0.2982777701015643</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9114205765899739</v>
+        <v>-1.766954032019485</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05426081864055373</v>
+        <v>0.07794323560402763</v>
       </c>
       <c r="I5" t="n">
-        <v>0.182401998347764</v>
+        <v>0.2341613313292203</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2329395171295625</v>
+        <v>0.2791831578086824</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.585038899959528</v>
+        <v>-1.424033398135531</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05631900453950057</v>
+        <v>0.1051780481765039</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1941398666917777</v>
+        <v>0.2640168905759622</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2373162542673817</v>
+        <v>0.3243116528533995</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.683092832565308</v>
+        <v>-2.271035671234131</v>
       </c>
     </row>
     <row r="6">
@@ -714,40 +714,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.442806147079261</v>
+        <v>0.2343958033811117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6209517363685169</v>
+        <v>0.4618179856729497</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6654368092307946</v>
+        <v>0.4841444034388002</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4331526059481305</v>
+        <v>-0.3223896149994503</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2797219946937255</v>
+        <v>0.3531170043294597</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4080759003238403</v>
+        <v>0.5578528196917782</v>
       </c>
       <c r="J6" t="n">
-        <v>0.528887506653093</v>
+        <v>0.5942364885543967</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09467312438965592</v>
+        <v>-0.9921784121951662</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1738693362694031</v>
+        <v>0.01348696954684928</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2358419515650985</v>
+        <v>0.0944380672836771</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4169764217187863</v>
+        <v>0.1161334127064614</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4372677206993103</v>
+        <v>0.9239106178283691</v>
       </c>
     </row>
     <row r="7">
@@ -763,40 +763,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.006994244838786683</v>
+        <v>0.005695169687565443</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07215547640459691</v>
+        <v>0.05009164592793085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08363160191450768</v>
+        <v>0.07546634804709608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3037433704875316</v>
+        <v>0.1284470879285301</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01239732313337963</v>
+        <v>0.01442028682391312</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06903630126003024</v>
+        <v>0.08880190640731915</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1113432671219038</v>
+        <v>0.1200844986828571</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2341172805327802</v>
+        <v>-1.20678990508883</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007492742954217495</v>
+        <v>0.004484546178706765</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06718905705819254</v>
+        <v>0.05147003023913847</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08656063166484805</v>
+        <v>0.06696675427931956</v>
       </c>
       <c r="O7" t="n">
-        <v>0.254119336605072</v>
+        <v>0.3137133121490479</v>
       </c>
     </row>
     <row r="8">
@@ -812,40 +812,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.01955419622587144</v>
+        <v>0.03434405485606418</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1287536029122283</v>
+        <v>0.1522693574861872</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1398363194090557</v>
+        <v>0.1853214905402613</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9616206014936405</v>
+        <v>0.8303685219931205</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08214336479257639</v>
+        <v>0.05833405050603001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.252097364281194</v>
+        <v>0.228130120011661</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2866066377329325</v>
+        <v>0.2415244304537949</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8387756318075379</v>
+        <v>0.7118776088922243</v>
       </c>
       <c r="L8" t="n">
-        <v>0.344302666135506</v>
+        <v>0.3272544154012924</v>
       </c>
       <c r="M8" t="n">
-        <v>0.420428412843784</v>
+        <v>0.4398257355038013</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5867730959540545</v>
+        <v>0.5720615486128152</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3242306709289551</v>
+        <v>-0.6163685321807861</v>
       </c>
     </row>
     <row r="9">
@@ -861,40 +861,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.03587299297246111</v>
+        <v>0.04443791451678916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1441961876779678</v>
+        <v>0.1787140578006281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1894016709864544</v>
+        <v>0.2108030230257364</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7996531338710282</v>
+        <v>-1.182534372116314</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03865502802582375</v>
+        <v>0.04330615327856764</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1368274324625787</v>
+        <v>0.1772283858531004</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1966088198068025</v>
+        <v>0.2081013053264386</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.9392204709529006</v>
+        <v>-1.126948779716065</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05111266082279373</v>
+        <v>0.03232907741564177</v>
       </c>
       <c r="M9" t="n">
-        <v>0.174736916422452</v>
+        <v>0.1381960174013415</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2260810934660255</v>
+        <v>0.1798028848924337</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.564186811447144</v>
+        <v>-0.5878181457519531</v>
       </c>
     </row>
     <row r="10">
@@ -910,40 +910,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1777148776962136</v>
+        <v>0.2369707210251322</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3513198237606263</v>
+        <v>0.4259020915126864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4215624244358285</v>
+        <v>0.4867963855916888</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09242203934399451</v>
+        <v>0.6530926925539005</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1621915705490888</v>
+        <v>0.25722582048414</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3843506241622677</v>
+        <v>0.4910443231147715</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4027301460644445</v>
+        <v>0.5071743491977291</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003000488419906855</v>
+        <v>0.6234407508077633</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1370484023558207</v>
+        <v>0.01830424507589703</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2698708827528216</v>
+        <v>0.1204381013555997</v>
       </c>
       <c r="N10" t="n">
-        <v>0.370200489405161</v>
+        <v>0.1352931819268696</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1575566530227661</v>
+        <v>0.9732039570808411</v>
       </c>
     </row>
     <row r="11">
@@ -959,40 +959,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.01033934155848202</v>
+        <v>0.007960236568471316</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09078245944381437</v>
+        <v>0.07510017496517389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1016825528715818</v>
+        <v>0.08922015785948439</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1723484334083906</v>
+        <v>0.2741027239061187</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01386572098173429</v>
+        <v>0.01112102883012257</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09599094352230918</v>
+        <v>0.07592457366198622</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1177527960675851</v>
+        <v>0.1054562887177553</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1099338993245711</v>
+        <v>-0.01413123412961403</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02336551176312815</v>
+        <v>0.005403774004649861</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1076963165481189</v>
+        <v>0.05588242990878887</v>
       </c>
       <c r="N11" t="n">
-        <v>0.15285781551209</v>
+        <v>0.07351036664749987</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.8703804016113281</v>
+        <v>0.5072276592254639</v>
       </c>
     </row>
     <row r="12">
@@ -1008,40 +1008,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01500953948221614</v>
+        <v>0.007474690932434215</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1157828043289055</v>
+        <v>0.07593598564620845</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1225134257223107</v>
+        <v>0.08645629492659407</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9759439291964839</v>
+        <v>0.9870960010911224</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08066382619337713</v>
+        <v>0.04997415405183466</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2510608638449285</v>
+        <v>0.2029475630722493</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2840137781752448</v>
+        <v>0.2235489969823946</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8707185709135501</v>
+        <v>0.9137266764357104</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01588649344965857</v>
+        <v>0.1887368556869907</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1122074740740384</v>
+        <v>0.2371636886363277</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1260416337947845</v>
+        <v>0.4344385522568073</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9745384454727173</v>
+        <v>0.6741725206375122</v>
       </c>
     </row>
     <row r="13">
@@ -1057,40 +1057,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.02644290463347502</v>
+        <v>0.0472176989039125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.128804143627579</v>
+        <v>0.1894913297882923</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1626127443759406</v>
+        <v>0.2172963389105129</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.17913115605584</v>
+        <v>-0.1614971963382805</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02554076419170978</v>
+        <v>0.05803724101032942</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1259713745485801</v>
+        <v>0.2014481551560761</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1598147808924749</v>
+        <v>0.2409091966080362</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1389032795510499</v>
+        <v>-0.4276445968679137</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02682730878421466</v>
+        <v>0.01835092775273378</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1297257357137402</v>
+        <v>0.1096133118584283</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1637904416753757</v>
+        <v>0.1354655961959854</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1962724924087524</v>
+        <v>0.5485897660255432</v>
       </c>
     </row>
     <row r="14">
@@ -1106,40 +1106,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1329341931172634</v>
+        <v>0.1800293079689057</v>
       </c>
       <c r="E14" t="n">
-        <v>0.277249812717999</v>
+        <v>0.3571546727215817</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3646014167790128</v>
+        <v>0.4242986070786772</v>
       </c>
       <c r="G14" t="n">
-        <v>0.296477186481261</v>
+        <v>0.6120044949373165</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1317015961840066</v>
+        <v>0.1521864875209711</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3049195477022471</v>
+        <v>0.3441257169945709</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3629071454022456</v>
+        <v>0.3901108656791952</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3030004145694208</v>
+        <v>0.6720107756031948</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1009851900618506</v>
+        <v>0.1418514657606353</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2033258186260166</v>
+        <v>0.2795353667052921</v>
       </c>
       <c r="N14" t="n">
-        <v>0.317781670430896</v>
+        <v>0.3766317375907602</v>
       </c>
       <c r="O14" t="n">
-        <v>0.465559720993042</v>
+        <v>0.6942845582962036</v>
       </c>
     </row>
     <row r="15">
@@ -1155,40 +1155,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.008909958130586763</v>
+        <v>0.007201382623238721</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08512594685975466</v>
+        <v>0.06959592048720599</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0943925745521689</v>
+        <v>0.08486096053686125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1641085703376678</v>
+        <v>0.3189227012929506</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0171949210488629</v>
+        <v>0.0123252044827403</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1118058694458669</v>
+        <v>0.07953706655863228</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1311294057367107</v>
+        <v>0.1110189374959979</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.6131486734066625</v>
+        <v>-0.1656674022608045</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002978541489780539</v>
+        <v>0.001604282947550794</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04742543648535841</v>
+        <v>0.02867470726211942</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05457601570086019</v>
+        <v>0.04005350106483569</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7205669283866882</v>
+        <v>0.8482734560966492</v>
       </c>
     </row>
     <row r="16">
@@ -1204,40 +1204,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.00646788346581328</v>
+        <v>0.009009411806838941</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06821640721169681</v>
+        <v>0.07719114512801692</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08042315254833822</v>
+        <v>0.09491792142076723</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9897352827889704</v>
+        <v>0.9708335332430663</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1688856427381501</v>
+        <v>0.109636821502981</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3697786164457865</v>
+        <v>0.2883206365826359</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4109569840483918</v>
+        <v>0.3311145141835087</v>
       </c>
       <c r="K16" t="n">
-        <v>0.731973624312648</v>
+        <v>0.6450690923823444</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02195381700679965</v>
+        <v>0.3102400556217494</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1153785561686921</v>
+        <v>0.3653701578281021</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1481682051143215</v>
+        <v>0.5569919708772734</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9651586413383484</v>
+        <v>-0.004350543022155762</v>
       </c>
     </row>
     <row r="17">
@@ -1253,40 +1253,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01278025694428597</v>
+        <v>0.01058673347961758</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08893470698442561</v>
+        <v>0.07563519727243889</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1130497985150171</v>
+        <v>0.1028918533199669</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01878710367525271</v>
+        <v>0.5979580027947194</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01915945457810543</v>
+        <v>0.02649183567359602</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1095573902294613</v>
+        <v>0.1310948026091233</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1384176815948939</v>
+        <v>0.1627631275000454</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.4709801219599492</v>
+        <v>-0.006054468486665243</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009427846633701784</v>
+        <v>0.00284875844893901</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08078617589052915</v>
+        <v>0.04693449428040225</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09709709899735308</v>
+        <v>0.05337376180239697</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2761707305908203</v>
+        <v>0.8918154835700989</v>
       </c>
     </row>
     <row r="18">
@@ -1302,40 +1302,40 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.4576005338706968</v>
+        <v>0.2729611610902309</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5756630429563488</v>
+        <v>0.4674929918113499</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6764617756168465</v>
+        <v>0.5224568509362576</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2748440114658938</v>
+        <v>0.615882772509055</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4949369015323862</v>
+        <v>0.3271360371154268</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5885749159933544</v>
+        <v>0.4904359097420483</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7035175204160776</v>
+        <v>0.5719580728649843</v>
       </c>
       <c r="K18" t="n">
-        <v>0.215677361525674</v>
+        <v>0.5396466402499858</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1758963243158653</v>
+        <v>0.4277028867746642</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3102348705639573</v>
+        <v>0.4600437851997269</v>
       </c>
       <c r="N18" t="n">
-        <v>0.419399957458111</v>
+        <v>0.6539899745215245</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7212585210800171</v>
+        <v>0.3981266617774963</v>
       </c>
     </row>
     <row r="19">
@@ -1351,40 +1351,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.006121918293521253</v>
+        <v>0.008375612758256067</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06722741930563264</v>
+        <v>0.0691610602909478</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07824268843490267</v>
+        <v>0.09151837388336873</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7211365534142693</v>
+        <v>0.6192463895026198</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02195588727419031</v>
+        <v>0.02245963986283009</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1109432284636076</v>
+        <v>0.1063702422231976</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1481751911562469</v>
+        <v>0.1498654058241264</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0001267747411890507</v>
+        <v>-0.02101054753443665</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00120871540243692</v>
+        <v>0.005003726932963686</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02689101803611601</v>
+        <v>0.04855507440453058</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03476658456674915</v>
+        <v>0.07073702660533369</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9449410438537598</v>
+        <v>0.7725316286087036</v>
       </c>
     </row>
     <row r="20">
@@ -1400,40 +1400,40 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.002307175227593509</v>
+        <v>0.003008947389637423</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04244147875158211</v>
+        <v>0.04184422999662171</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0480330638997088</v>
+        <v>0.05485387305958826</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9960228772632866</v>
+        <v>0.9922785540868336</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0617594359260626</v>
+        <v>0.05146439466953579</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2030806802081526</v>
+        <v>0.1922756947654947</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2485144581831459</v>
+        <v>0.2268576528784863</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8935387074676892</v>
+        <v>0.8679340352499307</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3575139714635955</v>
+        <v>0.05499939268734014</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4659796868115945</v>
+        <v>0.1513425997344409</v>
       </c>
       <c r="N20" t="n">
-        <v>0.597924720565721</v>
+        <v>0.2345194931926558</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3837153315544128</v>
+        <v>0.8588626384735107</v>
       </c>
     </row>
     <row r="21">
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.02222531530908046</v>
+        <v>0.02600667926375859</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1142686394369852</v>
+        <v>0.1234470062403064</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1490815726677193</v>
+        <v>0.1612658651536604</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5263287262433973</v>
+        <v>0.4255121431391707</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01637107856419588</v>
+        <v>0.04680329165069836</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08595158262847093</v>
+        <v>0.1569043127930052</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1279495156856636</v>
+        <v>0.2163406842244388</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.124287648774577</v>
+        <v>-0.03388527392313057</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01626829169598383</v>
+        <v>0.02821929956432425</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09760695877703844</v>
+        <v>0.1352959116124203</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1275472135955303</v>
+        <v>0.1679860100256097</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1172287464141846</v>
+        <v>0.3766352534294128</v>
       </c>
     </row>
     <row r="22">
@@ -1498,40 +1498,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.28868010776122</v>
+        <v>0.09974802026684801</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4257229831569475</v>
+        <v>0.2691019937877894</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5372895939446622</v>
+        <v>0.3158290997784213</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5536741321535996</v>
+        <v>0.7436365760235937</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3444878031917933</v>
+        <v>0.1153971748032888</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4734836257665158</v>
+        <v>0.274424175542912</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5869308333967413</v>
+        <v>0.3397015967040615</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4673903272571394</v>
+        <v>0.7034165212439074</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1122811807337057</v>
+        <v>0.1414379853898698</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2225058123047949</v>
+        <v>0.2815655583674764</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3350838413497519</v>
+        <v>0.3760824183471887</v>
       </c>
       <c r="O22" t="n">
-        <v>0.826403021812439</v>
+        <v>0.6364887356758118</v>
       </c>
     </row>
     <row r="23">
@@ -1547,40 +1547,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.006157544226225757</v>
+        <v>0.004373227202740224</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0547769395345885</v>
+        <v>0.05204896684161892</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07847002119424817</v>
+        <v>0.06613038033113242</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8068696280585406</v>
+        <v>0.6927872669294468</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03313675061157757</v>
+        <v>0.01555425007402739</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1176993180382743</v>
+        <v>0.07801725763380736</v>
       </c>
       <c r="J23" t="n">
-        <v>0.182035025782341</v>
+        <v>0.1247166792134372</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.03932878683813223</v>
+        <v>-0.09266302768597701</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004056631100656342</v>
+        <v>0.01278242245756462</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04886367464390916</v>
+        <v>0.06496902610093407</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06369168784587469</v>
+        <v>0.1130593758056563</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8727644085884094</v>
+        <v>0.1020537614822388</v>
       </c>
     </row>
     <row r="24">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.002227201570674747</v>
+        <v>0.001854802716631324</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03794522166839247</v>
+        <v>0.035101513249975</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04719323649289956</v>
+        <v>0.04306742059412571</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9950383812474169</v>
+        <v>0.9974311978855336</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07918529711537638</v>
+        <v>0.06193211565256624</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2152842849926214</v>
+        <v>0.2253438061232866</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2813988221641597</v>
+        <v>0.2488616395762236</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8235960048387148</v>
+        <v>0.9142273470837751</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03905130435883457</v>
+        <v>0.02342547793202248</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1251379946254846</v>
+        <v>0.09784086604681143</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1976140287500727</v>
+        <v>0.1530538399780367</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9130039811134338</v>
+        <v>0.9675569534301758</v>
       </c>
     </row>
     <row r="25">
@@ -1645,40 +1645,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.01125225019401262</v>
+        <v>0.01555478819519451</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09609359530909585</v>
+        <v>0.105660998686683</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1060766241639157</v>
+        <v>0.1247188365692789</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.4888732867944594</v>
+        <v>-0.2274849320394212</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007680171912339569</v>
+        <v>0.01969228317269722</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07383474674748018</v>
+        <v>0.1098446218247442</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08763659003144503</v>
+        <v>0.1403291957245434</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01622365314593011</v>
+        <v>-0.5539897148459378</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02219643986730833</v>
+        <v>0.01239084711344371</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1061093548332066</v>
+        <v>0.08424538055114059</v>
       </c>
       <c r="N25" t="n">
-        <v>0.148984696755433</v>
+        <v>0.1113141819960229</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.936984539031982</v>
+        <v>0.02219325304031372</v>
       </c>
     </row>
     <row r="26">
@@ -1694,40 +1694,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4180477625009769</v>
+        <v>0.3195643287885532</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5105275294869082</v>
+        <v>0.4578149394225294</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6465661315758635</v>
+        <v>0.5653002112051199</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2061392411140458</v>
+        <v>0.4589252886324564</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3862408167407065</v>
+        <v>0.2916746341353434</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4641219322057037</v>
+        <v>0.4167293888804132</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6214827565916101</v>
+        <v>0.540069101259592</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2665397225040966</v>
+        <v>0.5061471063547947</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2734063967715432</v>
+        <v>0.3513190991136261</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3769418288227946</v>
+        <v>0.4403136764163651</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5228827753632196</v>
+        <v>0.5927217720934723</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4808090329170227</v>
+        <v>0.4051591753959656</v>
       </c>
     </row>
     <row r="27">
@@ -1743,40 +1743,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.002410073163792178</v>
+        <v>0.005018018363539069</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04089888371173004</v>
+        <v>0.06102629071963209</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04909249600287378</v>
+        <v>0.07083797261031027</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7868242970219982</v>
+        <v>0.7833209686601464</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01138551743267703</v>
+        <v>0.02356414930728618</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07368213969445264</v>
+        <v>0.1256495888329623</v>
       </c>
       <c r="J27" t="n">
-        <v>0.106702940131362</v>
+        <v>0.1535061865440158</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.007071369841829878</v>
+        <v>-0.01750465549301627</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001354767770656481</v>
+        <v>0.004385203528940259</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02843865307402067</v>
+        <v>0.05366766426138134</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03680717009845338</v>
+        <v>0.06622086928559802</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8801681399345398</v>
+        <v>0.8106460571289062</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.001423037751767066</v>
+        <v>0.001044213429525036</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03086147348742019</v>
+        <v>0.02581904054744272</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03772317261004257</v>
+        <v>0.03231429141301161</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9971913262328275</v>
+        <v>0.9973483653426829</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07447146439381623</v>
+        <v>0.04438422803088863</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2381202991993893</v>
+        <v>0.1670534648480773</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2728946030866427</v>
+        <v>0.2106756465063977</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8530144065495783</v>
+        <v>0.8872924308792857</v>
       </c>
       <c r="L28" t="n">
-        <v>0.150546658640536</v>
+        <v>0.08056537617731406</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2024779812885981</v>
+        <v>0.1885603447559872</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3880034260680388</v>
+        <v>0.2838404061745157</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7028635144233704</v>
+        <v>0.7954154014587402</v>
       </c>
     </row>
     <row r="29">
@@ -1841,40 +1841,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01494613468044649</v>
+        <v>0.01109159176097677</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09639492237533488</v>
+        <v>0.08056757956975472</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1222543851174529</v>
+        <v>0.1053166262324082</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03569274764814567</v>
+        <v>0.1415510755117158</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01648652199772628</v>
+        <v>0.01313986122626663</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09518614539951425</v>
+        <v>0.09382304484468294</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1283998520159828</v>
+        <v>0.1146292337332263</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.06369125318164959</v>
+        <v>-0.01697754305199384</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009753213037352132</v>
+        <v>0.00631660876301484</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07598514486706226</v>
+        <v>0.0492945755427033</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0987583567975497</v>
+        <v>0.07947709583908336</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3707340359687805</v>
+        <v>0.5111174583435059</v>
       </c>
     </row>
     <row r="30">
@@ -1890,40 +1890,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.7741341979558612</v>
+        <v>0.832658549455508</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7039374686267027</v>
+        <v>0.7262052326885278</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8798489631498473</v>
+        <v>0.912501259974751</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4339563315521363</v>
+        <v>0.5612395396435805</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7951702770847738</v>
+        <v>0.8772684280991829</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7074748727339256</v>
+        <v>0.7754930159832796</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8917232065415668</v>
+        <v>0.9366260876674228</v>
       </c>
       <c r="K30" t="n">
-        <v>0.418574839000417</v>
+        <v>0.5377328442485207</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5094313640121689</v>
+        <v>0.3676113778091363</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5190579514676296</v>
+        <v>0.4267047729498948</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7137446069934041</v>
+        <v>0.6063096385586627</v>
       </c>
       <c r="O30" t="n">
-        <v>0.6275059580802917</v>
+        <v>0.8062911629676819</v>
       </c>
     </row>
     <row r="31">
@@ -1939,40 +1939,40 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.002828369814390992</v>
+        <v>0.002186355805822923</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04055258328764647</v>
+        <v>0.03309639550399803</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05318242016297295</v>
+        <v>0.04675848378447405</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8440974341797987</v>
+        <v>0.8485971253109672</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01820183184607502</v>
+        <v>0.01486700795836427</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09583817011721524</v>
+        <v>0.08530328893667043</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1349141647347491</v>
+        <v>0.1219303405980819</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.003303129948714512</v>
+        <v>-0.0295249002592517</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0008435453965241727</v>
+        <v>0.002141878007760264</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02206092196052876</v>
+        <v>0.03446386069841128</v>
       </c>
       <c r="N31" t="n">
-        <v>0.02904385299033468</v>
+        <v>0.04628042791245845</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9535029530525208</v>
+        <v>0.8516771793365479</v>
       </c>
     </row>
     <row r="32">
@@ -1988,40 +1988,40 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0003612467902328527</v>
+        <v>0.000765957640933275</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01461555428614849</v>
+        <v>0.02374840232493974</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01900649337023673</v>
+        <v>0.02767593974797017</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9993858443631047</v>
+        <v>0.9988698022339134</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03364107380868914</v>
+        <v>0.07212380487556858</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1435638948100554</v>
+        <v>0.2271692704551794</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1834150315778103</v>
+        <v>0.2685587549784378</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9428068133214408</v>
+        <v>0.8935787584118746</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06216734806269249</v>
+        <v>0.04645076102102566</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1940832093954982</v>
+        <v>0.1841053834682729</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2493338085031641</v>
+        <v>0.2155243861400043</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8943092823028564</v>
+        <v>0.9314602613449097</v>
       </c>
     </row>
     <row r="33">
@@ -2037,40 +2037,40 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.02404857458974003</v>
+        <v>0.03901760743414972</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1096531238169915</v>
+        <v>0.1261890858050196</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1550760284174831</v>
+        <v>0.1975287509051523</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5201480738445159</v>
+        <v>0.1418006606443712</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05014939399286988</v>
+        <v>0.06079689825624359</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1779490393031518</v>
+        <v>0.1839665700252367</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2239406037164093</v>
+        <v>0.2465702704225382</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0006532076656033947</v>
+        <v>-0.3372387839627833</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004688569634379183</v>
+        <v>0.00715709748204014</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04459255425037852</v>
+        <v>0.05974824610299359</v>
       </c>
       <c r="N33" t="n">
-        <v>0.06847313074760919</v>
+        <v>0.08459963050770458</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9064468741416931</v>
+        <v>0.8425783514976501</v>
       </c>
     </row>
     <row r="34">
@@ -2086,40 +2086,40 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5765493705021756</v>
+        <v>0.6388088867062414</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6213323282915176</v>
+        <v>0.5867965396230829</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7593084817794251</v>
+        <v>0.7992552074939777</v>
       </c>
       <c r="G34" t="n">
-        <v>0.29804906031892</v>
+        <v>0.2930208854482101</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5565848686707969</v>
+        <v>0.6394502446936494</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6036019308742091</v>
+        <v>0.5774774427540644</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7460461571985991</v>
+        <v>0.7996563291149826</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3223559133618686</v>
+        <v>0.2923110852067227</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2206748864875721</v>
+        <v>0.394025112187508</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3521488048203781</v>
+        <v>0.3866160243084364</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4697604564962573</v>
+        <v>0.6277141962609322</v>
       </c>
       <c r="O34" t="n">
-        <v>0.7313275337219238</v>
+        <v>0.5639265775680542</v>
       </c>
     </row>
     <row r="35">
@@ -2135,40 +2135,40 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.002080794197018399</v>
+        <v>0.003474426317702364</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03591187235131922</v>
+        <v>0.04888115686762426</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04561572313378798</v>
+        <v>0.05894426450217496</v>
       </c>
       <c r="G35" t="n">
-        <v>0.864905622235144</v>
+        <v>0.8128733254504243</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01549712321848356</v>
+        <v>0.01877759173436959</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0960738105385775</v>
+        <v>0.1076819838718311</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1244874420111666</v>
+        <v>0.1370313531071251</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.006141895890642735</v>
+        <v>-0.01132905867056788</v>
       </c>
       <c r="L35" t="n">
-        <v>0.000742223116329537</v>
+        <v>0.00133925332446332</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01764418915467505</v>
+        <v>0.02805190241597318</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02724377206499748</v>
+        <v>0.03659581020367386</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9518116116523743</v>
+        <v>0.9278700947761536</v>
       </c>
     </row>
     <row r="36">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0005330986794991529</v>
+        <v>0.000669258240155456</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01759414209001064</v>
+        <v>0.02052764807305006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02308892980411073</v>
+        <v>0.02587002590171598</v>
       </c>
       <c r="G36" t="n">
-        <v>0.999222356548648</v>
+        <v>0.9985476059690191</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05581236282453737</v>
+        <v>0.0401782374987799</v>
       </c>
       <c r="I36" t="n">
-        <v>0.199611401988245</v>
+        <v>0.1688704647648258</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2362464027758674</v>
+        <v>0.2004450984653401</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9185852073470475</v>
+        <v>0.9128070021147511</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03311935103593073</v>
+        <v>0.02414294278157964</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1348155786691358</v>
+        <v>0.1006293969300026</v>
       </c>
       <c r="N36" t="n">
-        <v>0.181987227672523</v>
+        <v>0.1553799947920569</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9516880512237549</v>
+        <v>0.947606086730957</v>
       </c>
     </row>
     <row r="37">
@@ -2233,40 +2233,40 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.01918534025782024</v>
+        <v>0.02014439612394476</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1042439857460426</v>
+        <v>0.09774130716369811</v>
       </c>
       <c r="F37" t="n">
-        <v>0.138511155716138</v>
+        <v>0.1419309554816875</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04208390848566201</v>
+        <v>0.399054568472045</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02105742752877671</v>
+        <v>0.03382688832717136</v>
       </c>
       <c r="I37" t="n">
-        <v>0.103989174545155</v>
+        <v>0.118289823673504</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1451117759824361</v>
+        <v>0.183920875180528</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.05138863343797651</v>
+        <v>-0.009120048967703021</v>
       </c>
       <c r="L37" t="n">
-        <v>0.008332980720195386</v>
+        <v>0.003464085566808835</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05995616181430115</v>
+        <v>0.04578137833039116</v>
       </c>
       <c r="N37" t="n">
-        <v>0.09128516155539949</v>
+        <v>0.05885648279339189</v>
       </c>
       <c r="O37" t="n">
-        <v>0.5839376449584961</v>
+        <v>0.896659791469574</v>
       </c>
     </row>
     <row r="38">
@@ -2282,40 +2282,40 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5334544364000651</v>
+        <v>0.9059895495960081</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6285970349943926</v>
+        <v>0.74797998193412</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7303796522357842</v>
+        <v>0.9518348331491173</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5415448390500102</v>
+        <v>0.1461174751559978</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5589110648082227</v>
+        <v>0.8177918742492369</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6454264227504248</v>
+        <v>0.698582657768485</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7476035478836511</v>
+        <v>0.9043184584255908</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5196672017528792</v>
+        <v>0.2292425550689553</v>
       </c>
       <c r="L38" t="n">
-        <v>0.537651601180743</v>
+        <v>0.2165268416420731</v>
       </c>
       <c r="M38" t="n">
-        <v>0.5210365282452953</v>
+        <v>0.2923683442922873</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7332472987885758</v>
+        <v>0.4653244477158632</v>
       </c>
       <c r="O38" t="n">
-        <v>0.5379377007484436</v>
+        <v>0.7959264516830444</v>
       </c>
     </row>
     <row r="39">
@@ -2331,40 +2331,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.00254966015184498</v>
+        <v>0.001925821614072627</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03984960669331651</v>
+        <v>0.03255514078580071</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05049415958152962</v>
+        <v>0.04388418409942957</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8292125176892901</v>
+        <v>0.8258423323817075</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01567191539800113</v>
+        <v>0.01177264054479235</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09502559778641452</v>
+        <v>0.08446506524118963</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1251875209355993</v>
+        <v>0.1085017997306604</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.04977401473457088</v>
+        <v>-0.0646342340367243</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001032561291722979</v>
+        <v>0.00149985595052648</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0232327310982412</v>
+        <v>0.02756412555886329</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03213349174495326</v>
+        <v>0.03872797374671803</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9308344721794128</v>
+        <v>0.8643636703491211</v>
       </c>
     </row>
     <row r="40">
@@ -2380,40 +2380,40 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0003704954008106382</v>
+        <v>0.0002769342486655212</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0145604100671235</v>
+        <v>0.01467311787337769</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01924825708501001</v>
+        <v>0.01664134155245667</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9994848164255219</v>
+        <v>0.99962996888853</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05039895972554537</v>
+        <v>0.04544001886638909</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1884269903982573</v>
+        <v>0.1856963297566422</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2244971263191255</v>
+        <v>0.2131666457642684</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9299189243251789</v>
+        <v>0.9392844302668376</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02573326833588771</v>
+        <v>0.01785329936866987</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1190821765313798</v>
+        <v>0.103661305931422</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1604159229499607</v>
+        <v>0.1336162391652671</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9642172455787659</v>
+        <v>0.9761449694633484</v>
       </c>
     </row>
     <row r="41">
@@ -2429,40 +2429,40 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.01279186937832312</v>
+        <v>0.0126087632749835</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07583688131401536</v>
+        <v>0.07581562970819902</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1131011466711241</v>
+        <v>0.1122887495476884</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4680551666473061</v>
+        <v>0.4443433354787923</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02717802307003472</v>
+        <v>0.02286631414859804</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1232980801509752</v>
+        <v>0.1080854117810956</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1648575842053823</v>
+        <v>0.1512161173572382</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1301873498915043</v>
+        <v>-0.007697549125468051</v>
       </c>
       <c r="L41" t="n">
-        <v>0.007890114951333018</v>
+        <v>0.001663897064171263</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05833690055783174</v>
+        <v>0.03237490286564458</v>
       </c>
       <c r="N41" t="n">
-        <v>0.08882631902388513</v>
+        <v>0.04079089437817297</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6718927621841431</v>
+        <v>0.9266735911369324</v>
       </c>
     </row>
     <row r="42">
@@ -2478,40 +2478,40 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.7492056133574855</v>
+        <v>0.7061105183930579</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6800217230881387</v>
+        <v>0.6993362107004828</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8655666429325275</v>
+        <v>0.8403038250496412</v>
       </c>
       <c r="G42" t="n">
-        <v>0.414903553515813</v>
+        <v>0.3156514188098469</v>
       </c>
       <c r="H42" t="n">
-        <v>0.739806928441043</v>
+        <v>0.604765674436241</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6792641453122165</v>
+        <v>0.6488250491824449</v>
       </c>
       <c r="J42" t="n">
-        <v>0.8601202988193238</v>
+        <v>0.7776668145396465</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4222435107294159</v>
+        <v>0.4138728705035866</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2305277003130568</v>
+        <v>0.3499133491736256</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3196181526628223</v>
+        <v>0.4104632973420995</v>
       </c>
       <c r="N42" t="n">
-        <v>0.4801330027326353</v>
+        <v>0.591534740462152</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8199681043624878</v>
+        <v>0.6608707904815674</v>
       </c>
     </row>
     <row r="43">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.001611052349932914</v>
+        <v>0.002111559396038141</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03163412633547816</v>
+        <v>0.03773400935438408</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04013791661176392</v>
+        <v>0.0459517072157079</v>
       </c>
       <c r="G43" t="n">
-        <v>0.878988404034039</v>
+        <v>0.886787351242555</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01433823728781999</v>
+        <v>0.01927010667244974</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08985138931019518</v>
+        <v>0.1063870629177594</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1197423788298027</v>
+        <v>0.1388168097618215</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.07699354251896362</v>
+        <v>-0.03317947026252765</v>
       </c>
       <c r="L43" t="n">
-        <v>0.001348423352294874</v>
+        <v>0.0009656754219895005</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02664867405594286</v>
+        <v>0.02354784871676438</v>
       </c>
       <c r="N43" t="n">
-        <v>0.03672088441602236</v>
+        <v>0.03107531853399898</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8987153768539429</v>
+        <v>0.948224663734436</v>
       </c>
     </row>
     <row r="44">
@@ -2576,40 +2576,40 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0002041733282754341</v>
+        <v>0.0002102047117266611</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01149596730787241</v>
+        <v>0.01193450352880612</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01428892327208156</v>
+        <v>0.01449843825129662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9997469988519321</v>
+        <v>0.999620284187859</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04370579623016899</v>
+        <v>0.04154659246863784</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1771734428841135</v>
+        <v>0.1715233340432869</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2090593127085445</v>
+        <v>0.2038298125119038</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9458420121920176</v>
+        <v>0.924949835941663</v>
       </c>
       <c r="L44" t="n">
-        <v>0.01837831086391813</v>
+        <v>0.01403300557884024</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1025171756049713</v>
+        <v>0.08866232298713314</v>
       </c>
       <c r="N44" t="n">
-        <v>0.135566628872736</v>
+        <v>0.1184609875817361</v>
       </c>
       <c r="O44" t="n">
-        <v>0.9772265553474426</v>
+        <v>0.9746506214141846</v>
       </c>
     </row>
     <row r="45">
@@ -2625,40 +2625,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.01633560852481554</v>
+        <v>0.02275414055213713</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08793374820992991</v>
+        <v>0.106105084658553</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1278108310152764</v>
+        <v>0.1508447564621891</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4930002018297694</v>
+        <v>0.1764891642506641</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03310042869431902</v>
+        <v>0.02921290924591677</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1268132349269948</v>
+        <v>0.1193526845436833</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1819352321413283</v>
+        <v>0.1709178435562442</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.02732081525303043</v>
+        <v>-0.05726459993739064</v>
       </c>
       <c r="L45" t="n">
-        <v>0.005868475834363705</v>
+        <v>0.004541248621725392</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05067283661818212</v>
+        <v>0.04303387353877242</v>
       </c>
       <c r="N45" t="n">
-        <v>0.07660597779784359</v>
+        <v>0.06738878706228056</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8178631663322449</v>
+        <v>0.8356444835662842</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -518,40 +518,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2263379807445175</v>
+        <v>0.5004672030395804</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4297721659435028</v>
+        <v>0.655017323879682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4757499140772571</v>
+        <v>0.7074370664868928</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07666500307126323</v>
+        <v>-0.450225462389918</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2146219971820614</v>
+        <v>0.6212613447926855</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3250545145628014</v>
+        <v>0.6854564761321381</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4632731345351913</v>
+        <v>0.7882013351883422</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1244597992034612</v>
+        <v>-0.8002558720030644</v>
       </c>
       <c r="L2" t="n">
-        <v>1.091486733114164</v>
+        <v>1.855655066861781</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8969955919961592</v>
+        <v>1.087842027382092</v>
       </c>
       <c r="N2" t="n">
-        <v>1.044742424291348</v>
+        <v>1.362224308571016</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.452668190002441</v>
+        <v>-4.377211093902588</v>
       </c>
     </row>
     <row r="3">
@@ -567,40 +567,40 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.00222526108021707</v>
+        <v>0.006227149304202807</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04619232969598077</v>
+        <v>0.0708648497883891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04717267302387124</v>
+        <v>0.07891228867675051</v>
       </c>
       <c r="G3" t="n">
-        <v>-5011.512847523376</v>
+        <v>0.367150685148914</v>
       </c>
       <c r="H3" t="n">
-        <v>9.78179281318312e-05</v>
+        <v>0.01718509987575444</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00986782584511667</v>
+        <v>0.09450129380915745</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009890294643327427</v>
+        <v>0.1310919519869715</v>
       </c>
       <c r="K3" t="n">
-        <v>-219.3398180275966</v>
+        <v>-0.7464779067812897</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02802138895586473</v>
+        <v>0.01575391048673154</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1633544237783567</v>
+        <v>0.08573401885374336</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1673959048360047</v>
+        <v>0.125514582765237</v>
       </c>
       <c r="O3" t="n">
-        <v>-63118.578125</v>
+        <v>-0.6010297536849976</v>
       </c>
     </row>
     <row r="4">
@@ -616,40 +616,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4042149144620192</v>
+        <v>0.108725874061177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5649344095571378</v>
+        <v>0.3147794640067421</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6357789824003458</v>
+        <v>0.3297360672737772</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.353739667104819</v>
+        <v>0.7001323406322146</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2413465381265149</v>
+        <v>0.05456158750541148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3464774754644435</v>
+        <v>0.2114935484906646</v>
       </c>
       <c r="J4" t="n">
-        <v>0.491270331005766</v>
+        <v>0.2335842192987606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1917161626380611</v>
+        <v>0.849518289202878</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7306362988491043</v>
+        <v>0.8683792175130973</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5061836316845754</v>
+        <v>0.7626239402097124</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8547726591609632</v>
+        <v>0.9318686696703014</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.446943998336792</v>
+        <v>-1.3950035572052</v>
       </c>
     </row>
     <row r="5">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.08896962813676164</v>
+        <v>0.03437369033708431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2593947420122301</v>
+        <v>0.1437740953326427</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2982777701015643</v>
+        <v>0.1854014302455197</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.766954032019485</v>
+        <v>-0.1781481025366212</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07794323560402763</v>
+        <v>0.03873399314458972</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2341613313292203</v>
+        <v>0.134993682663795</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2791831578086824</v>
+        <v>0.1968095351973316</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.424033398135531</v>
+        <v>-0.3275961957954769</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1051780481765039</v>
+        <v>0.09630859012122013</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2640168905759622</v>
+        <v>0.3080740822350787</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3243116528533995</v>
+        <v>0.3103362533144011</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.271035671234131</v>
+        <v>-2.300948619842529</v>
       </c>
     </row>
     <row r="6">
@@ -714,40 +714,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2343958033811117</v>
+        <v>0.2705069929445773</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4618179856729497</v>
+        <v>0.4591648936229957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4841444034388002</v>
+        <v>0.5201028676565601</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3223896149994503</v>
+        <v>-0.9217433321590307</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3531170043294597</v>
+        <v>0.2106763660103125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5578528196917782</v>
+        <v>0.4317417448340167</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5942364885543967</v>
+        <v>0.4589949520531926</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.9921784121951662</v>
+        <v>-0.4966929217492149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01348696954684928</v>
+        <v>0.8474366983621431</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0944380672836771</v>
+        <v>0.7272804295365791</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1161334127064614</v>
+        <v>0.9205632506037502</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9239106178283691</v>
+        <v>-5.020383358001709</v>
       </c>
     </row>
     <row r="7">
@@ -763,40 +763,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.005695169687565443</v>
+        <v>0.007045504729505285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05009164592793085</v>
+        <v>0.06065316923793411</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07546634804709608</v>
+        <v>0.08393750490397774</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1284470879285301</v>
+        <v>-0.6185859301761354</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01442028682391312</v>
+        <v>0.009966841753696097</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08880190640731915</v>
+        <v>0.07492639861856068</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1200844986828571</v>
+        <v>0.09983407110649198</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.20678990508883</v>
+        <v>-1.289713860139201</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004484546178706765</v>
+        <v>0.01449465815955573</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05147003023913847</v>
+        <v>0.0933517572940348</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06696675427931956</v>
+        <v>0.120393762959531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3137133121490479</v>
+        <v>-2.329903602600098</v>
       </c>
     </row>
     <row r="8">
@@ -812,40 +812,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.03434405485606418</v>
+        <v>0.109954797446478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1522693574861872</v>
+        <v>0.3086276270462193</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1853214905402613</v>
+        <v>0.3315943266198595</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8303685219931205</v>
+        <v>-22.64029882717228</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05833405050603001</v>
+        <v>0.05632108251219972</v>
       </c>
       <c r="I8" t="n">
-        <v>0.228130120011661</v>
+        <v>0.2118795841486256</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2415244304537949</v>
+        <v>0.2373206322935276</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7118776088922243</v>
+        <v>-11.10904164055532</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3272544154012924</v>
+        <v>0.0170767711322957</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4398257355038013</v>
+        <v>0.09421860690755679</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5720615486128152</v>
+        <v>0.1306781203273742</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.6163685321807861</v>
+        <v>-2.671508550643921</v>
       </c>
     </row>
     <row r="9">
@@ -861,40 +861,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.04443791451678916</v>
+        <v>0.04878440552976774</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1787140578006281</v>
+        <v>0.1461980140743531</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2108030230257364</v>
+        <v>0.2208719210985582</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.182534372116314</v>
+        <v>-1.596681361438056</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04330615327856764</v>
+        <v>0.04327003896211305</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1772283858531004</v>
+        <v>0.1737337744261331</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2081013053264386</v>
+        <v>0.208014516229308</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.126948779716065</v>
+        <v>-1.303164350604979</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03232907741564177</v>
+        <v>0.04741167698562367</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1381960174013415</v>
+        <v>0.1964955335337114</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1798028848924337</v>
+        <v>0.2177422260050257</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.5878181457519531</v>
+        <v>-1.523614168167114</v>
       </c>
     </row>
     <row r="10">
@@ -910,40 +910,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2369707210251322</v>
+        <v>0.1248571019563031</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4259020915126864</v>
+        <v>0.3026335895630765</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4867963855916888</v>
+        <v>0.3533512444527444</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6530926925539005</v>
+        <v>0.8081299949353902</v>
       </c>
       <c r="H10" t="n">
-        <v>0.25722582048414</v>
+        <v>0.191789120839297</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4910443231147715</v>
+        <v>0.3901918497398804</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5071743491977291</v>
+        <v>0.4379373480753805</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6234407508077633</v>
+        <v>0.705274437655524</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01830424507589703</v>
+        <v>0.1164727891998197</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1204381013555997</v>
+        <v>0.2091911297873081</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1352931819268696</v>
+        <v>0.341281099974522</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9732039570808411</v>
+        <v>0.8210142850875854</v>
       </c>
     </row>
     <row r="11">
@@ -959,40 +959,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.007960236568471316</v>
+        <v>0.006191951333145251</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07510017496517389</v>
+        <v>0.0636612212516967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08922015785948439</v>
+        <v>0.07868895305660924</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2741027239061187</v>
+        <v>0.5646057137863646</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01112102883012257</v>
+        <v>0.01424711026276274</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07592457366198622</v>
+        <v>0.08502983062454943</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1054562887177553</v>
+        <v>0.1193612594720864</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01413123412961403</v>
+        <v>-0.001802189603390403</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005403774004649861</v>
+        <v>0.002266313245438363</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05588242990878887</v>
+        <v>0.04434703475416132</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07351036664749987</v>
+        <v>0.0476058110469548</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5072276592254639</v>
+        <v>0.8406414985656738</v>
       </c>
     </row>
     <row r="12">
@@ -1008,40 +1008,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.007474690932434215</v>
+        <v>0.02050283071012743</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07593598564620845</v>
+        <v>0.1258229379971528</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08645629492659407</v>
+        <v>0.1431880955600969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9870960010911224</v>
+        <v>0.9565654480922972</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04997415405183466</v>
+        <v>0.09482012633061483</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2029475630722493</v>
+        <v>0.2989699536094659</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2235489969823946</v>
+        <v>0.3079287682737922</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9137266764357104</v>
+        <v>0.7991267763349525</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1887368556869907</v>
+        <v>0.2164055334787675</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2371636886363277</v>
+        <v>0.3082330905846966</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4344385522568073</v>
+        <v>0.4651940815173464</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6741725206375122</v>
+        <v>0.5415521860122681</v>
       </c>
     </row>
     <row r="13">
@@ -1057,40 +1057,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0472176989039125</v>
+        <v>0.03981011905452247</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1894913297882923</v>
+        <v>0.1807562745917607</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2172963389105129</v>
+        <v>0.1995247329393589</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1614971963382805</v>
+        <v>0.375718131296999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05803724101032942</v>
+        <v>0.0651155819515153</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2014481551560761</v>
+        <v>0.2295086188977344</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2409091966080362</v>
+        <v>0.2551775498579671</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4276445968679137</v>
+        <v>-0.02110915887244591</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01835092775273378</v>
+        <v>0.05860868498468447</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1096133118584283</v>
+        <v>0.233570667367715</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1354655961959854</v>
+        <v>0.2420923067441104</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5485897660255432</v>
+        <v>0.08092868328094482</v>
       </c>
     </row>
     <row r="14">
@@ -1106,40 +1106,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1800293079689057</v>
+        <v>0.1515564009084558</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3571546727215817</v>
+        <v>0.3562671335462458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4242986070786772</v>
+        <v>0.3893024542800312</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6120044949373165</v>
+        <v>0.6924470045319727</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1521864875209711</v>
+        <v>0.1537016520080011</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3441257169945709</v>
+        <v>0.3167051872283381</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3901108656791952</v>
+        <v>0.3920480225788687</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6720107756031948</v>
+        <v>0.6880936522635011</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1418514657606353</v>
+        <v>0.07648846530334265</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2795353667052921</v>
+        <v>0.2144737760880783</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3766317375907602</v>
+        <v>0.2765654810408245</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6942845582962036</v>
+        <v>0.8447821736335754</v>
       </c>
     </row>
     <row r="15">
@@ -1155,40 +1155,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.007201382623238721</v>
+        <v>0.001666309692539682</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06959592048720599</v>
+        <v>0.03196039287016694</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08486096053686125</v>
+        <v>0.04082045678994397</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3189227012929506</v>
+        <v>0.2792578705147221</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0123252044827403</v>
+        <v>0.00284747756617665</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07953706655863228</v>
+        <v>0.03495083678711057</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1110189374959979</v>
+        <v>0.05336176127318747</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.1656674022608045</v>
+        <v>-0.2316420254266995</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001604282947550794</v>
+        <v>0.001130098101595532</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02867470726211942</v>
+        <v>0.02332662383982195</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04005350106483569</v>
+        <v>0.03361693176950466</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8482734560966492</v>
+        <v>0.5111896991729736</v>
       </c>
     </row>
     <row r="16">
@@ -1204,40 +1204,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.009009411806838941</v>
+        <v>0.008604788580370993</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07719114512801692</v>
+        <v>0.08345062126003097</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09491792142076723</v>
+        <v>0.09276199965703086</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9708335332430663</v>
+        <v>0.9831692645384414</v>
       </c>
       <c r="H16" t="n">
-        <v>0.109636821502981</v>
+        <v>0.03033361840089145</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2883206365826359</v>
+        <v>0.1456176432217988</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3311145141835087</v>
+        <v>0.1741654914180517</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6450690923823444</v>
+        <v>0.9406682567353377</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3102400556217494</v>
+        <v>0.03878703646765648</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3653701578281021</v>
+        <v>0.1546140205291576</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5569919708772734</v>
+        <v>0.1969442471047491</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.004350543022155762</v>
+        <v>0.9241335988044739</v>
       </c>
     </row>
     <row r="17">
@@ -1253,40 +1253,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01058673347961758</v>
+        <v>0.0137472200459553</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07563519727243889</v>
+        <v>0.1091451450114814</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1028918533199669</v>
+        <v>0.1172485396325059</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5979580027947194</v>
+        <v>-0.03711010997270736</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02649183567359602</v>
+        <v>0.02077979799406459</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1310948026091233</v>
+        <v>0.1097651645404533</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1627631275000454</v>
+        <v>0.1441519961501213</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.006054468486665243</v>
+        <v>-0.5676579345346027</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00284875844893901</v>
+        <v>0.01109025227348949</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04693449428040225</v>
+        <v>0.07987998805642989</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05337376180239697</v>
+        <v>0.1053102667050535</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8918154835700989</v>
+        <v>0.1633355021476746</v>
       </c>
     </row>
     <row r="18">
@@ -1302,40 +1302,40 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2729611610902309</v>
+        <v>0.2347261254432373</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4674929918113499</v>
+        <v>0.4415379818124802</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5224568509362576</v>
+        <v>0.4844854233547561</v>
       </c>
       <c r="G18" t="n">
-        <v>0.615882772509055</v>
+        <v>0.6772760254173845</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3271360371154268</v>
+        <v>0.2597830828668125</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4904359097420483</v>
+        <v>0.4558512581159118</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5719580728649843</v>
+        <v>0.5096892022270164</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5396466402499858</v>
+        <v>0.6428253187676083</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4277028867746642</v>
+        <v>0.1507993378041303</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4600437851997269</v>
+        <v>0.3125605204263329</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6539899745215245</v>
+        <v>0.3883289041574555</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3981266617774963</v>
+        <v>0.7926666140556335</v>
       </c>
     </row>
     <row r="19">
@@ -1351,40 +1351,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.008375612758256067</v>
+        <v>0.008665613449481245</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0691610602909478</v>
+        <v>0.07989824078390551</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09151837388336873</v>
+        <v>0.09308927676956806</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6192463895026198</v>
+        <v>0.6653839255284806</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02245963986283009</v>
+        <v>0.02674017755698558</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1063702422231976</v>
+        <v>0.1176317786157222</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1498654058241264</v>
+        <v>0.1635242414964386</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02101054753443665</v>
+        <v>-0.03255162452758409</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005003726932963686</v>
+        <v>0.004704137110055057</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04855507440453058</v>
+        <v>0.04732925534288821</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07073702660533369</v>
+        <v>0.06858671234324515</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7725316286087036</v>
+        <v>0.8183533549308777</v>
       </c>
     </row>
     <row r="20">
@@ -1400,40 +1400,40 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.003008947389637423</v>
+        <v>0.005041002588599836</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04184422999662171</v>
+        <v>0.06109083067978623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05485387305958826</v>
+        <v>0.07100001822957397</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9922785540868336</v>
+        <v>0.986965081089732</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05146439466953579</v>
+        <v>0.05150001890813512</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1922756947654947</v>
+        <v>0.1949878035895025</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2268576528784863</v>
+        <v>0.2269361560177997</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8679340352499307</v>
+        <v>0.8668323297704817</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05499939268734014</v>
+        <v>0.02032069013285968</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1513425997344409</v>
+        <v>0.1048089385162869</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2345194931926558</v>
+        <v>0.1425506581284691</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8588626384735107</v>
+        <v>0.9474551677703857</v>
       </c>
     </row>
     <row r="21">
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.02600667926375859</v>
+        <v>0.01674897189034995</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1234470062403064</v>
+        <v>0.114611693316944</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1612658651536604</v>
+        <v>0.1294178190603981</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4255121431391707</v>
+        <v>-0.2987704129112863</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04680329165069836</v>
+        <v>0.0167413065314307</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1569043127930052</v>
+        <v>0.10161959244478</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2163406842244388</v>
+        <v>0.1293882008972638</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.03388527392313057</v>
+        <v>-0.2981760157486519</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02821929956432425</v>
+        <v>0.02074673203123334</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1352959116124203</v>
+        <v>0.09341211043630855</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1679860100256097</v>
+        <v>0.1440372591770384</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3766352534294128</v>
+        <v>-0.6087696552276611</v>
       </c>
     </row>
     <row r="22">
@@ -1498,40 +1498,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.09974802026684801</v>
+        <v>0.2791474841558773</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2691019937877894</v>
+        <v>0.4384444693582881</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3158290997784213</v>
+        <v>0.5283440963575511</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7436365760235937</v>
+        <v>0.2526902771239186</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1153971748032888</v>
+        <v>0.2422511413286975</v>
       </c>
       <c r="I22" t="n">
-        <v>0.274424175542912</v>
+        <v>0.4026073879756887</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3397015967040615</v>
+        <v>0.4921901475331434</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7034165212439074</v>
+        <v>0.3514660042872833</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1414379853898698</v>
+        <v>0.1383159069891821</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2815655583674764</v>
+        <v>0.2640127132019592</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3760824183471887</v>
+        <v>0.3719084658745779</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6364887356758118</v>
+        <v>0.6297125816345215</v>
       </c>
     </row>
     <row r="23">
@@ -1547,40 +1547,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.004373227202740224</v>
+        <v>0.004045495886760786</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05204896684161892</v>
+        <v>0.05377326516325643</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06613038033113242</v>
+        <v>0.06360421280670633</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6927872669294468</v>
+        <v>0.8472601362263116</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01555425007402739</v>
+        <v>0.02724740842861272</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07801725763380736</v>
+        <v>0.1106567121914622</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1247166792134372</v>
+        <v>0.1650678903621559</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.09266302768597701</v>
+        <v>-0.0287404975968637</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01278242245756462</v>
+        <v>0.001350560301206483</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06496902610093407</v>
+        <v>0.0317413070966715</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1130593758056563</v>
+        <v>0.03674997008442977</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1020537614822388</v>
+        <v>0.9490088820457458</v>
       </c>
     </row>
     <row r="24">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.001854802716631324</v>
+        <v>0.001757802534569619</v>
       </c>
       <c r="E24" t="n">
-        <v>0.035101513249975</v>
+        <v>0.03154851780068371</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04306742059412571</v>
+        <v>0.04192615573326058</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9974311978855336</v>
+        <v>0.9975176707261229</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06193211565256624</v>
+        <v>0.05221815967982324</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2253438061232866</v>
+        <v>0.1922440085403624</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2488616395762236</v>
+        <v>0.2285129310998028</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9142273470837751</v>
+        <v>0.9262586872802799</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02342547793202248</v>
+        <v>0.05090410928793263</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09784086604681143</v>
+        <v>0.1389478213163913</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1530538399780367</v>
+        <v>0.2256193903190341</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9675569534301758</v>
+        <v>0.9281143546104431</v>
       </c>
     </row>
     <row r="25">
@@ -1645,40 +1645,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.01555478819519451</v>
+        <v>0.02923823723779058</v>
       </c>
       <c r="E25" t="n">
-        <v>0.105660998686683</v>
+        <v>0.1328053719512539</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1247188365692789</v>
+        <v>0.1709919215571033</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2274849320394212</v>
+        <v>-0.2062590499345354</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01969228317269722</v>
+        <v>0.02424355574057463</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1098446218247442</v>
+        <v>0.1152373811070529</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1403291957245434</v>
+        <v>0.1557034223791328</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.5539897148459378</v>
+        <v>-0.0001973879896721709</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01239084711344371</v>
+        <v>0.03159912657596118</v>
       </c>
       <c r="M25" t="n">
-        <v>0.08424538055114059</v>
+        <v>0.1225504687732028</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1113141819960229</v>
+        <v>0.1777614316322896</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02219325304031372</v>
+        <v>-0.3036603927612305</v>
       </c>
     </row>
     <row r="26">
@@ -1694,40 +1694,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3195643287885532</v>
+        <v>0.4559696171837881</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4578149394225294</v>
+        <v>0.569474118752428</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5653002112051199</v>
+        <v>0.6752552237367647</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4589252886324564</v>
+        <v>0.6732384518572316</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2916746341353434</v>
+        <v>0.5929771305104686</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4167293888804132</v>
+        <v>0.6296820373734392</v>
       </c>
       <c r="J26" t="n">
-        <v>0.540069101259592</v>
+        <v>0.7700500831182792</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5061471063547947</v>
+        <v>0.575054745148168</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3513190991136261</v>
+        <v>0.3214254655271833</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4403136764163651</v>
+        <v>0.4258095937243618</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5927217720934723</v>
+        <v>0.5669439703596673</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4051591753959656</v>
+        <v>0.7696568369865417</v>
       </c>
     </row>
     <row r="27">
@@ -1743,40 +1743,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.005018018363539069</v>
+        <v>0.003957904505204756</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06102629071963209</v>
+        <v>0.05340149719776402</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07083797261031027</v>
+        <v>0.06291187888789172</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7833209686601464</v>
+        <v>0.753842957133287</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02356414930728618</v>
+        <v>0.0162259355773849</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1256495888329623</v>
+        <v>0.09594762616959922</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1535061865440158</v>
+        <v>0.1273810644381059</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01750465549301627</v>
+        <v>-0.009152270910646187</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004385203528940259</v>
+        <v>0.002841257076094878</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05366766426138134</v>
+        <v>0.041172742765832</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06622086928559802</v>
+        <v>0.0533034433793435</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8106460571289062</v>
+        <v>0.8232914805412292</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.001044213429525036</v>
+        <v>0.001057316472457117</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02581904054744272</v>
+        <v>0.02686782169486334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03231429141301161</v>
+        <v>0.03251640312914571</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9973483653426829</v>
+        <v>0.997660076890639</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04438422803088863</v>
+        <v>0.04507527683099306</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1670534648480773</v>
+        <v>0.182347834390661</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2106756465063977</v>
+        <v>0.2123093894084599</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8872924308792857</v>
+        <v>0.9002449269776557</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08056537617731406</v>
+        <v>0.04846029850528156</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1885603447559872</v>
+        <v>0.1565325401198107</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2838404061745157</v>
+        <v>0.2201369994010129</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7954154014587402</v>
+        <v>0.8927536010742188</v>
       </c>
     </row>
     <row r="29">
@@ -1841,40 +1841,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01109159176097677</v>
+        <v>0.007041784260906354</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08056757956975472</v>
+        <v>0.07333182169862769</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1053166262324082</v>
+        <v>0.08391533984264352</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1415510755117158</v>
+        <v>0.3580888041617015</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01313986122626663</v>
+        <v>0.01179485247076973</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09382304484468294</v>
+        <v>0.08732516252312023</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1146292337332263</v>
+        <v>0.1086041089037138</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01697754305199384</v>
+        <v>-0.07518884045925156</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00631660876301484</v>
+        <v>0.001827527946881571</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0492945755427033</v>
+        <v>0.03234817254755906</v>
       </c>
       <c r="N29" t="n">
-        <v>0.07947709583908336</v>
+        <v>0.04274959586804969</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5111174583435059</v>
+        <v>0.8334072232246399</v>
       </c>
     </row>
     <row r="30">
@@ -1890,40 +1890,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.832658549455508</v>
+        <v>0.6686889225642617</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7262052326885278</v>
+        <v>0.6347722870205704</v>
       </c>
       <c r="F30" t="n">
-        <v>0.912501259974751</v>
+        <v>0.817734017003244</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5612395396435805</v>
+        <v>0.2865416569200409</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8772684280991829</v>
+        <v>0.6532429966882053</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7754930159832796</v>
+        <v>0.654841036758175</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9366260876674228</v>
+        <v>0.808234493626822</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5377328442485207</v>
+        <v>0.3030217036368428</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3676113778091363</v>
+        <v>0.3688393544903598</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4267047729498948</v>
+        <v>0.4846572428191463</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6063096385586627</v>
+        <v>0.6073214589411111</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8062911629676819</v>
+        <v>0.6064664125442505</v>
       </c>
     </row>
     <row r="31">
@@ -1939,40 +1939,40 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.002186355805822923</v>
+        <v>0.00448230309960853</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03309639550399803</v>
+        <v>0.05161293381502308</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04675848378447405</v>
+        <v>0.06695000447803219</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8485971253109672</v>
+        <v>0.7703758929775296</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01486700795836427</v>
+        <v>0.02146936003581485</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08530328893667043</v>
+        <v>0.1167569551839903</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1219303405980819</v>
+        <v>0.146524264324428</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0295249002592517</v>
+        <v>-0.09985481057683443</v>
       </c>
       <c r="L31" t="n">
-        <v>0.002141878007760264</v>
+        <v>0.001884760034235398</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03446386069841128</v>
+        <v>0.03030605309562056</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04628042791245845</v>
+        <v>0.04341382307785618</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8516771793365479</v>
+        <v>0.9034455418586731</v>
       </c>
     </row>
     <row r="32">
@@ -1988,40 +1988,40 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.000765957640933275</v>
+        <v>0.0007724718463614438</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02374840232493974</v>
+        <v>0.0232247404560631</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02767593974797017</v>
+        <v>0.02779337774293444</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9988698022339134</v>
+        <v>0.9986132473096471</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07212380487556858</v>
+        <v>0.04745822734554625</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2271692704551794</v>
+        <v>0.1663090244349433</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2685587549784378</v>
+        <v>0.2178490930565153</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8935787584118746</v>
+        <v>0.9148023002251633</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04645076102102566</v>
+        <v>0.04544835548571528</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1841053834682729</v>
+        <v>0.1764448401535373</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2155243861400043</v>
+        <v>0.2131861990976791</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9314602613449097</v>
+        <v>0.9184104204177856</v>
       </c>
     </row>
     <row r="33">
@@ -2037,40 +2037,40 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.03901760743414972</v>
+        <v>0.02310408504492362</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1261890858050196</v>
+        <v>0.09620908916611186</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1975287509051523</v>
+        <v>0.1520002797527808</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1418006606443712</v>
+        <v>0.5548631915299451</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06079689825624359</v>
+        <v>0.05230485973107766</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1839665700252367</v>
+        <v>0.1711298941991647</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2465702704225382</v>
+        <v>0.2287025573339259</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.3372387839627833</v>
+        <v>-0.007736003520358192</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00715709748204014</v>
+        <v>0.00570640881725685</v>
       </c>
       <c r="M33" t="n">
-        <v>0.05974824610299359</v>
+        <v>0.05036755679590481</v>
       </c>
       <c r="N33" t="n">
-        <v>0.08459963050770458</v>
+        <v>0.07554077585818701</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8425783514976501</v>
+        <v>0.8900569677352905</v>
       </c>
     </row>
     <row r="34">
@@ -2086,40 +2086,40 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.6388088867062414</v>
+        <v>0.5164077161215591</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5867965396230829</v>
+        <v>0.5677005575240808</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7992552074939777</v>
+        <v>0.7186151376930207</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2930208854482101</v>
+        <v>0.4947203548809203</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6394502446936494</v>
+        <v>0.5127662745294655</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5774774427540644</v>
+        <v>0.5626034431466544</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7996563291149826</v>
+        <v>0.7160770032122702</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2923110852067227</v>
+        <v>0.4982833270401933</v>
       </c>
       <c r="L34" t="n">
-        <v>0.394025112187508</v>
+        <v>0.7728556004679457</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3866160243084364</v>
+        <v>0.5484235312697382</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6277141962609322</v>
+        <v>0.8791220623257874</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5639265775680542</v>
+        <v>0.2437986731529236</v>
       </c>
     </row>
     <row r="35">
@@ -2135,40 +2135,40 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.003474426317702364</v>
+        <v>0.002622605301259704</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04888115686762426</v>
+        <v>0.04092349144795416</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05894426450217496</v>
+        <v>0.05121137863072722</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8128733254504243</v>
+        <v>0.8332113926007012</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01877759173436959</v>
+        <v>0.01577322684430197</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1076819838718311</v>
+        <v>0.08898660464406534</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1370313531071251</v>
+        <v>0.1255915078510564</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01132905867056788</v>
+        <v>-0.003122558431009503</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00133925332446332</v>
+        <v>0.001801180318263547</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02805190241597318</v>
+        <v>0.02877138519473576</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03659581020367386</v>
+        <v>0.0424403147757359</v>
       </c>
       <c r="O35" t="n">
-        <v>0.9278700947761536</v>
+        <v>0.8854511976242065</v>
       </c>
     </row>
     <row r="36">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.000669258240155456</v>
+        <v>0.0005230763346134705</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02052764807305006</v>
+        <v>0.0185617948582474</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02587002590171598</v>
+        <v>0.02287086213096198</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9985476059690191</v>
+        <v>0.9987490684339811</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0401782374987799</v>
+        <v>0.03235643858505452</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1688704647648258</v>
+        <v>0.1530943425489072</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2004450984653401</v>
+        <v>0.1798789553701447</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9128070021147511</v>
+        <v>0.9226199166133103</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02414294278157964</v>
+        <v>0.02919752859987454</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1006293969300026</v>
+        <v>0.1200585543127286</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1553799947920569</v>
+        <v>0.1708728433656868</v>
       </c>
       <c r="O36" t="n">
-        <v>0.947606086730957</v>
+        <v>0.9301744103431702</v>
       </c>
     </row>
     <row r="37">
@@ -2233,40 +2233,40 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.02014439612394476</v>
+        <v>0.02192975074560543</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09774130716369811</v>
+        <v>0.1011512649134187</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1419309554816875</v>
+        <v>0.148086970208744</v>
       </c>
       <c r="G37" t="n">
-        <v>0.399054568472045</v>
+        <v>0.04827290392407302</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03382688832717136</v>
+        <v>0.02645473142221228</v>
       </c>
       <c r="I37" t="n">
-        <v>0.118289823673504</v>
+        <v>0.1135208686564259</v>
       </c>
       <c r="J37" t="n">
-        <v>0.183920875180528</v>
+        <v>0.1626491051995438</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.009120048967703021</v>
+        <v>-0.1481062874814527</v>
       </c>
       <c r="L37" t="n">
-        <v>0.003464085566808835</v>
+        <v>0.0178364949086625</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04578137833039116</v>
+        <v>0.06892643470009406</v>
       </c>
       <c r="N37" t="n">
-        <v>0.05885648279339189</v>
+        <v>0.1335533410613995</v>
       </c>
       <c r="O37" t="n">
-        <v>0.896659791469574</v>
+        <v>0.2259156703948975</v>
       </c>
     </row>
     <row r="38">
@@ -2282,40 +2282,40 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9059895495960081</v>
+        <v>0.5965136513554214</v>
       </c>
       <c r="E38" t="n">
-        <v>0.74797998193412</v>
+        <v>0.5978676290069952</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9518348331491173</v>
+        <v>0.7723429622618577</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1461174751559978</v>
+        <v>0.5243985117780976</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8177918742492369</v>
+        <v>0.519128514025783</v>
       </c>
       <c r="I38" t="n">
-        <v>0.698582657768485</v>
+        <v>0.5806624878350933</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9043184584255908</v>
+        <v>0.7205057349013837</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2292425550689553</v>
+        <v>0.5860978314778291</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2165268416420731</v>
+        <v>0.7903515472894946</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2923683442922873</v>
+        <v>0.5804552412993635</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4653244477158632</v>
+        <v>0.8890171805367401</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7959264516830444</v>
+        <v>0.3698512315750122</v>
       </c>
     </row>
     <row r="39">
@@ -2331,40 +2331,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.001925821614072627</v>
+        <v>0.002012508129822116</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03255514078580071</v>
+        <v>0.03467764878459491</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04388418409942957</v>
+        <v>0.04486098672367914</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8258423323817075</v>
+        <v>0.837238028306199</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01177264054479235</v>
+        <v>0.01265113442046129</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08446506524118963</v>
+        <v>0.08820741322564774</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1085017997306604</v>
+        <v>0.1124772617930455</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0646342340367243</v>
+        <v>-0.02316286425118541</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00149985595052648</v>
+        <v>0.0008637399855774239</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02756412555886329</v>
+        <v>0.02151440724060894</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03872797374671803</v>
+        <v>0.02938945364543927</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8643636703491211</v>
+        <v>0.9301448464393616</v>
       </c>
     </row>
     <row r="40">
@@ -2380,40 +2380,40 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0002769342486655212</v>
+        <v>0.0003440976388951087</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01467311787337769</v>
+        <v>0.01548393237850364</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01664134155245667</v>
+        <v>0.01854986897245122</v>
       </c>
       <c r="G40" t="n">
-        <v>0.99962996888853</v>
+        <v>0.9992750675155743</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04544001886638909</v>
+        <v>0.04403243936476726</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1856963297566422</v>
+        <v>0.167021758110542</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2131666457642684</v>
+        <v>0.2098390796890972</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9392844302668376</v>
+        <v>0.907234046224429</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01785329936866987</v>
+        <v>0.01423162197009905</v>
       </c>
       <c r="M40" t="n">
-        <v>0.103661305931422</v>
+        <v>0.1017968354037412</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1336162391652671</v>
+        <v>0.1192963619315319</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9761449694633484</v>
+        <v>0.9700173139572144</v>
       </c>
     </row>
     <row r="41">
@@ -2429,40 +2429,40 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0126087632749835</v>
+        <v>0.01601155797230702</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07581562970819902</v>
+        <v>0.08658983243326993</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1122887495476884</v>
+        <v>0.1265367850559948</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4443433354787923</v>
+        <v>0.5800057218756122</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02286631414859804</v>
+        <v>0.03822271172994791</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1080854117810956</v>
+        <v>0.1415902658596849</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1512161173572382</v>
+        <v>0.1955062958831452</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.007697549125468051</v>
+        <v>-0.002608256407106158</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001663897064171263</v>
+        <v>0.004839451466985829</v>
       </c>
       <c r="M41" t="n">
-        <v>0.03237490286564458</v>
+        <v>0.05126353132549809</v>
       </c>
       <c r="N41" t="n">
-        <v>0.04079089437817297</v>
+        <v>0.06956616610814362</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9266735911369324</v>
+        <v>0.8730578422546387</v>
       </c>
     </row>
     <row r="42">
@@ -2478,40 +2478,40 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.7061105183930579</v>
+        <v>0.4789716903139734</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6993362107004828</v>
+        <v>0.5888659943559414</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8403038250496412</v>
+        <v>0.6920778065463257</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3156514188098469</v>
+        <v>0.5145348216650487</v>
       </c>
       <c r="H42" t="n">
-        <v>0.604765674436241</v>
+        <v>0.4554502987565124</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6488250491824449</v>
+        <v>0.5522836389832287</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7776668145396465</v>
+        <v>0.6748705792642856</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4138728705035866</v>
+        <v>0.5383750961072475</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3499133491736256</v>
+        <v>0.1108739080347428</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4104632973420995</v>
+        <v>0.2253098029283775</v>
       </c>
       <c r="N42" t="n">
-        <v>0.591534740462152</v>
+        <v>0.3329773386204274</v>
       </c>
       <c r="O42" t="n">
-        <v>0.6608707904815674</v>
+        <v>0.8876229524612427</v>
       </c>
     </row>
     <row r="43">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.002111559396038141</v>
+        <v>0.002264411591529583</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03773400935438408</v>
+        <v>0.03819303367926163</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0459517072157079</v>
+        <v>0.04758583393752371</v>
       </c>
       <c r="G43" t="n">
-        <v>0.886787351242555</v>
+        <v>0.858228720194856</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01927010667244974</v>
+        <v>0.01691076237581815</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1063870629177594</v>
+        <v>0.09467435428133768</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1388168097618215</v>
+        <v>0.1300413871650797</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.03317947026252765</v>
+        <v>-0.05875647054118893</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0009656754219895005</v>
+        <v>0.001148923063741677</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02354784871676438</v>
+        <v>0.02303210456935029</v>
       </c>
       <c r="N43" t="n">
-        <v>0.03107531853399898</v>
+        <v>0.0338957676375927</v>
       </c>
       <c r="O43" t="n">
-        <v>0.948224663734436</v>
+        <v>0.928067684173584</v>
       </c>
     </row>
     <row r="44">
@@ -2576,40 +2576,40 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0002102047117266611</v>
+        <v>0.0003738058125377804</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01193450352880612</v>
+        <v>0.01544660217590595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01449843825129662</v>
+        <v>0.01933405835663533</v>
       </c>
       <c r="G44" t="n">
-        <v>0.999620284187859</v>
+        <v>0.9991658522978357</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04154659246863784</v>
+        <v>0.0394679185766557</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1715233340432869</v>
+        <v>0.1595472010562777</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2038298125119038</v>
+        <v>0.1986653431695013</v>
       </c>
       <c r="K44" t="n">
-        <v>0.924949835941663</v>
+        <v>0.9119273363717537</v>
       </c>
       <c r="L44" t="n">
-        <v>0.01403300557884024</v>
+        <v>0.02015387148647814</v>
       </c>
       <c r="M44" t="n">
-        <v>0.08866232298713314</v>
+        <v>0.1005303189704975</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1184609875817361</v>
+        <v>0.1419643317403289</v>
       </c>
       <c r="O44" t="n">
-        <v>0.9746506214141846</v>
+        <v>0.9550266265869141</v>
       </c>
     </row>
     <row r="45">
@@ -2625,40 +2625,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.02275414055213713</v>
+        <v>0.02065675230964634</v>
       </c>
       <c r="E45" t="n">
-        <v>0.106105084658553</v>
+        <v>0.1033616040181095</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1508447564621891</v>
+        <v>0.1437245710017822</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1764891642506641</v>
+        <v>0.4620575537888445</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02921290924591677</v>
+        <v>0.03842629756071158</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1193526845436833</v>
+        <v>0.1402750222519098</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1709178435562442</v>
+        <v>0.1960262675273688</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.05726459993739064</v>
+        <v>-0.0006963436838947068</v>
       </c>
       <c r="L45" t="n">
-        <v>0.004541248621725392</v>
+        <v>0.02070978425091728</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04303387353877242</v>
+        <v>0.08197344989246676</v>
       </c>
       <c r="N45" t="n">
-        <v>0.06738878706228056</v>
+        <v>0.1439089443047835</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8356444835662842</v>
+        <v>0.4606764912605286</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,72 +436,92 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>features</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ridge-mse</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ridge-mae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ridge-rmse</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ridge-r2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost-mse</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost-mae</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost-rmse</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost-r2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>lasso-mse</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>lasso-mae</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>lasso-rmse</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>lasso-r2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>num_datasets</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>features</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ridge-mse</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ridge-mae</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ridge-rmse</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ridge-r2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-mse</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-mae</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-rmse</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-r2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost-mse</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost-mae</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost-rmse</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>xgboost-r2</t>
         </is>
       </c>
     </row>
@@ -509,2156 +529,1952 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>0.24</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.5004672030395804</v>
+        <v>0.41</v>
       </c>
       <c r="E2" t="n">
-        <v>0.655017323879682</v>
+        <v>0.49</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7074370664868928</v>
+        <v>0.47</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.450225462389918</v>
+        <v>0.32</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6212613447926855</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6854564761321381</v>
+        <v>0.57</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7882013351883422</v>
+        <v>0.28</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.8002558720030644</v>
+        <v>1.27</v>
       </c>
       <c r="L2" t="n">
-        <v>1.855655066861781</v>
+        <v>0.71</v>
       </c>
       <c r="M2" t="n">
-        <v>1.087842027382092</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.362224308571016</v>
+        <v>-1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>-4.377211093902588</v>
+        <v>0.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.006227149304202807</v>
+        <v>0.06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0708648497883891</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07891228867675051</v>
+        <v>0.48</v>
       </c>
       <c r="G3" t="n">
-        <v>0.367150685148914</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01718509987575444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09450129380915745</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1310919519869715</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.7464779067812897</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01575391048673154</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08573401885374336</v>
+        <v>0.09</v>
       </c>
       <c r="N3" t="n">
-        <v>0.125514582765237</v>
+        <v>0.1</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6010297536849976</v>
+        <v>0.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" t="n">
-        <v>0.108725874061177</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3147794640067421</v>
+        <v>0.05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3297360672737772</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7001323406322146</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05456158750541148</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2114935484906646</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2335842192987606</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.849518289202878</v>
+        <v>0.06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8683792175130973</v>
+        <v>0.19</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7626239402097124</v>
+        <v>0.24</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9318686696703014</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.3950035572052</v>
+        <v>0.03</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D5" t="n">
-        <v>0.03437369033708431</v>
+        <v>0.09</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1437740953326427</v>
+        <v>0.12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1854014302455197</v>
+        <v>-0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1781481025366212</v>
+        <v>0.22</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03873399314458972</v>
+        <v>0.27</v>
       </c>
       <c r="I5" t="n">
-        <v>0.134993682663795</v>
+        <v>0.46</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1968095351973316</v>
+        <v>-15.32</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3275961957954769</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09630859012122013</v>
+        <v>0.04</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3080740822350787</v>
+        <v>0.05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3103362533144011</v>
+        <v>0.78</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.300948619842529</v>
+        <v>0.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="D6" t="n">
-        <v>0.2705069929445773</v>
+        <v>0.61</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4591648936229957</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5201028676565601</v>
+        <v>0.33</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.9217433321590307</v>
+        <v>0.51</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2106763660103125</v>
+        <v>0.58</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4317417448340167</v>
+        <v>0.72</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4589949520531926</v>
+        <v>0.39</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4966929217492149</v>
+        <v>0.33</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8474366983621431</v>
+        <v>0.4</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7272804295365791</v>
+        <v>0.58</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9205632506037502</v>
+        <v>0.6</v>
       </c>
       <c r="O6" t="n">
-        <v>-5.020383358001709</v>
+        <v>0.55</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.007045504729505285</v>
+        <v>0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06065316923793411</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08393750490397774</v>
+        <v>0.66</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6185859301761354</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009966841753696097</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07492639861856068</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09983407110649198</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.289713860139201</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01449465815955573</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0933517572940348</v>
+        <v>0.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0.120393762959531</v>
+        <v>0.73</v>
       </c>
       <c r="O7" t="n">
-        <v>-2.329903602600098</v>
+        <v>0.04</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" t="n">
-        <v>0.109954797446478</v>
+        <v>0.03</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3086276270462193</v>
+        <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3315943266198595</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>-22.64029882717228</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05632108251219972</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2118795841486256</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373206322935276</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-11.10904164055532</v>
+        <v>0.05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0170767711322957</v>
+        <v>0.18</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09421860690755679</v>
+        <v>0.21</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1306781203273742</v>
+        <v>0.95</v>
       </c>
       <c r="O8" t="n">
-        <v>-2.671508550643921</v>
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>0.04</v>
+      </c>
       <c r="D9" t="n">
-        <v>0.04878440552976774</v>
+        <v>0.14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1461980140743531</v>
+        <v>0.19</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2208719210985582</v>
+        <v>-0.43</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.596681361438056</v>
+        <v>0.11</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04327003896211305</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1737337744261331</v>
+        <v>0.34</v>
       </c>
       <c r="J9" t="n">
-        <v>0.208014516229308</v>
+        <v>-3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.303164350604979</v>
+        <v>0.04</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04741167698562367</v>
+        <v>0.14</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1964955335337114</v>
+        <v>0.19</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2177422260050257</v>
+        <v>-0.45</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.523614168167114</v>
+        <v>0.03</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>0.62</v>
+      </c>
       <c r="D10" t="n">
-        <v>0.1248571019563031</v>
+        <v>0.6</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3026335895630765</v>
+        <v>0.79</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3533512444527444</v>
+        <v>-0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8081299949353902</v>
+        <v>0.63</v>
       </c>
       <c r="H10" t="n">
-        <v>0.191789120839297</v>
+        <v>0.62</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3901918497398804</v>
+        <v>0.79</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4379373480753805</v>
+        <v>-0.61</v>
       </c>
       <c r="K10" t="n">
-        <v>0.705274437655524</v>
+        <v>0.31</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1164727891998197</v>
+        <v>0.35</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2091911297873081</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.341281099974522</v>
+        <v>0.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8210142850875854</v>
+        <v>0.68</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
-        <v>0.006191951333145251</v>
+        <v>0.05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0636612212516967</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07868895305660924</v>
+        <v>0.84</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5646057137863646</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01424711026276274</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08502983062454943</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1193612594720864</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001802189603390403</v>
+        <v>0.01</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002266313245438363</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04434703475416132</v>
+        <v>0.09</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0476058110469548</v>
+        <v>0.7</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8406414985656738</v>
+        <v>0.03</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" t="n">
-        <v>0.02050283071012743</v>
+        <v>0.02</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1258229379971528</v>
+        <v>0.03</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1431880955600969</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9565654480922972</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09482012633061483</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2989699536094659</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3079287682737922</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7991267763349525</v>
+        <v>0.02</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2164055334787675</v>
+        <v>0.11</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3082330905846966</v>
+        <v>0.16</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4651940815173464</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5415521860122681</v>
+        <v>0.01</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>0.03</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.03981011905452247</v>
+        <v>0.14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1807562745917607</v>
+        <v>0.17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1995247329393589</v>
+        <v>0.17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.375718131296999</v>
+        <v>5.69</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0651155819515153</v>
+        <v>0.72</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2295086188977344</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2551775498579671</v>
+        <v>-163.1</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.02110915887244591</v>
+        <v>0.05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05860868498468447</v>
+        <v>0.16</v>
       </c>
       <c r="M13" t="n">
-        <v>0.233570667367715</v>
+        <v>0.21</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2420923067441104</v>
+        <v>-0.31</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08092868328094482</v>
+        <v>0.04</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>0.37</v>
+      </c>
       <c r="D14" t="n">
-        <v>0.1515564009084558</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3562671335462458</v>
+        <v>0.61</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3893024542800312</v>
+        <v>0.51</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6924470045319727</v>
+        <v>0.26</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1537016520080011</v>
+        <v>0.43</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3167051872283381</v>
+        <v>0.51</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3920480225788687</v>
+        <v>0.66</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6880936522635011</v>
+        <v>0.14</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07648846530334265</v>
+        <v>0.27</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2144737760880783</v>
+        <v>0.38</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2765654810408245</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8447821736335754</v>
+        <v>0.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0.001666309692539682</v>
+        <v>0.04</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03196039287016694</v>
+        <v>0.04</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04082045678994397</v>
+        <v>0.9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2792578705147221</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00284747756617665</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03495083678711057</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05336176127318747</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2316420254266995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001130098101595532</v>
+        <v>0.02</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02332662383982195</v>
+        <v>0.03</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03361693176950466</v>
+        <v>0.95</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5111896991729736</v>
+        <v>0.02</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" t="n">
-        <v>0.008604788580370993</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08345062126003097</v>
+        <v>0.02</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09276199965703086</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9831692645384414</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03033361840089145</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1456176432217988</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1741654914180517</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9406682567353377</v>
+        <v>0.06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03878703646765648</v>
+        <v>0.17</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1546140205291576</v>
+        <v>0.25</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1969442471047491</v>
+        <v>0.82</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9241335988044739</v>
+        <v>0.02</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D17" t="n">
-        <v>0.0137472200459553</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1091451450114814</v>
+        <v>0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1172485396325059</v>
+        <v>0.44</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03711010997270736</v>
+        <v>0.01</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02077979799406459</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1097651645404533</v>
+        <v>0.08</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1441519961501213</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.5676579345346027</v>
+        <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01109025227348949</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07987998805642989</v>
+        <v>0.09</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1053102667050535</v>
+        <v>0.48</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1633355021476746</v>
+        <v>0.02</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D18" t="n">
-        <v>0.2347261254432373</v>
+        <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4415379818124802</v>
+        <v>0.71</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4844854233547561</v>
+        <v>0.73</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6772760254173845</v>
+        <v>0.51</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2597830828668125</v>
+        <v>0.6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4558512581159118</v>
+        <v>0.71</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5096892022270164</v>
+        <v>0.72</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6428253187676083</v>
+        <v>0.48</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1507993378041303</v>
+        <v>0.55</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3125605204263329</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3883289041574555</v>
+        <v>0.74</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7926666140556335</v>
+        <v>0.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0.008665613449481245</v>
+        <v>0.04</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07989824078390551</v>
+        <v>0.05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09308927676956806</v>
+        <v>0.88</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6653839255284806</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02674017755698558</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1176317786157222</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1635242414964386</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.03255162452758409</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004704137110055057</v>
+        <v>0.04</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04732925534288821</v>
+        <v>0.05</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06858671234324515</v>
+        <v>0.9</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8183533549308777</v>
+        <v>0.02</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" t="n">
-        <v>0.005041002588599836</v>
+        <v>0.01</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06109083067978623</v>
+        <v>0.02</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07100001822957397</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.986965081089732</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05150001890813512</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1949878035895025</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2269361560177997</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8668323297704817</v>
+        <v>0.03</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02032069013285968</v>
+        <v>0.14</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1048089385162869</v>
+        <v>0.16</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1425506581284691</v>
+        <v>0.97</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9474551677703857</v>
+        <v>0.02</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D21" t="n">
-        <v>0.01674897189034995</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.114611693316944</v>
+        <v>0.09</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1294178190603981</v>
+        <v>0.55</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2987704129112863</v>
+        <v>0.01</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0167413065314307</v>
+        <v>0.06</v>
       </c>
       <c r="I21" t="n">
-        <v>0.10161959244478</v>
+        <v>0.08</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1293882008972638</v>
+        <v>0.68</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2981760157486519</v>
+        <v>0.01</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02074673203123334</v>
+        <v>0.05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09341211043630855</v>
+        <v>0.08</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1440372591770384</v>
+        <v>0.66</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.6087696552276611</v>
+        <v>0.02</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B22" t="n">
-        <v>8</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>0.65</v>
+      </c>
       <c r="D22" t="n">
-        <v>0.2791474841558773</v>
+        <v>0.63</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4384444693582881</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5283440963575511</v>
+        <v>0.55</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2526902771239186</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2422511413286975</v>
+        <v>0.64</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4026073879756887</v>
+        <v>0.83</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4921901475331434</v>
+        <v>0.52</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3514660042872833</v>
+        <v>0.39</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1383159069891821</v>
+        <v>0.44</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2640127132019592</v>
+        <v>0.63</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3719084658745779</v>
+        <v>0.73</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6297125816345215</v>
+        <v>0.63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B23" t="n">
-        <v>8</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" t="n">
-        <v>0.004045495886760786</v>
+        <v>0.03</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05377326516325643</v>
+        <v>0.04</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06360421280670633</v>
+        <v>0.86</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8472601362263116</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02724740842861272</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1106567121914622</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1650678903621559</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0287404975968637</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001350560301206483</v>
+        <v>0.05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0317413070966715</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03674997008442977</v>
+        <v>0.63</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9490088820457458</v>
+        <v>0.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
       <c r="D24" t="n">
-        <v>0.001757802534569619</v>
+        <v>0.01</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03154851780068371</v>
+        <v>0.01</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04192615573326058</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9975176707261229</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05221815967982324</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1922440085403624</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2285129310998028</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9262586872802799</v>
+        <v>0.02</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05090410928793263</v>
+        <v>0.12</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1389478213163913</v>
+        <v>0.15</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2256193903190341</v>
+        <v>0.97</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9281143546104431</v>
+        <v>0.02</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D25" t="n">
-        <v>0.02923823723779058</v>
+        <v>0.09</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1328053719512539</v>
+        <v>0.12</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1709919215571033</v>
+        <v>0.36</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2062590499345354</v>
+        <v>0.02</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02424355574057463</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1152373811070529</v>
+        <v>0.13</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1557034223791328</v>
+        <v>0.19</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0001973879896721709</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03159912657596118</v>
+        <v>0.05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1225504687732028</v>
+        <v>0.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1777614316322896</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.3036603927612305</v>
+        <v>0.02</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B26" t="n">
-        <v>9</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>0.93</v>
+      </c>
       <c r="D26" t="n">
-        <v>0.4559696171837881</v>
+        <v>0.79</v>
       </c>
       <c r="E26" t="n">
-        <v>0.569474118752428</v>
+        <v>0.96</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6752552237367647</v>
+        <v>0.31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6732384518572316</v>
+        <v>0.97</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5929771305104686</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6296820373734392</v>
+        <v>0.99</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7700500831182792</v>
+        <v>0.28</v>
       </c>
       <c r="K26" t="n">
-        <v>0.575054745148168</v>
+        <v>0.44</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3214254655271833</v>
+        <v>0.44</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4258095937243618</v>
+        <v>0.66</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5669439703596673</v>
+        <v>0.67</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7696568369865417</v>
+        <v>0.84</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S26" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B27" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="n">
-        <v>0.003957904505204756</v>
+        <v>0.02</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05340149719776402</v>
+        <v>0.04</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06291187888789172</v>
+        <v>0.93</v>
       </c>
       <c r="G27" t="n">
-        <v>0.753842957133287</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0162259355773849</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09594762616959922</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1273810644381059</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.009152270910646187</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002841257076094878</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="n">
-        <v>0.041172742765832</v>
+        <v>0.04</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0533034433793435</v>
+        <v>0.93</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8232914805412292</v>
+        <v>0.02</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" t="n">
-        <v>0.001057316472457117</v>
+        <v>0.01</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02686782169486334</v>
+        <v>0.01</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03251640312914571</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.997660076890639</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04507527683099306</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.182347834390661</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2123093894084599</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9002449269776557</v>
+        <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04846029850528156</v>
+        <v>0.09</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1565325401198107</v>
+        <v>0.11</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2201369994010129</v>
+        <v>0.98</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8927536010742188</v>
+        <v>0.02</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S28" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B29" t="n">
-        <v>9</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
       <c r="D29" t="n">
-        <v>0.007041784260906354</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07333182169862769</v>
+        <v>0.13</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08391533984264352</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3580888041617015</v>
+        <v>0.02</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01179485247076973</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08732516252312023</v>
+        <v>0.16</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1086041089037138</v>
+        <v>0.3</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.07518884045925156</v>
+        <v>0.01</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001827527946881571</v>
+        <v>0.06</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03234817254755906</v>
+        <v>0.09</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04274959586804969</v>
+        <v>0.75</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8334072232246399</v>
+        <v>0.04</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B30" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>0.64</v>
+      </c>
       <c r="D30" t="n">
-        <v>0.6686889225642617</v>
+        <v>0.68</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6347722870205704</v>
+        <v>0.8</v>
       </c>
       <c r="F30" t="n">
-        <v>0.817734017003244</v>
+        <v>0.51</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2865416569200409</v>
+        <v>0.71</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6532429966882053</v>
+        <v>0.72</v>
       </c>
       <c r="I30" t="n">
-        <v>0.654841036758175</v>
+        <v>0.84</v>
       </c>
       <c r="J30" t="n">
-        <v>0.808234493626822</v>
+        <v>0.46</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3030217036368428</v>
+        <v>0.31</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3688393544903598</v>
+        <v>0.41</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4846572428191463</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6073214589411111</v>
+        <v>0.76</v>
       </c>
       <c r="O30" t="n">
-        <v>0.6064664125442505</v>
+        <v>0.62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B31" t="n">
-        <v>10</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0.00448230309960853</v>
+        <v>0.02</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05161293381502308</v>
+        <v>0.03</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06695000447803219</v>
+        <v>0.96</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7703758929775296</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02146936003581485</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1167569551839903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.146524264324428</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.09985481057683443</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001884760034235398</v>
+        <v>0.03</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03030605309562056</v>
+        <v>0.04</v>
       </c>
       <c r="N31" t="n">
-        <v>0.04341382307785618</v>
+        <v>0.93</v>
       </c>
       <c r="O31" t="n">
-        <v>0.9034455418586731</v>
+        <v>0.02</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="n">
-        <v>10</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" t="n">
-        <v>0.0007724718463614438</v>
+        <v>0.01</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0232247404560631</v>
+        <v>0.01</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02779337774293444</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9986132473096471</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04745822734554625</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1663090244349433</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2178490930565153</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9148023002251633</v>
+        <v>0.03</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04544835548571528</v>
+        <v>0.13</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1764448401535373</v>
+        <v>0.17</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2131861990976791</v>
+        <v>0.96</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9184104204177856</v>
+        <v>0.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S32" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B33" t="n">
-        <v>10</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D33" t="n">
-        <v>0.02310408504492362</v>
+        <v>0.08</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09620908916611186</v>
+        <v>0.11</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1520002797527808</v>
+        <v>0.59</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5548631915299451</v>
+        <v>0.01</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05230485973107766</v>
+        <v>0.09</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1711298941991647</v>
+        <v>0.12</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2287025573339259</v>
+        <v>0.52</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.007736003520358192</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00570640881725685</v>
+        <v>0.05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.05036755679590481</v>
+        <v>0.06</v>
       </c>
       <c r="N33" t="n">
-        <v>0.07554077585818701</v>
+        <v>0.86</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8900569677352905</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>11</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5164077161215591</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5677005575240808</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7186151376930207</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4947203548809203</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.5127662745294655</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.5626034431466544</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7160770032122702</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.4982833270401933</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.7728556004679457</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.5484235312697382</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.8791220623257874</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.2437986731529236</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
-        <v>11</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0.002622605301259704</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.04092349144795416</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.05121137863072722</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.8332113926007012</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.01577322684430197</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.08898660464406534</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.1255915078510564</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-0.003122558431009503</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.001801180318263547</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.02877138519473576</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0424403147757359</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.8854511976242065</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>11</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0005230763346134705</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0185617948582474</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.02287086213096198</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9987490684339811</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.03235643858505452</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.1530943425489072</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.1798789553701447</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.9226199166133103</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.02919752859987454</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.1200585543127286</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.1708728433656868</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.9301744103431702</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" t="n">
-        <v>11</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0.02192975074560543</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.1011512649134187</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.148086970208744</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.04827290392407302</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.02645473142221228</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.1135208686564259</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.1626491051995438</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.1481062874814527</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.0178364949086625</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.06892643470009406</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.1335533410613995</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.2259156703948975</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5965136513554214</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5978676290069952</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.7723429622618577</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.5243985117780976</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.519128514025783</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.5806624878350933</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7205057349013837</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.5860978314778291</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.7903515472894946</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.5804552412993635</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.8890171805367401</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.3698512315750122</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0.002012508129822116</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.03467764878459491</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.04486098672367914</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.837238028306199</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.01265113442046129</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.08820741322564774</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.1124772617930455</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.02316286425118541</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0008637399855774239</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.02151440724060894</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.02938945364543927</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.9301448464393616</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" t="n">
-        <v>12</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0003440976388951087</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.01548393237850364</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.01854986897245122</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.9992750675155743</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.04403243936476726</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.167021758110542</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2098390796890972</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.907234046224429</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.01423162197009905</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.1017968354037412</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.1192963619315319</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.9700173139572144</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0.01601155797230702</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.08658983243326993</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1265367850559948</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.5800057218756122</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.03822271172994791</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.1415902658596849</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.1955062958831452</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-0.002608256407106158</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.004839451466985829</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.05126353132549809</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.06956616610814362</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.8730578422546387</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S33" t="n">
         <v>13</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.4789716903139734</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5888659943559414</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.6920778065463257</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.5145348216650487</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.4554502987565124</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.5522836389832287</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6748705792642856</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.5383750961072475</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.1108739080347428</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.2253098029283775</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.3329773386204274</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.8876229524612427</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="n">
-        <v>13</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0.002264411591529583</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.03819303367926163</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.04758583393752371</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.858228720194856</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.01691076237581815</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.09467435428133768</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.1300413871650797</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-0.05875647054118893</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.001148923063741677</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.02303210456935029</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.0338957676375927</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.928067684173584</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="n">
-        <v>13</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0.0003738058125377804</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.01544660217590595</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.01933405835663533</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.9991658522978357</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0394679185766557</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.1595472010562777</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1986653431695013</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.9119273363717537</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.02015387148647814</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.1005303189704975</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.1419643317403289</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.9550266265869141</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="n">
-        <v>13</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0.02065675230964634</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.1033616040181095</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.1437245710017822</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.4620575537888445</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.03842629756071158</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.1402750222519098</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.1960262675273688</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-0.0006963436838947068</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.02070978425091728</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.08197344989246676</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.1439089443047835</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.4606764912605286</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,85 +441,90 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>feature_selection</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ridge-mse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ridge-mae</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ridge-rmse</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ridge-r2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>mse</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>r2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>xgboost-mse</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>xgboost-mae</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>xgboost-rmse</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>xgboost-r2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>lasso-mse</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>lasso-mae</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>lasso-rmse</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>lasso-r2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>num_datasets</t>
         </is>
@@ -531,59 +536,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.24</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.49</v>
+        <v>0.057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.47</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="I2" t="n">
-        <v>0.57</v>
+        <v>0.061</v>
       </c>
       <c r="J2" t="n">
-        <v>0.28</v>
+        <v>0.074</v>
       </c>
       <c r="K2" t="n">
-        <v>1.27</v>
+        <v>-0.124</v>
       </c>
       <c r="L2" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.33</v>
+        <v>0.005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.38</v>
+        <v>0.057</v>
       </c>
       <c r="R2" t="n">
-        <v>0.68</v>
+        <v>0.068</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -592,181 +600,190 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.48</v>
+        <v>0.048</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.047</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09</v>
+        <v>0.035</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.01</v>
+        <v>0.047</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0.067</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06</v>
+        <v>-0.303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.17</v>
+        <v>0.004</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.18</v>
+        <v>0.054</v>
       </c>
       <c r="R4" t="n">
-        <v>0.96</v>
+        <v>0.067</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>-0.118</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.01</v>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12</v>
+        <v>0.032</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>0.947</v>
       </c>
       <c r="H5" t="n">
-        <v>0.27</v>
+        <v>0.002</v>
       </c>
       <c r="I5" t="n">
-        <v>0.46</v>
+        <v>0.031</v>
       </c>
       <c r="J5" t="n">
-        <v>-15.32</v>
+        <v>0.04</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.948</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.04</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.01</v>
-      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>0.947</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -775,59 +792,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5600000000000001</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.61</v>
+        <v>0.003</v>
       </c>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>0.037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.51</v>
+        <v>-0.6909999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.58</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.72</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.39</v>
+        <v>0.096</v>
       </c>
       <c r="K6" t="n">
-        <v>0.33</v>
+        <v>-5.167</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.63</v>
+        <v>0.002</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.74</v>
+        <v>0.038</v>
       </c>
       <c r="R6" t="n">
-        <v>0.34</v>
+        <v>0.049</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>-0.627</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -836,181 +856,190 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01</v>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.003</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.042</v>
       </c>
       <c r="F7" t="n">
-        <v>0.66</v>
+        <v>0.053</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.879</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.054</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01</v>
+        <v>0.873</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.15</v>
+        <v>0.003</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.21</v>
+        <v>0.043</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.39</v>
+        <v>0.055</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>0.869</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.055</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.068</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.073</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05</v>
+        <v>-0.167</v>
       </c>
       <c r="L8" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.12</v>
+        <v>0.055</v>
       </c>
       <c r="R8" t="n">
-        <v>0.98</v>
+        <v>0.068</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>-0.004</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.04</v>
+      <c r="C9" t="b">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14</v>
+        <v>0.001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19</v>
+        <v>0.028</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.43</v>
+        <v>0.033</v>
       </c>
       <c r="G9" t="n">
-        <v>0.11</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.34</v>
+        <v>0.027</v>
       </c>
       <c r="J9" t="n">
-        <v>-3.55</v>
+        <v>0.032</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04</v>
+        <v>0.944</v>
       </c>
       <c r="L9" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.12</v>
+        <v>0.001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.16</v>
+        <v>0.028</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0.033</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1019,59 +1048,62 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.62</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.79</v>
+        <v>0.031</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6</v>
+        <v>0.042</v>
       </c>
       <c r="G10" t="n">
-        <v>0.63</v>
+        <v>0.342</v>
       </c>
       <c r="H10" t="n">
-        <v>0.62</v>
+        <v>0.002</v>
       </c>
       <c r="I10" t="n">
-        <v>0.79</v>
+        <v>0.035</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.61</v>
+        <v>0.044</v>
       </c>
       <c r="K10" t="n">
-        <v>0.31</v>
+        <v>0.266</v>
       </c>
       <c r="L10" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.64</v>
+        <v>0.002</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.82</v>
+        <v>0.032</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.74</v>
+        <v>0.042</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>0.337</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1080,180 +1112,189 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05</v>
+        <v>0.002</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.84</v>
+        <v>0.044</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.912</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.045</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01</v>
+        <v>0.907</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.15</v>
+        <v>0.002</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.18</v>
+        <v>0.033</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.13</v>
+        <v>0.044</v>
       </c>
       <c r="S11" t="n">
-        <v>8</v>
+        <v>0.909</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03</v>
+        <v>0.054</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.066</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.055</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="L12" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.09</v>
+        <v>0.004</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1</v>
+        <v>0.054</v>
       </c>
       <c r="R12" t="n">
-        <v>0.97</v>
+        <v>0.066</v>
       </c>
       <c r="S12" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="T12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.03</v>
+      <c r="C13" t="b">
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14</v>
+        <v>0.002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17</v>
+        <v>0.034</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>5.69</v>
+        <v>0.905</v>
       </c>
       <c r="H13" t="n">
-        <v>0.72</v>
+        <v>0.002</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>0.034</v>
       </c>
       <c r="J13" t="n">
-        <v>-163.1</v>
+        <v>0.041</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05</v>
+        <v>0.903</v>
       </c>
       <c r="L13" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.12</v>
+        <v>0.002</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.19</v>
+        <v>0.034</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.02</v>
+        <v>0.041</v>
       </c>
       <c r="S13" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="T13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1263,58 +1304,61 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.37</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.002</v>
       </c>
       <c r="E14" t="n">
-        <v>0.61</v>
+        <v>0.037</v>
       </c>
       <c r="F14" t="n">
-        <v>0.51</v>
+        <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.26</v>
+        <v>0.287</v>
       </c>
       <c r="H14" t="n">
-        <v>0.43</v>
+        <v>0.002</v>
       </c>
       <c r="I14" t="n">
-        <v>0.51</v>
+        <v>0.038</v>
       </c>
       <c r="J14" t="n">
-        <v>0.66</v>
+        <v>0.043</v>
       </c>
       <c r="K14" t="n">
-        <v>0.14</v>
+        <v>0.323</v>
       </c>
       <c r="L14" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.55</v>
+        <v>0.002</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.67</v>
+        <v>0.038</v>
       </c>
       <c r="R14" t="n">
-        <v>0.41</v>
+        <v>0.043</v>
       </c>
       <c r="S14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1324,181 +1368,190 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04</v>
+        <v>0.002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9</v>
+        <v>0.045</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.899</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.906</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.14</v>
+        <v>0.035</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.13</v>
+        <v>0.046</v>
       </c>
       <c r="S15" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="T15" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02</v>
+        <v>0.059</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.057</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06</v>
+        <v>0.572</v>
       </c>
       <c r="L16" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.12</v>
+        <v>0.004</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.14</v>
+        <v>0.055</v>
       </c>
       <c r="R16" t="n">
-        <v>0.95</v>
+        <v>0.064</v>
       </c>
       <c r="S16" t="n">
-        <v>9</v>
+        <v>0.46</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0.01</v>
+      <c r="C17" t="b">
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1</v>
+        <v>0.037</v>
       </c>
       <c r="F17" t="n">
-        <v>0.44</v>
+        <v>0.049</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01</v>
+        <v>0.922</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08</v>
+        <v>0.039</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01</v>
+        <v>0.919</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.13</v>
+        <v>0.038</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.02</v>
+        <v>0.049</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>0.922</v>
+      </c>
+      <c r="T17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1507,59 +1560,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="E18" t="n">
-        <v>0.71</v>
+        <v>0.04</v>
       </c>
       <c r="F18" t="n">
-        <v>0.73</v>
+        <v>0.049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.51</v>
+        <v>0.284</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="I18" t="n">
-        <v>0.71</v>
+        <v>0.038</v>
       </c>
       <c r="J18" t="n">
-        <v>0.72</v>
+        <v>0.044</v>
       </c>
       <c r="K18" t="n">
-        <v>0.48</v>
+        <v>0.405</v>
       </c>
       <c r="L18" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.59</v>
+        <v>0.002</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.71</v>
+        <v>0.037</v>
       </c>
       <c r="R18" t="n">
-        <v>0.73</v>
+        <v>0.045</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>0.385</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1568,181 +1624,190 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04</v>
+        <v>0.002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05</v>
+        <v>0.036</v>
       </c>
       <c r="F19" t="n">
-        <v>0.88</v>
+        <v>0.042</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.043</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.12</v>
+        <v>0.002</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.15</v>
+        <v>0.038</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06</v>
+        <v>0.043</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="T19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02</v>
+        <v>0.046</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.052</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.446</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.059</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03</v>
+        <v>0.301</v>
       </c>
       <c r="L20" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.12</v>
+        <v>0.003</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.14</v>
+        <v>0.048</v>
       </c>
       <c r="R20" t="n">
-        <v>0.98</v>
+        <v>0.056</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>0.372</v>
+      </c>
+      <c r="T20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0.01</v>
+      <c r="C21" t="b">
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="F21" t="n">
-        <v>0.55</v>
+        <v>0.037</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08</v>
+        <v>0.029</v>
       </c>
       <c r="J21" t="n">
-        <v>0.68</v>
+        <v>0.035</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01</v>
+        <v>0.944</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.14</v>
+        <v>0.029</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.05</v>
+        <v>0.037</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="T21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1751,59 +1816,62 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.65</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.63</v>
+        <v>0.004</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.051</v>
       </c>
       <c r="F22" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.327</v>
       </c>
       <c r="H22" t="n">
-        <v>0.64</v>
+        <v>0.003</v>
       </c>
       <c r="I22" t="n">
-        <v>0.83</v>
+        <v>0.047</v>
       </c>
       <c r="J22" t="n">
-        <v>0.52</v>
+        <v>0.057</v>
       </c>
       <c r="K22" t="n">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="L22" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6</v>
+        <v>0.003</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.79</v>
+        <v>0.05</v>
       </c>
       <c r="R22" t="n">
-        <v>0.57</v>
+        <v>0.059</v>
       </c>
       <c r="S22" t="n">
-        <v>11</v>
+        <v>0.361</v>
+      </c>
+      <c r="T22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1812,181 +1880,190 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03</v>
+        <v>0.002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.86</v>
+        <v>0.043</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.923</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.042</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.09</v>
+        <v>0.002</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.11</v>
+        <v>0.036</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02</v>
+        <v>0.043</v>
       </c>
       <c r="S23" t="n">
-        <v>11</v>
+        <v>0.922</v>
+      </c>
+      <c r="T23" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01</v>
+        <v>0.047</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.059</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.465</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.052</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02</v>
+        <v>0.576</v>
       </c>
       <c r="L24" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.12</v>
+        <v>0.003</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.13</v>
+        <v>0.047</v>
       </c>
       <c r="R24" t="n">
-        <v>0.97</v>
+        <v>0.056</v>
       </c>
       <c r="S24" t="n">
-        <v>11</v>
+        <v>0.512</v>
+      </c>
+      <c r="T24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>0.01</v>
+      <c r="C25" t="b">
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09</v>
+        <v>0.002</v>
       </c>
       <c r="E25" t="n">
-        <v>0.12</v>
+        <v>0.036</v>
       </c>
       <c r="F25" t="n">
-        <v>0.36</v>
+        <v>0.043</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02</v>
+        <v>0.919</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="I25" t="n">
-        <v>0.13</v>
+        <v>0.037</v>
       </c>
       <c r="J25" t="n">
-        <v>0.19</v>
+        <v>0.042</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.11</v>
+        <v>0.002</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.15</v>
+        <v>0.035</v>
       </c>
       <c r="R25" t="n">
-        <v>-0</v>
+        <v>0.042</v>
       </c>
       <c r="S25" t="n">
-        <v>11</v>
+        <v>0.924</v>
+      </c>
+      <c r="T25" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1995,59 +2072,62 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.93</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.79</v>
+        <v>0.005</v>
       </c>
       <c r="E26" t="n">
-        <v>0.96</v>
+        <v>0.062</v>
       </c>
       <c r="F26" t="n">
-        <v>0.31</v>
+        <v>0.073</v>
       </c>
       <c r="G26" t="n">
-        <v>0.97</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="I26" t="n">
-        <v>0.99</v>
+        <v>0.047</v>
       </c>
       <c r="J26" t="n">
-        <v>0.28</v>
+        <v>0.058</v>
       </c>
       <c r="K26" t="n">
-        <v>0.44</v>
+        <v>-0.054</v>
       </c>
       <c r="L26" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.72</v>
+        <v>0.005</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.92</v>
+        <v>0.058</v>
       </c>
       <c r="R26" t="n">
-        <v>0.38</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>12</v>
+        <v>-0.5649999999999999</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2056,181 +2136,190 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="F27" t="n">
-        <v>0.93</v>
+        <v>0.042</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.888</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.041</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.895</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.13</v>
+        <v>0.036</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.02</v>
+        <v>0.042</v>
       </c>
       <c r="S27" t="n">
-        <v>12</v>
+        <v>0.886</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01</v>
+        <v>0.056</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.066</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01</v>
+        <v>0.223</v>
       </c>
       <c r="L28" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.11</v>
+        <v>0.004</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.13</v>
+        <v>0.055</v>
       </c>
       <c r="R28" t="n">
-        <v>0.98</v>
+        <v>0.065</v>
       </c>
       <c r="S28" t="n">
-        <v>12</v>
+        <v>0.219</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0.02</v>
+      <c r="C29" t="b">
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.13</v>
+        <v>0.026</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.033</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.16</v>
+        <v>0.049</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3</v>
+        <v>0.093</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01</v>
+        <v>0.533</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.13</v>
+        <v>0.001</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.04</v>
+        <v>0.033</v>
       </c>
       <c r="S29" t="n">
-        <v>12</v>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2239,59 +2328,62 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.64</v>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.68</v>
+        <v>0.004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8</v>
+        <v>0.051</v>
       </c>
       <c r="F30" t="n">
-        <v>0.51</v>
+        <v>0.063</v>
       </c>
       <c r="G30" t="n">
-        <v>0.71</v>
+        <v>0.245</v>
       </c>
       <c r="H30" t="n">
-        <v>0.72</v>
+        <v>0.002</v>
       </c>
       <c r="I30" t="n">
-        <v>0.84</v>
+        <v>0.043</v>
       </c>
       <c r="J30" t="n">
-        <v>0.46</v>
+        <v>0.048</v>
       </c>
       <c r="K30" t="n">
-        <v>0.31</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.67</v>
+        <v>0.004</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.79</v>
+        <v>0.051</v>
       </c>
       <c r="R30" t="n">
-        <v>0.52</v>
+        <v>0.063</v>
       </c>
       <c r="S30" t="n">
-        <v>13</v>
+        <v>0.247</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2300,181 +2392,1214 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03</v>
+        <v>0.047</v>
       </c>
       <c r="F31" t="n">
-        <v>0.96</v>
+        <v>0.056</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.869</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0.382</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-5.072</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.12</v>
+        <v>0.003</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.15</v>
+        <v>0.047</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="S31" t="n">
-        <v>13</v>
+        <v>0.876</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01</v>
+        <v>0.055</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.066</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0.059</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03</v>
+        <v>0.352</v>
       </c>
       <c r="L32" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.09</v>
+        <v>0.004</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.11</v>
+        <v>0.055</v>
       </c>
       <c r="R32" t="n">
-        <v>0.99</v>
+        <v>0.066</v>
       </c>
       <c r="S32" t="n">
-        <v>13</v>
+        <v>0.195</v>
+      </c>
+      <c r="T32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0.01</v>
+      <c r="C33" t="b">
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08</v>
+        <v>0.001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.11</v>
+        <v>0.025</v>
       </c>
       <c r="F33" t="n">
-        <v>0.59</v>
+        <v>0.029</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01</v>
+        <v>0.958</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09</v>
+        <v>0.001</v>
       </c>
       <c r="I33" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="T37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="T38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="T39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="T40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="T41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="T42" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="T43" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="S44" t="n">
         <v>0.12</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="S33" t="n">
+      <c r="T44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="T45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="T46" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="T47" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="T48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="T49" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500.xlsx
@@ -546,49 +546,49 @@
         <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0.251</v>
       </c>
       <c r="H2" t="n">
         <v>0.005</v>
       </c>
       <c r="I2" t="n">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="J2" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.074</v>
       </c>
-      <c r="K2" t="n">
-        <v>-0.124</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.057</v>
+        <v>0.053</v>
       </c>
       <c r="R2" t="n">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03</v>
+        <v>0.289</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
@@ -607,52 +607,52 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.035</v>
+        <v>0.021</v>
       </c>
       <c r="F3" t="n">
-        <v>0.048</v>
+        <v>0.026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.947</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.036</v>
+        <v>0.022</v>
       </c>
       <c r="J3" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.047</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.035</v>
+        <v>0.021</v>
       </c>
       <c r="R3" t="n">
-        <v>0.047</v>
+        <v>0.026</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="T3" t="n">
         <v>3</v>
@@ -671,52 +671,52 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E4" t="n">
-        <v>0.052</v>
+        <v>0.062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.076</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.067</v>
+        <v>0.162</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06</v>
+        <v>0.068</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.303</v>
+        <v>0.051</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.089</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.141</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.054</v>
+        <v>0.064</v>
       </c>
       <c r="R4" t="n">
-        <v>0.067</v>
+        <v>0.079</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.118</v>
+        <v>0.115</v>
       </c>
       <c r="T4" t="n">
         <v>4</v>
@@ -735,52 +735,52 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.947</v>
+        <v>0.954</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.031</v>
+        <v>0.025</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K5" t="n">
-        <v>0.948</v>
+        <v>0.955</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.994</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.031</v>
+        <v>0.024</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04</v>
+        <v>0.029</v>
       </c>
       <c r="S5" t="n">
-        <v>0.947</v>
+        <v>0.957</v>
       </c>
       <c r="T5" t="n">
         <v>4</v>
@@ -799,52 +799,52 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037</v>
+        <v>0.06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6909999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="J6" t="n">
-        <v>0.096</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>-5.167</v>
+        <v>0.182</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.038</v>
+        <v>0.06</v>
       </c>
       <c r="R6" t="n">
-        <v>0.049</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.627</v>
+        <v>0.202</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -863,52 +863,52 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.042</v>
+        <v>0.034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.053</v>
+        <v>0.039</v>
       </c>
       <c r="G7" t="n">
-        <v>0.879</v>
+        <v>0.858</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.041</v>
+        <v>0.034</v>
       </c>
       <c r="J7" t="n">
-        <v>0.054</v>
+        <v>0.038</v>
       </c>
       <c r="K7" t="n">
-        <v>0.873</v>
+        <v>0.87</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="Q7" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.043</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.055</v>
-      </c>
       <c r="S7" t="n">
-        <v>0.869</v>
+        <v>0.835</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -927,52 +927,52 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="E8" t="n">
-        <v>0.055</v>
+        <v>0.064</v>
       </c>
       <c r="F8" t="n">
-        <v>0.068</v>
+        <v>0.076</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="J8" t="n">
-        <v>0.073</v>
+        <v>0.076</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.167</v>
+        <v>-0.097</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.195</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.055</v>
+        <v>0.064</v>
       </c>
       <c r="R8" t="n">
-        <v>0.068</v>
+        <v>0.075</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.004</v>
+        <v>-0.059</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1000,43 +1000,43 @@
         <v>0.033</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.954</v>
       </c>
       <c r="H9" t="n">
         <v>0.001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="J9" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="K9" t="n">
-        <v>0.944</v>
+        <v>0.954</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="P9" t="n">
         <v>0.001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="R9" t="n">
         <v>0.033</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1055,52 +1055,52 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="E10" t="n">
-        <v>0.031</v>
+        <v>0.056</v>
       </c>
       <c r="F10" t="n">
-        <v>0.042</v>
+        <v>0.068</v>
       </c>
       <c r="G10" t="n">
-        <v>0.342</v>
+        <v>0.405</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="I10" t="n">
-        <v>0.035</v>
+        <v>0.056</v>
       </c>
       <c r="J10" t="n">
-        <v>0.044</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.266</v>
+        <v>0.394</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.073</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.032</v>
+        <v>0.057</v>
       </c>
       <c r="R10" t="n">
-        <v>0.042</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>0.337</v>
+        <v>0.38</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1122,13 +1122,13 @@
         <v>0.002</v>
       </c>
       <c r="E11" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="F11" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.912</v>
+        <v>0.914</v>
       </c>
       <c r="H11" t="n">
         <v>0.002</v>
@@ -1140,31 +1140,31 @@
         <v>0.045</v>
       </c>
       <c r="K11" t="n">
-        <v>0.907</v>
+        <v>0.909</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.911</v>
       </c>
       <c r="P11" t="n">
         <v>0.002</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="R11" t="n">
         <v>0.044</v>
       </c>
       <c r="S11" t="n">
-        <v>0.909</v>
+        <v>0.911</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1183,52 +1183,52 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E12" t="n">
-        <v>0.054</v>
+        <v>0.059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.066</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.322</v>
+        <v>0.228</v>
       </c>
       <c r="H12" t="n">
         <v>0.005</v>
       </c>
       <c r="I12" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.26</v>
+        <v>0.183</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="P12" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.054</v>
+        <v>0.061</v>
       </c>
       <c r="R12" t="n">
-        <v>0.066</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S12" t="n">
-        <v>0.321</v>
+        <v>0.203</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1250,13 +1250,13 @@
         <v>0.002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="F13" t="n">
         <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.905</v>
+        <v>0.928</v>
       </c>
       <c r="H13" t="n">
         <v>0.002</v>
@@ -1265,34 +1265,34 @@
         <v>0.034</v>
       </c>
       <c r="J13" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="K13" t="n">
-        <v>0.903</v>
+        <v>0.928</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="P13" t="n">
         <v>0.002</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="R13" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="S13" t="n">
-        <v>0.899</v>
+        <v>0.929</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1311,52 +1311,52 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E14" t="n">
-        <v>0.037</v>
+        <v>0.046</v>
       </c>
       <c r="F14" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.045</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="R14" t="n">
-        <v>0.043</v>
+        <v>0.054</v>
       </c>
       <c r="S14" t="n">
-        <v>0.35</v>
+        <v>0.358</v>
       </c>
       <c r="T14" t="n">
         <v>9</v>
@@ -1378,49 +1378,49 @@
         <v>0.002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="F15" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="G15" t="n">
-        <v>0.899</v>
+        <v>0.717</v>
       </c>
       <c r="H15" t="n">
         <v>0.002</v>
       </c>
       <c r="I15" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="J15" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="K15" t="n">
-        <v>0.906</v>
+        <v>0.705</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.904</v>
       </c>
       <c r="P15" t="n">
         <v>0.002</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="R15" t="n">
-        <v>0.046</v>
+        <v>0.04</v>
       </c>
       <c r="S15" t="n">
-        <v>0.897</v>
+        <v>0.74</v>
       </c>
       <c r="T15" t="n">
         <v>9</v>
@@ -1439,52 +1439,52 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E16" t="n">
-        <v>0.059</v>
+        <v>0.051</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="G16" t="n">
-        <v>0.36</v>
+        <v>0.292</v>
       </c>
       <c r="H16" t="n">
         <v>0.003</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="J16" t="n">
-        <v>0.057</v>
+        <v>0.054</v>
       </c>
       <c r="K16" t="n">
-        <v>0.572</v>
+        <v>0.493</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="P16" t="n">
         <v>0.004</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.055</v>
+        <v>0.049</v>
       </c>
       <c r="R16" t="n">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="S16" t="n">
-        <v>0.46</v>
+        <v>0.371</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1503,52 +1503,52 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="F17" t="n">
-        <v>0.049</v>
+        <v>0.038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.922</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.039</v>
+        <v>0.03</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05</v>
+        <v>0.038</v>
       </c>
       <c r="K17" t="n">
-        <v>0.919</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="P17" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q17" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.038</v>
       </c>
-      <c r="R17" t="n">
-        <v>0.049</v>
-      </c>
       <c r="S17" t="n">
-        <v>0.922</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1570,49 +1570,49 @@
         <v>0.002</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="G18" t="n">
-        <v>0.284</v>
+        <v>0.45</v>
       </c>
       <c r="H18" t="n">
         <v>0.002</v>
       </c>
       <c r="I18" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="J18" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.044</v>
       </c>
-      <c r="K18" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.045</v>
-      </c>
       <c r="S18" t="n">
-        <v>0.385</v>
+        <v>0.542</v>
       </c>
       <c r="T18" t="n">
         <v>11</v>
@@ -1631,52 +1631,52 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E19" t="n">
-        <v>0.036</v>
+        <v>0.045</v>
       </c>
       <c r="F19" t="n">
-        <v>0.042</v>
+        <v>0.057</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.894</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="I19" t="n">
-        <v>0.037</v>
+        <v>0.044</v>
       </c>
       <c r="J19" t="n">
-        <v>0.043</v>
+        <v>0.056</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.898</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="P19" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="R19" t="n">
-        <v>0.043</v>
+        <v>0.056</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="T19" t="n">
         <v>11</v>
@@ -1695,52 +1695,52 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E20" t="n">
-        <v>0.046</v>
+        <v>0.051</v>
       </c>
       <c r="F20" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.052</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.048</v>
-      </c>
       <c r="R20" t="n">
-        <v>0.056</v>
+        <v>0.062</v>
       </c>
       <c r="S20" t="n">
-        <v>0.372</v>
+        <v>0.47</v>
       </c>
       <c r="T20" t="n">
         <v>12</v>
@@ -1759,52 +1759,52 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.001</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.969</v>
       </c>
       <c r="P21" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.029</v>
+        <v>0.038</v>
       </c>
       <c r="R21" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.869</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -1823,52 +1823,52 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.004</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="M22" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0.047</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.05</v>
-      </c>
       <c r="R22" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="S22" t="n">
-        <v>0.361</v>
+        <v>0.402</v>
       </c>
       <c r="T22" t="n">
         <v>13</v>
@@ -1890,13 +1890,13 @@
         <v>0.002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="F23" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="G23" t="n">
-        <v>0.923</v>
+        <v>0.878</v>
       </c>
       <c r="H23" t="n">
         <v>0.002</v>
@@ -1905,34 +1905,34 @@
         <v>0.037</v>
       </c>
       <c r="J23" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="K23" t="n">
-        <v>0.924</v>
+        <v>0.883</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.966</v>
       </c>
       <c r="P23" t="n">
         <v>0.002</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="R23" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="S23" t="n">
-        <v>0.922</v>
+        <v>0.877</v>
       </c>
       <c r="T23" t="n">
         <v>13</v>
@@ -1954,49 +1954,49 @@
         <v>0.003</v>
       </c>
       <c r="E24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.047</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.503</v>
       </c>
       <c r="P24" t="n">
         <v>0.003</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="R24" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="S24" t="n">
-        <v>0.512</v>
+        <v>0.255</v>
       </c>
       <c r="T24" t="n">
         <v>14</v>
@@ -2015,52 +2015,52 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E25" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="F25" t="n">
-        <v>0.043</v>
+        <v>0.052</v>
       </c>
       <c r="G25" t="n">
-        <v>0.919</v>
+        <v>0.872</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="I25" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="J25" t="n">
-        <v>0.042</v>
+        <v>0.053</v>
       </c>
       <c r="K25" t="n">
-        <v>0.924</v>
+        <v>0.87</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.985</v>
       </c>
       <c r="P25" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="R25" t="n">
-        <v>0.042</v>
+        <v>0.054</v>
       </c>
       <c r="S25" t="n">
-        <v>0.924</v>
+        <v>0.86</v>
       </c>
       <c r="T25" t="n">
         <v>14</v>
@@ -2079,52 +2079,52 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="E26" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.923</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-1.586</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-2.718</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.062</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.6850000000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-0.054</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.058</v>
-      </c>
       <c r="R26" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.5649999999999999</v>
+        <v>-0.873</v>
       </c>
       <c r="T26" t="n">
         <v>3</v>
@@ -2143,52 +2143,52 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E27" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="F27" t="n">
-        <v>0.042</v>
+        <v>0.051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.888</v>
+        <v>0.913</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="I27" t="n">
-        <v>0.028</v>
+        <v>0.047</v>
       </c>
       <c r="J27" t="n">
-        <v>0.041</v>
+        <v>0.062</v>
       </c>
       <c r="K27" t="n">
-        <v>0.895</v>
+        <v>0.872</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.846</v>
       </c>
       <c r="P27" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="R27" t="n">
-        <v>0.042</v>
+        <v>0.052</v>
       </c>
       <c r="S27" t="n">
-        <v>0.886</v>
+        <v>0.912</v>
       </c>
       <c r="T27" t="n">
         <v>3</v>
@@ -2210,49 +2210,49 @@
         <v>0.004</v>
       </c>
       <c r="E28" t="n">
-        <v>0.056</v>
+        <v>0.051</v>
       </c>
       <c r="F28" t="n">
-        <v>0.066</v>
+        <v>0.063</v>
       </c>
       <c r="G28" t="n">
-        <v>0.203</v>
+        <v>0.369</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I28" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="J28" t="n">
-        <v>0.065</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.223</v>
+        <v>0.229</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="P28" t="n">
         <v>0.004</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
       <c r="R28" t="n">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="S28" t="n">
-        <v>0.219</v>
+        <v>0.36</v>
       </c>
       <c r="T28" t="n">
         <v>4</v>
@@ -2271,52 +2271,52 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E29" t="n">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="F29" t="n">
-        <v>0.033</v>
+        <v>0.04</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>0.049</v>
+        <v>0.063</v>
       </c>
       <c r="J29" t="n">
-        <v>0.093</v>
+        <v>0.141</v>
       </c>
       <c r="K29" t="n">
-        <v>0.533</v>
+        <v>0.178</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.912</v>
       </c>
       <c r="P29" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="R29" t="n">
-        <v>0.033</v>
+        <v>0.043</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.924</v>
       </c>
       <c r="T29" t="n">
         <v>4</v>
@@ -2338,37 +2338,37 @@
         <v>0.004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="F30" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.245</v>
+        <v>0.327</v>
       </c>
       <c r="H30" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="I30" t="n">
-        <v>0.043</v>
+        <v>0.047</v>
       </c>
       <c r="J30" t="n">
-        <v>0.048</v>
+        <v>0.054</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.479</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.407</v>
       </c>
       <c r="P30" t="n">
         <v>0.004</v>
@@ -2377,10 +2377,10 @@
         <v>0.051</v>
       </c>
       <c r="R30" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="S30" t="n">
-        <v>0.247</v>
+        <v>0.346</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -2399,52 +2399,52 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.047</v>
+        <v>0.028</v>
       </c>
       <c r="F31" t="n">
-        <v>0.056</v>
+        <v>0.035</v>
       </c>
       <c r="G31" t="n">
-        <v>0.869</v>
+        <v>0.954</v>
       </c>
       <c r="H31" t="n">
-        <v>0.146</v>
+        <v>0.191</v>
       </c>
       <c r="I31" t="n">
-        <v>0.167</v>
+        <v>0.139</v>
       </c>
       <c r="J31" t="n">
-        <v>0.382</v>
+        <v>0.437</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.072</v>
+        <v>-6.028</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.874</v>
       </c>
       <c r="P31" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.047</v>
+        <v>0.028</v>
       </c>
       <c r="R31" t="n">
-        <v>0.055</v>
+        <v>0.036</v>
       </c>
       <c r="S31" t="n">
-        <v>0.876</v>
+        <v>0.953</v>
       </c>
       <c r="T31" t="n">
         <v>5</v>
@@ -2466,49 +2466,49 @@
         <v>0.004</v>
       </c>
       <c r="E32" t="n">
-        <v>0.055</v>
+        <v>0.051</v>
       </c>
       <c r="F32" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="G32" t="n">
-        <v>0.187</v>
+        <v>0.135</v>
       </c>
       <c r="H32" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M32" t="n">
         <v>0.05</v>
       </c>
-      <c r="J32" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="P32" t="n">
         <v>0.004</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.055</v>
+        <v>0.051</v>
       </c>
       <c r="R32" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="S32" t="n">
-        <v>0.195</v>
+        <v>0.13</v>
       </c>
       <c r="T32" t="n">
         <v>6</v>
@@ -2527,52 +2527,52 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="E33" t="n">
-        <v>0.025</v>
+        <v>0.038</v>
       </c>
       <c r="F33" t="n">
-        <v>0.029</v>
+        <v>0.052</v>
       </c>
       <c r="G33" t="n">
-        <v>0.958</v>
+        <v>0.854</v>
       </c>
       <c r="H33" t="n">
         <v>0.001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="J33" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0.039</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.024</v>
-      </c>
       <c r="R33" t="n">
-        <v>0.028</v>
+        <v>0.053</v>
       </c>
       <c r="S33" t="n">
-        <v>0.961</v>
+        <v>0.848</v>
       </c>
       <c r="T33" t="n">
         <v>6</v>
@@ -2594,49 +2594,49 @@
         <v>0.004</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="G34" t="n">
-        <v>0.226</v>
+        <v>0.291</v>
       </c>
       <c r="H34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="P34" t="n">
         <v>0.004</v>
       </c>
-      <c r="I34" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.003</v>
-      </c>
       <c r="Q34" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="R34" t="n">
-        <v>0.057</v>
+        <v>0.061</v>
       </c>
       <c r="S34" t="n">
-        <v>0.291</v>
+        <v>0.28</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -2661,46 +2661,46 @@
         <v>0.035</v>
       </c>
       <c r="F35" t="n">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="G35" t="n">
-        <v>0.929</v>
+        <v>0.914</v>
       </c>
       <c r="H35" t="n">
-        <v>0.007</v>
+        <v>0.048</v>
       </c>
       <c r="I35" t="n">
-        <v>0.045</v>
+        <v>0.09</v>
       </c>
       <c r="J35" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.219</v>
       </c>
       <c r="K35" t="n">
-        <v>0.659</v>
+        <v>-1.111</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.919</v>
       </c>
       <c r="P35" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="R35" t="n">
-        <v>0.038</v>
+        <v>0.048</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -2719,52 +2719,52 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E36" t="n">
-        <v>0.042</v>
+        <v>0.058</v>
       </c>
       <c r="F36" t="n">
-        <v>0.053</v>
+        <v>0.066</v>
       </c>
       <c r="G36" t="n">
-        <v>0.435</v>
+        <v>0.158</v>
       </c>
       <c r="H36" t="n">
         <v>0.003</v>
       </c>
       <c r="I36" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="J36" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M36" t="n">
         <v>0.05</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="P36" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.042</v>
+        <v>0.054</v>
       </c>
       <c r="R36" t="n">
-        <v>0.049</v>
+        <v>0.063</v>
       </c>
       <c r="S36" t="n">
-        <v>0.517</v>
+        <v>0.23</v>
       </c>
       <c r="T36" t="n">
         <v>8</v>
@@ -2786,49 +2786,49 @@
         <v>0.002</v>
       </c>
       <c r="E37" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="F37" t="n">
-        <v>0.046</v>
+        <v>0.04</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>0.931</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002</v>
+        <v>0.017</v>
       </c>
       <c r="I37" t="n">
-        <v>0.032</v>
+        <v>0.073</v>
       </c>
       <c r="J37" t="n">
-        <v>0.041</v>
+        <v>0.129</v>
       </c>
       <c r="K37" t="n">
-        <v>0.919</v>
+        <v>0.263</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="P37" t="n">
         <v>0.002</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="R37" t="n">
-        <v>0.046</v>
+        <v>0.039</v>
       </c>
       <c r="S37" t="n">
-        <v>0.898</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="T37" t="n">
         <v>8</v>
@@ -2847,52 +2847,52 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E38" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.049</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.057</v>
-      </c>
       <c r="G38" t="n">
-        <v>0.111</v>
+        <v>0.453</v>
       </c>
       <c r="H38" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I38" t="n">
-        <v>0.046</v>
+        <v>0.037</v>
       </c>
       <c r="J38" t="n">
-        <v>0.055</v>
+        <v>0.043</v>
       </c>
       <c r="K38" t="n">
-        <v>0.182</v>
+        <v>0.584</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="P38" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.047</v>
+        <v>0.037</v>
       </c>
       <c r="R38" t="n">
-        <v>0.054</v>
+        <v>0.044</v>
       </c>
       <c r="S38" t="n">
-        <v>0.211</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="T38" t="n">
         <v>9</v>
@@ -2911,52 +2911,52 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E39" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="F39" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="G39" t="n">
-        <v>0.897</v>
+        <v>0.921</v>
       </c>
       <c r="H39" t="n">
         <v>0.002</v>
       </c>
       <c r="I39" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="J39" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q39" t="n">
         <v>0.04</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.042</v>
-      </c>
       <c r="R39" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="S39" t="n">
-        <v>0.898</v>
+        <v>0.915</v>
       </c>
       <c r="T39" t="n">
         <v>9</v>
@@ -2975,52 +2975,52 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E40" t="n">
-        <v>0.045</v>
+        <v>0.056</v>
       </c>
       <c r="F40" t="n">
-        <v>0.056</v>
+        <v>0.068</v>
       </c>
       <c r="G40" t="n">
-        <v>0.433</v>
+        <v>0.293</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I40" t="n">
-        <v>0.045</v>
+        <v>0.051</v>
       </c>
       <c r="J40" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="K40" t="n">
-        <v>0.446</v>
+        <v>0.464</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="P40" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.044</v>
+        <v>0.053</v>
       </c>
       <c r="R40" t="n">
-        <v>0.053</v>
+        <v>0.062</v>
       </c>
       <c r="S40" t="n">
-        <v>0.495</v>
+        <v>0.419</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3039,52 +3039,52 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03</v>
+        <v>0.047</v>
       </c>
       <c r="F41" t="n">
-        <v>0.038</v>
+        <v>0.056</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="H41" t="n">
         <v>0.003</v>
       </c>
       <c r="I41" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="J41" t="n">
         <v>0.051</v>
       </c>
       <c r="K41" t="n">
-        <v>0.901</v>
+        <v>0.897</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.831</v>
       </c>
       <c r="P41" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.031</v>
+        <v>0.047</v>
       </c>
       <c r="R41" t="n">
-        <v>0.04</v>
+        <v>0.056</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3106,49 +3106,49 @@
         <v>0.004</v>
       </c>
       <c r="E42" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="F42" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="G42" t="n">
-        <v>0.311</v>
+        <v>0.297</v>
       </c>
       <c r="H42" t="n">
         <v>0.003</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
       <c r="J42" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
       <c r="K42" t="n">
-        <v>0.439</v>
+        <v>0.468</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="P42" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q42" t="n">
         <v>0.049</v>
       </c>
       <c r="R42" t="n">
-        <v>0.057</v>
+        <v>0.061</v>
       </c>
       <c r="S42" t="n">
-        <v>0.397</v>
+        <v>0.29</v>
       </c>
       <c r="T42" t="n">
         <v>11</v>
@@ -3170,49 +3170,49 @@
         <v>0.002</v>
       </c>
       <c r="E43" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="F43" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="G43" t="n">
-        <v>0.849</v>
+        <v>0.908</v>
       </c>
       <c r="H43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.001</v>
       </c>
-      <c r="I43" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="P43" t="n">
         <v>0.002</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="R43" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="S43" t="n">
-        <v>0.861</v>
+        <v>0.894</v>
       </c>
       <c r="T43" t="n">
         <v>11</v>
@@ -3231,52 +3231,52 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E44" t="n">
         <v>0.054</v>
       </c>
       <c r="F44" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="R44" t="n">
         <v>0.067</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.06900000000000001</v>
-      </c>
       <c r="S44" t="n">
-        <v>0.12</v>
+        <v>0.498</v>
       </c>
       <c r="T44" t="n">
         <v>12</v>
@@ -3298,49 +3298,49 @@
         <v>0.002</v>
       </c>
       <c r="E45" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="F45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.041</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="K45" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.001</v>
       </c>
-      <c r="I45" t="n">
+      <c r="M45" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.031</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>0.959</v>
       </c>
       <c r="P45" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="R45" t="n">
-        <v>0.042</v>
+        <v>0.051</v>
       </c>
       <c r="S45" t="n">
-        <v>0.928</v>
+        <v>0.89</v>
       </c>
       <c r="T45" t="n">
         <v>12</v>
@@ -3359,52 +3359,52 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E46" t="n">
-        <v>0.055</v>
+        <v>0.047</v>
       </c>
       <c r="F46" t="n">
-        <v>0.067</v>
+        <v>0.056</v>
       </c>
       <c r="G46" t="n">
-        <v>0.286</v>
+        <v>0.369</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I46" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="J46" t="n">
-        <v>0.056</v>
+        <v>0.049</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5</v>
+        <v>0.503</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.762</v>
       </c>
       <c r="P46" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="R46" t="n">
-        <v>0.067</v>
+        <v>0.052</v>
       </c>
       <c r="S46" t="n">
-        <v>0.284</v>
+        <v>0.437</v>
       </c>
       <c r="T46" t="n">
         <v>13</v>
@@ -3423,52 +3423,52 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E47" t="n">
-        <v>0.031</v>
+        <v>0.04</v>
       </c>
       <c r="F47" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q47" t="n">
         <v>0.039</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.032</v>
-      </c>
       <c r="R47" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="S47" t="n">
-        <v>0.924</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="T47" t="n">
         <v>13</v>
@@ -3487,52 +3487,52 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E48" t="n">
-        <v>0.041</v>
+        <v>0.047</v>
       </c>
       <c r="F48" t="n">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="G48" t="n">
-        <v>0.403</v>
+        <v>0.533</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="I48" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="J48" t="n">
-        <v>0.046</v>
+        <v>0.054</v>
       </c>
       <c r="K48" t="n">
-        <v>0.547</v>
+        <v>0.625</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="P48" t="n">
         <v>0.003</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.041</v>
+        <v>0.047</v>
       </c>
       <c r="R48" t="n">
-        <v>0.053</v>
+        <v>0.058</v>
       </c>
       <c r="S48" t="n">
-        <v>0.402</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="T48" t="n">
         <v>14</v>
@@ -3554,49 +3554,49 @@
         <v>0.002</v>
       </c>
       <c r="E49" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="F49" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.904</v>
       </c>
       <c r="H49" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.001</v>
       </c>
-      <c r="I49" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>0.968</v>
       </c>
       <c r="P49" t="n">
         <v>0.002</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="R49" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="S49" t="n">
-        <v>0.928</v>
+        <v>0.898</v>
       </c>
       <c r="T49" t="n">
         <v>14</v>
